--- a/設計書/DB設計書/映画予約システム　DB設計書.xlsx
+++ b/設計書/DB設計書/映画予約システム　DB設計書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/映画予約システム　DB設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\ntmc\設計書\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3CAE48-1DD2-436D-96BC-43EEA9809448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -25,11 +26,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ユーザー!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">予約!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">日誌!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">映画!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">管理者!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">日誌!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">予約!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="199">
   <si>
     <t>No</t>
   </si>
@@ -1148,10 +1149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>appointment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>管理者情報を定義</t>
     <rPh sb="0" eb="8">
       <t>ガッkテイg</t>
@@ -1194,6 +1191,37 @@
     <t>映画予約システムにて使用するエンティティのCRUDを示す</t>
     <rPh sb="0" eb="28">
       <t>シヨウシメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約明細</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>appoint_meisai</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約明細を定義</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1201,12 +1229,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2935,11 +2963,11 @@
     <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準_Sheet1" xfId="4"/>
-    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3"/>
-    <cellStyle name="標準_システム管理" xfId="2"/>
-    <cellStyle name="標準_種別マスタ" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準_システム管理" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
@@ -2983,7 +3011,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,22 +3057,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1952691</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>43291</xdr:rowOff>
+      <xdr:colOff>2010543</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>15264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599317</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>148816</xdr:rowOff>
+      <xdr:colOff>667931</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>88502</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="16" name="グループ化 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12F977F3-E7BB-7C41-8268-3405AEC40DE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F977F3-E7BB-7C41-8268-3405AEC40DE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,10 +3080,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5983561" y="11951842"/>
-          <a:ext cx="1904452" cy="2737554"/>
-          <a:chOff x="6549615" y="8332894"/>
-          <a:chExt cx="1913402" cy="2232193"/>
+          <a:off x="6045439" y="13495785"/>
+          <a:ext cx="1924992" cy="2480946"/>
+          <a:chOff x="6538821" y="8360361"/>
+          <a:chExt cx="1924196" cy="2204726"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3063,7 +3091,7 @@
           <xdr:cNvPr id="2" name="正方形/長方形 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E570E7-5750-0444-BBD1-AC8DAB25B633}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E570E7-5750-0444-BBD1-AC8DAB25B633}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3071,7 +3099,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6549615" y="8332894"/>
+            <a:off x="6538821" y="8360361"/>
             <a:ext cx="1913400" cy="423834"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3111,7 +3139,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35903CCD-F0EE-0F45-982E-7A575E428D1E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35903CCD-F0EE-0F45-982E-7A575E428D1E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3201,22 +3229,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929059</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>17166</xdr:rowOff>
+      <xdr:colOff>2034892</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>604319</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>71907</xdr:rowOff>
+      <xdr:colOff>710152</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>5761</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFBD4771-D66D-AB45-AA57-3027E007550D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBD4771-D66D-AB45-AA57-3027E007550D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,8 +3252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5959929" y="7471514"/>
-          <a:ext cx="1933086" cy="1876915"/>
+          <a:off x="6069788" y="7690083"/>
+          <a:ext cx="1942864" cy="1721616"/>
           <a:chOff x="3418191" y="10011384"/>
           <a:chExt cx="1661810" cy="2134680"/>
         </a:xfrm>
@@ -3235,7 +3263,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4020EF9-7EFB-EF48-A492-C011FE559DA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4020EF9-7EFB-EF48-A492-C011FE559DA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3283,7 +3311,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB93290E-DFD9-7546-9F58-D1321B4C143A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB93290E-DFD9-7546-9F58-D1321B4C143A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3319,7 +3347,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＃＊管理者ユーザー</a:t>
+              <a:t>＃＊管理者</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -3343,20 +3371,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1072928</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>65689</xdr:rowOff>
+      <xdr:rowOff>65688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1335689</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>109482</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{864FB06D-634C-F64C-8C84-FA483A77B5CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864FB06D-634C-F64C-8C84-FA483A77B5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,10 +3392,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1459450" y="7115109"/>
-          <a:ext cx="1956094" cy="2473359"/>
+          <a:off x="1456574" y="7063917"/>
+          <a:ext cx="1969323" cy="2461082"/>
           <a:chOff x="3418191" y="10011384"/>
-          <a:chExt cx="1661810" cy="2134680"/>
+          <a:chExt cx="1661810" cy="2318157"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3375,7 +3403,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF47DA96-DAD0-5C47-9A56-BE742699ACB1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF47DA96-DAD0-5C47-9A56-BE742699ACB1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3423,7 +3451,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C375DC3F-665C-B84F-998B-D7AA468BAF58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C375DC3F-665C-B84F-998B-D7AA468BAF58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3432,7 +3460,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3418192" y="10430213"/>
-            <a:ext cx="1661809" cy="1715851"/>
+            <a:ext cx="1661809" cy="1899328"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3517,22 +3545,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1162409</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>1140883</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>79879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1260944</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>112726</xdr:rowOff>
+      <xdr:colOff>1239418</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="13" name="グループ化 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23E70ACB-F007-B643-9F39-30ADE662F893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E70ACB-F007-B643-9F39-30ADE662F893}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,8 +3568,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1548931" y="12393357"/>
-          <a:ext cx="1791868" cy="2057485"/>
+          <a:off x="1524529" y="10782275"/>
+          <a:ext cx="1805097" cy="1884929"/>
           <a:chOff x="3418190" y="10011382"/>
           <a:chExt cx="1661811" cy="2134682"/>
         </a:xfrm>
@@ -3551,7 +3579,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D08AD645-5FEB-4343-9FCD-7F90C543CA73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08AD645-5FEB-4343-9FCD-7F90C543CA73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3599,7 +3627,331 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D40CE87D-810B-E348-AAB4-0FEE60AAA44B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40CE87D-810B-E348-AAB4-0FEE60AAA44B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="1715851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊予約</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊映画</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊上映時間</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336868</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>351028</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>79879</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7500641-6B79-8B42-848A-2717166A43C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2427076" y="9525000"/>
+          <a:ext cx="14160" cy="1257275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1335689</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2034893</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0C2E2E-B4EE-BE48-A0C7-086108C0ED25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3425897" y="8516784"/>
+          <a:ext cx="2643892" cy="203000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1241917</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>5032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2021342</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>102232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C75B14-E6E5-F04A-9102-DCF065DB23F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3332125" y="14967220"/>
+          <a:ext cx="2724113" cy="97200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1130085</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1241917</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>118949</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7540C4B4-9D14-405D-B566-14BB65DC1899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1513731" y="13937040"/>
+          <a:ext cx="1818394" cy="1884930"/>
+          <a:chOff x="3418190" y="10011382"/>
+          <a:chExt cx="1661811" cy="2134682"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CCA1A5-D379-4851-BE41-29993E76522E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418190" y="10011382"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>予約明細</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340AD5DC-58FA-49C0-A6B0-30FEFD955FB0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3646,18 +3998,15 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＊ユーザー</a:t>
+              <a:t>＃＊座席番号</a:t>
             </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>ID </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＊映画</a:t>
+              <a:t>　＊ユーザー</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -3666,10 +4015,10 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＊座席</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:p>
         </xdr:txBody>
@@ -3680,34 +4029,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>349803</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>109482</xdr:rowOff>
+      <xdr:colOff>335746</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>357169</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>79879</xdr:rowOff>
+      <xdr:colOff>339898</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86102</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7500641-6B79-8B42-848A-2717166A43C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D469FE4-5CCA-417A-9FDA-26354D2CC2C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="14" idx="0"/>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2435112" y="9062198"/>
-          <a:ext cx="7366" cy="2384965"/>
+        <a:xfrm flipH="1">
+          <a:off x="2412949" y="13017217"/>
+          <a:ext cx="4152" cy="1329478"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3731,263 +4080,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1335689</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>115948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1929060</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>122446</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC0C2E2E-B4EE-BE48-A0C7-086108C0ED25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3420998" y="8206318"/>
-          <a:ext cx="2537568" cy="6498"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1260944</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>67655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1952692</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>96250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C75B14-E6E5-F04A-9102-DCF065DB23F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="15" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3346253" y="12469754"/>
-          <a:ext cx="2635945" cy="28595"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323026</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>156325</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{552FC446-1E67-DD46-A673-1DF0042EB466}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9820045" y="10947032"/>
-          <a:ext cx="1896169" cy="2737554"/>
-          <a:chOff x="6549615" y="8332894"/>
-          <a:chExt cx="1913402" cy="2232193"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="正方形/長方形 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77EAC0AE-2AA4-BB45-93E2-BE588D0201F5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6549615" y="8332894"/>
-            <a:ext cx="1913400" cy="423834"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>座席</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EB085A8-E081-894D-A848-B4DE8D114A1E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6549616" y="8770856"/>
-            <a:ext cx="1913401" cy="1794231"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＃＊座席</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>ID </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＊座席場所名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4279,8 +4371,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:FT34"/>
@@ -4289,7 +4381,7 @@
       <selection activeCell="F25" sqref="F25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1640625" style="12" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
@@ -4488,7 +4580,7 @@
     <col min="16165" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:176" ht="15.75" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4522,7 +4614,7 @@
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
     </row>
-    <row r="2" spans="1:176" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:176" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4700,7 +4792,7 @@
       <c r="FS2" s="14"/>
       <c r="FT2" s="14"/>
     </row>
-    <row r="3" spans="1:176" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:176" ht="28.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4738,7 +4830,7 @@
       <c r="AE3" s="171"/>
       <c r="AF3" s="16"/>
     </row>
-    <row r="4" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:176" ht="15.75" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -4772,7 +4864,7 @@
       <c r="AE4" s="18"/>
       <c r="AF4" s="16"/>
     </row>
-    <row r="5" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:176" ht="15.75" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4806,7 +4898,7 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:176" ht="15.75" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -4840,7 +4932,7 @@
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
     </row>
-    <row r="7" spans="1:176" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:176" ht="20.25" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="40" t="s">
         <v>37</v>
@@ -4877,7 +4969,7 @@
       <c r="AD7" s="16"/>
       <c r="AF7" s="16"/>
     </row>
-    <row r="8" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="158" t="s">
         <v>39</v>
@@ -4921,7 +5013,7 @@
       <c r="AE8" s="154"/>
       <c r="AF8" s="16"/>
     </row>
-    <row r="9" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="161"/>
       <c r="C9" s="162"/>
@@ -4959,7 +5051,7 @@
       <c r="AE9" s="176"/>
       <c r="AF9" s="16"/>
     </row>
-    <row r="10" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:176" ht="15.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4993,7 +5085,7 @@
       <c r="AE10" s="179"/>
       <c r="AF10" s="16"/>
     </row>
-    <row r="11" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:176" ht="15.75" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5027,7 +5119,7 @@
       <c r="AE11" s="179"/>
       <c r="AF11" s="16"/>
     </row>
-    <row r="12" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:176" ht="15.75" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -5061,7 +5153,7 @@
       <c r="AE12" s="182"/>
       <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:176" ht="15.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -5091,7 +5183,7 @@
       <c r="AE13" s="12"/>
       <c r="AF13" s="16"/>
     </row>
-    <row r="14" spans="1:176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:176" ht="15.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -5121,7 +5213,7 @@
       <c r="AE14" s="12"/>
       <c r="AF14" s="16"/>
     </row>
-    <row r="15" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -5155,7 +5247,7 @@
       <c r="AE15" s="20"/>
       <c r="AF15" s="16"/>
     </row>
-    <row r="16" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="183" t="s">
         <v>154</v>
@@ -5191,7 +5283,7 @@
       <c r="AE16" s="183"/>
       <c r="AF16" s="16"/>
     </row>
-    <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="183"/>
       <c r="C17" s="183"/>
@@ -5225,7 +5317,7 @@
       <c r="AE17" s="183"/>
       <c r="AF17" s="16"/>
     </row>
-    <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="183"/>
       <c r="C18" s="183"/>
@@ -5259,7 +5351,7 @@
       <c r="AE18" s="183"/>
       <c r="AF18" s="16"/>
     </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" ht="15" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5293,7 +5385,7 @@
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
     </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5327,7 +5419,7 @@
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
     </row>
-    <row r="21" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1">
       <c r="A21" s="43"/>
       <c r="B21" s="44" t="s">
         <v>43</v>
@@ -5363,7 +5455,7 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="43"/>
     </row>
-    <row r="22" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -5397,7 +5489,7 @@
       <c r="AE22" s="43"/>
       <c r="AF22" s="43"/>
     </row>
-    <row r="23" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="43"/>
       <c r="B23" s="170" t="s">
         <v>44</v>
@@ -5439,7 +5531,7 @@
       <c r="AE23" s="171"/>
       <c r="AF23" s="43"/>
     </row>
-    <row r="24" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="170" t="s">
         <v>158</v>
@@ -5481,7 +5573,7 @@
       <c r="AE24" s="171"/>
       <c r="AF24" s="16"/>
     </row>
-    <row r="25" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="170"/>
       <c r="C25" s="173"/>
@@ -5515,7 +5607,7 @@
       <c r="AE25" s="171"/>
       <c r="AF25" s="16"/>
     </row>
-    <row r="26" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="170"/>
       <c r="C26" s="173"/>
@@ -5549,7 +5641,7 @@
       <c r="AE26" s="171"/>
       <c r="AF26" s="16"/>
     </row>
-    <row r="27" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="170"/>
       <c r="C27" s="173"/>
@@ -5583,7 +5675,7 @@
       <c r="AE27" s="171"/>
       <c r="AF27" s="16"/>
     </row>
-    <row r="28" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="170"/>
       <c r="C28" s="173"/>
@@ -5617,7 +5709,7 @@
       <c r="AE28" s="171"/>
       <c r="AF28" s="16"/>
     </row>
-    <row r="29" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="170"/>
       <c r="C29" s="173"/>
@@ -5651,7 +5743,7 @@
       <c r="AE29" s="171"/>
       <c r="AF29" s="16"/>
     </row>
-    <row r="30" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="170"/>
       <c r="C30" s="173"/>
@@ -5685,7 +5777,7 @@
       <c r="AE30" s="171"/>
       <c r="AF30" s="16"/>
     </row>
-    <row r="31" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="170"/>
       <c r="C31" s="173"/>
@@ -5719,7 +5811,7 @@
       <c r="AE31" s="171"/>
       <c r="AF31" s="16"/>
     </row>
-    <row r="32" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="170"/>
       <c r="C32" s="173"/>
@@ -5753,7 +5845,7 @@
       <c r="AE32" s="171"/>
       <c r="AF32" s="16"/>
     </row>
-    <row r="33" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="170"/>
       <c r="C33" s="173"/>
@@ -5787,7 +5879,7 @@
       <c r="AE33" s="171"/>
       <c r="AF33" s="16"/>
     </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -5891,17 +5983,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="69" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="48" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
@@ -5912,7 +6004,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="122" t="s">
         <v>155</v>
       </c>
@@ -5922,7 +6014,7 @@
       <c r="E1" s="123"/>
       <c r="F1" s="124"/>
     </row>
-    <row r="2" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="194" t="s">
         <v>18</v>
       </c>
@@ -5938,7 +6030,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="194" t="s">
         <v>19</v>
       </c>
@@ -5954,7 +6046,7 @@
         <v>43596</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="194" t="s">
         <v>20</v>
       </c>
@@ -5970,7 +6062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="194" t="s">
         <v>23</v>
       </c>
@@ -5986,7 +6078,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="194" t="s">
         <v>21</v>
       </c>
@@ -6002,7 +6094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -6010,7 +6102,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>30</v>
       </c>
@@ -6020,7 +6112,7 @@
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="30" t="s">
         <v>31</v>
       </c>
@@ -6038,7 +6130,7 @@
       </c>
       <c r="F9" s="201"/>
     </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="130">
         <v>1</v>
       </c>
@@ -6052,11 +6144,11 @@
         <v>59</v>
       </c>
       <c r="E10" s="196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" s="197"/>
     </row>
-    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="130">
         <v>2</v>
       </c>
@@ -6070,11 +6162,11 @@
         <v>60</v>
       </c>
       <c r="E11" s="196" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="197"/>
     </row>
-    <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="130">
         <v>3</v>
       </c>
@@ -6088,11 +6180,11 @@
         <v>60</v>
       </c>
       <c r="E12" s="196" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="197"/>
     </row>
-    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="130">
         <v>4</v>
       </c>
@@ -6100,25 +6192,35 @@
         <v>184</v>
       </c>
       <c r="C13" s="130" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D13" s="130" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="196" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F13" s="197"/>
     </row>
-    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="196"/>
+    <row r="14" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A14" s="130">
+        <v>5</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="196" t="s">
+        <v>198</v>
+      </c>
       <c r="F14" s="197"/>
     </row>
-    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6126,7 +6228,7 @@
       <c r="E15" s="198"/>
       <c r="F15" s="199"/>
     </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6134,7 +6236,7 @@
       <c r="E16" s="198"/>
       <c r="F16" s="199"/>
     </row>
-    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -6142,7 +6244,7 @@
       <c r="E17" s="198"/>
       <c r="F17" s="199"/>
     </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>34</v>
       </c>
@@ -6152,7 +6254,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6160,7 +6262,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6168,7 +6270,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6176,7 +6278,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6184,7 +6286,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6192,7 +6294,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6200,7 +6302,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6208,7 +6310,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6216,7 +6318,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6224,7 +6326,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6232,7 +6334,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6240,7 +6342,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6248,7 +6350,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6256,7 +6358,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6264,7 +6366,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6272,7 +6374,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6280,7 +6382,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6288,7 +6390,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6296,7 +6398,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6304,7 +6406,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6312,7 +6414,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6320,7 +6422,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6328,7 +6430,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6336,7 +6438,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6344,7 +6446,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6352,7 +6454,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6360,7 +6462,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6368,7 +6470,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6376,7 +6478,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6384,7 +6486,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6392,7 +6494,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6400,7 +6502,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6408,7 +6510,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6416,7 +6518,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6424,7 +6526,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6432,7 +6534,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6440,7 +6542,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6448,7 +6550,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6456,7 +6558,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6464,7 +6566,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6472,7 +6574,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6480,7 +6582,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6488,7 +6590,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6496,7 +6598,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6504,7 +6606,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6512,7 +6614,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6520,7 +6622,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -6528,7 +6630,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6536,7 +6638,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6544,7 +6646,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6552,7 +6654,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6560,7 +6662,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6568,7 +6670,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6576,7 +6678,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6584,7 +6686,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6592,7 +6694,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -6630,8 +6732,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
@@ -6640,7 +6742,7 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -6650,7 +6752,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="125" t="s">
         <v>156</v>
       </c>
@@ -6662,7 +6764,7 @@
       <c r="G1" s="126"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -6684,7 +6786,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
@@ -6706,7 +6808,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
@@ -6724,7 +6826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -6734,7 +6836,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>49</v>
       </c>
@@ -6748,7 +6850,7 @@
       <c r="G6" s="217"/>
       <c r="H6" s="191"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>33</v>
       </c>
@@ -6762,7 +6864,7 @@
       <c r="G7" s="217"/>
       <c r="H7" s="191"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>50</v>
       </c>
@@ -6776,7 +6878,7 @@
       <c r="G8" s="217"/>
       <c r="H8" s="191"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
         <v>51</v>
       </c>
@@ -6788,7 +6890,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>0</v>
       </c>
@@ -6812,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="132">
         <v>1</v>
       </c>
@@ -6834,7 +6936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="137">
         <v>2</v>
       </c>
@@ -6854,7 +6956,7 @@
       <c r="G12" s="140"/>
       <c r="H12" s="141"/>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="202"/>
@@ -6864,7 +6966,7 @@
       <c r="G13" s="75"/>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="77"/>
       <c r="B14" s="78"/>
       <c r="C14" s="202"/>
@@ -6874,7 +6976,7 @@
       <c r="G14" s="80"/>
       <c r="H14" s="81"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="77"/>
       <c r="B15" s="78"/>
       <c r="C15" s="202"/>
@@ -6884,7 +6986,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="81"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="77"/>
       <c r="B16" s="78"/>
       <c r="C16" s="202"/>
@@ -6894,7 +6996,7 @@
       <c r="G16" s="80"/>
       <c r="H16" s="81"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
       <c r="C17" s="202"/>
@@ -6904,7 +7006,7 @@
       <c r="G17" s="80"/>
       <c r="H17" s="81"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
       <c r="C18" s="202"/>
@@ -6914,7 +7016,7 @@
       <c r="G18" s="80"/>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="77"/>
       <c r="B19" s="78"/>
       <c r="C19" s="202"/>
@@ -6924,7 +7026,7 @@
       <c r="G19" s="80"/>
       <c r="H19" s="81"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="77"/>
       <c r="B20" s="78"/>
       <c r="C20" s="202"/>
@@ -6934,7 +7036,7 @@
       <c r="G20" s="80"/>
       <c r="H20" s="81"/>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="202"/>
@@ -6944,7 +7046,7 @@
       <c r="G21" s="80"/>
       <c r="H21" s="81"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="77"/>
       <c r="B22" s="78"/>
       <c r="C22" s="202"/>
@@ -6954,7 +7056,7 @@
       <c r="G22" s="80"/>
       <c r="H22" s="81"/>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="77"/>
       <c r="B23" s="78"/>
       <c r="C23" s="202"/>
@@ -6964,7 +7066,7 @@
       <c r="G23" s="80"/>
       <c r="H23" s="81"/>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="202"/>
@@ -6974,7 +7076,7 @@
       <c r="G24" s="80"/>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="77"/>
       <c r="B25" s="78"/>
       <c r="C25" s="202"/>
@@ -6984,7 +7086,7 @@
       <c r="G25" s="80"/>
       <c r="H25" s="81"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="77"/>
       <c r="B26" s="78"/>
       <c r="C26" s="202"/>
@@ -6994,7 +7096,7 @@
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="202"/>
@@ -7004,7 +7106,7 @@
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="77"/>
       <c r="B28" s="78"/>
       <c r="C28" s="202"/>
@@ -7014,7 +7116,7 @@
       <c r="G28" s="80"/>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="77"/>
       <c r="B29" s="78"/>
       <c r="C29" s="202"/>
@@ -7024,7 +7126,7 @@
       <c r="G29" s="80"/>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
       <c r="C30" s="204"/>
@@ -7034,7 +7136,7 @@
       <c r="G30" s="85"/>
       <c r="H30" s="86"/>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="57"/>
@@ -7044,7 +7146,7 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="52" t="s">
         <v>7</v>
       </c>
@@ -7056,7 +7158,7 @@
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
@@ -7076,7 +7178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
       <c r="B34" s="221"/>
       <c r="C34" s="222"/>
@@ -7086,7 +7188,7 @@
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="209"/>
       <c r="C35" s="210"/>
@@ -7096,7 +7198,7 @@
       <c r="G35" s="75"/>
       <c r="H35" s="76"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
       <c r="B36" s="209"/>
       <c r="C36" s="210"/>
@@ -7106,7 +7208,7 @@
       <c r="G36" s="75"/>
       <c r="H36" s="76"/>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
       <c r="B37" s="209"/>
       <c r="C37" s="210"/>
@@ -7116,7 +7218,7 @@
       <c r="G37" s="75"/>
       <c r="H37" s="76"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="82"/>
       <c r="B38" s="207"/>
       <c r="C38" s="208"/>
@@ -7126,7 +7228,7 @@
       <c r="G38" s="85"/>
       <c r="H38" s="86"/>
     </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="57"/>
@@ -7136,7 +7238,7 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="52" t="s">
         <v>11</v>
       </c>
@@ -7148,7 +7250,7 @@
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
     </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="59" t="s">
         <v>0</v>
       </c>
@@ -7168,7 +7270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="88"/>
       <c r="C42" s="214"/>
@@ -7178,7 +7280,7 @@
       <c r="G42" s="216"/>
       <c r="H42" s="89"/>
     </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="90"/>
       <c r="B43" s="91"/>
       <c r="C43" s="211"/>
@@ -7188,7 +7290,7 @@
       <c r="G43" s="213"/>
       <c r="H43" s="92"/>
     </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="90"/>
       <c r="B44" s="91"/>
       <c r="C44" s="211"/>
@@ -7198,7 +7300,7 @@
       <c r="G44" s="213"/>
       <c r="H44" s="92"/>
     </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="90"/>
       <c r="B45" s="91"/>
       <c r="C45" s="211"/>
@@ -7208,7 +7310,7 @@
       <c r="G45" s="213"/>
       <c r="H45" s="92"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="93"/>
       <c r="B46" s="94"/>
       <c r="C46" s="204"/>
@@ -7218,7 +7320,7 @@
       <c r="G46" s="230"/>
       <c r="H46" s="95"/>
     </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="57"/>
@@ -7228,7 +7330,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
     </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>15</v>
       </c>
@@ -7240,7 +7342,7 @@
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
     </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="53" t="s">
         <v>0</v>
       </c>
@@ -7260,7 +7362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="142">
         <v>1</v>
       </c>
@@ -7278,7 +7380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="90"/>
       <c r="B51" s="91"/>
       <c r="C51" s="211"/>
@@ -7288,7 +7390,7 @@
       <c r="G51" s="213"/>
       <c r="H51" s="92"/>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="90"/>
       <c r="B52" s="91"/>
       <c r="C52" s="211"/>
@@ -7298,7 +7400,7 @@
       <c r="G52" s="213"/>
       <c r="H52" s="92"/>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="91"/>
       <c r="C53" s="211"/>
@@ -7308,7 +7410,7 @@
       <c r="G53" s="213"/>
       <c r="H53" s="92"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="93"/>
       <c r="B54" s="94"/>
       <c r="C54" s="204"/>
@@ -7390,8 +7492,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
@@ -7400,7 +7502,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -7410,7 +7512,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="125" t="s">
         <v>156</v>
       </c>
@@ -7422,7 +7524,7 @@
       <c r="G1" s="126"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
@@ -7444,7 +7546,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>19</v>
       </c>
@@ -7466,7 +7568,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="65" t="s">
         <v>20</v>
       </c>
@@ -7484,7 +7586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -7494,7 +7596,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="65" t="s">
         <v>49</v>
       </c>
@@ -7508,7 +7610,7 @@
       <c r="G6" s="217"/>
       <c r="H6" s="191"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
@@ -7522,7 +7624,7 @@
       <c r="G7" s="217"/>
       <c r="H7" s="191"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
@@ -7536,7 +7638,7 @@
       <c r="G8" s="217"/>
       <c r="H8" s="191"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
         <v>51</v>
       </c>
@@ -7548,7 +7650,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>0</v>
       </c>
@@ -7572,7 +7674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="132">
         <v>1</v>
       </c>
@@ -7594,7 +7696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="137">
         <v>2</v>
       </c>
@@ -7616,7 +7718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="137">
         <v>3</v>
       </c>
@@ -7636,7 +7738,7 @@
       <c r="G13" s="140"/>
       <c r="H13" s="141"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="145">
         <v>4</v>
       </c>
@@ -7654,7 +7756,7 @@
       <c r="G14" s="146"/>
       <c r="H14" s="147"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="145">
         <v>5</v>
       </c>
@@ -7676,7 +7778,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="77"/>
       <c r="B16" s="78"/>
       <c r="C16" s="202"/>
@@ -7686,7 +7788,7 @@
       <c r="G16" s="80"/>
       <c r="H16" s="81"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
       <c r="C17" s="202"/>
@@ -7696,7 +7798,7 @@
       <c r="G17" s="80"/>
       <c r="H17" s="81"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
       <c r="C18" s="202"/>
@@ -7706,7 +7808,7 @@
       <c r="G18" s="80"/>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="77"/>
       <c r="B19" s="78"/>
       <c r="C19" s="202"/>
@@ -7716,7 +7818,7 @@
       <c r="G19" s="80"/>
       <c r="H19" s="81"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="77"/>
       <c r="B20" s="78"/>
       <c r="C20" s="202"/>
@@ -7726,7 +7828,7 @@
       <c r="G20" s="80"/>
       <c r="H20" s="81"/>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="202"/>
@@ -7736,7 +7838,7 @@
       <c r="G21" s="80"/>
       <c r="H21" s="81"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="77"/>
       <c r="B22" s="78"/>
       <c r="C22" s="202"/>
@@ -7746,7 +7848,7 @@
       <c r="G22" s="80"/>
       <c r="H22" s="81"/>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="77"/>
       <c r="B23" s="78"/>
       <c r="C23" s="202"/>
@@ -7756,7 +7858,7 @@
       <c r="G23" s="80"/>
       <c r="H23" s="81"/>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="202"/>
@@ -7766,7 +7868,7 @@
       <c r="G24" s="80"/>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="77"/>
       <c r="B25" s="78"/>
       <c r="C25" s="202"/>
@@ -7776,7 +7878,7 @@
       <c r="G25" s="80"/>
       <c r="H25" s="81"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="77"/>
       <c r="B26" s="78"/>
       <c r="C26" s="202"/>
@@ -7786,7 +7888,7 @@
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="202"/>
@@ -7796,7 +7898,7 @@
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="77"/>
       <c r="B28" s="78"/>
       <c r="C28" s="202"/>
@@ -7806,7 +7908,7 @@
       <c r="G28" s="80"/>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="77"/>
       <c r="B29" s="78"/>
       <c r="C29" s="202"/>
@@ -7816,7 +7918,7 @@
       <c r="G29" s="80"/>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
       <c r="C30" s="204"/>
@@ -7826,7 +7928,7 @@
       <c r="G30" s="85"/>
       <c r="H30" s="86"/>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="57"/>
@@ -7836,7 +7938,7 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="52" t="s">
         <v>7</v>
       </c>
@@ -7848,7 +7950,7 @@
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
@@ -7868,7 +7970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
       <c r="B34" s="221"/>
       <c r="C34" s="222"/>
@@ -7878,7 +7980,7 @@
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="209"/>
       <c r="C35" s="210"/>
@@ -7888,7 +7990,7 @@
       <c r="G35" s="75"/>
       <c r="H35" s="76"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
       <c r="B36" s="209"/>
       <c r="C36" s="210"/>
@@ -7898,7 +8000,7 @@
       <c r="G36" s="75"/>
       <c r="H36" s="76"/>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
       <c r="B37" s="209"/>
       <c r="C37" s="210"/>
@@ -7908,7 +8010,7 @@
       <c r="G37" s="75"/>
       <c r="H37" s="76"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="82"/>
       <c r="B38" s="207"/>
       <c r="C38" s="208"/>
@@ -7918,7 +8020,7 @@
       <c r="G38" s="85"/>
       <c r="H38" s="86"/>
     </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="57"/>
@@ -7928,7 +8030,7 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="52" t="s">
         <v>11</v>
       </c>
@@ -7940,7 +8042,7 @@
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
     </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="59" t="s">
         <v>0</v>
       </c>
@@ -7960,7 +8062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="142">
         <v>1</v>
       </c>
@@ -7978,7 +8080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="150">
         <v>2</v>
       </c>
@@ -7996,7 +8098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="90"/>
       <c r="B44" s="91"/>
       <c r="C44" s="211"/>
@@ -8006,7 +8108,7 @@
       <c r="G44" s="213"/>
       <c r="H44" s="92"/>
     </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="90"/>
       <c r="B45" s="91"/>
       <c r="C45" s="211"/>
@@ -8016,7 +8118,7 @@
       <c r="G45" s="213"/>
       <c r="H45" s="92"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="93"/>
       <c r="B46" s="94"/>
       <c r="C46" s="204"/>
@@ -8026,7 +8128,7 @@
       <c r="G46" s="230"/>
       <c r="H46" s="95"/>
     </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="57"/>
@@ -8036,7 +8138,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
     </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>15</v>
       </c>
@@ -8048,7 +8150,7 @@
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
     </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="53" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="142">
         <v>1</v>
       </c>
@@ -8086,7 +8188,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="90"/>
       <c r="B51" s="91"/>
       <c r="C51" s="211"/>
@@ -8096,7 +8198,7 @@
       <c r="G51" s="213"/>
       <c r="H51" s="92"/>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="90"/>
       <c r="B52" s="91"/>
       <c r="C52" s="211"/>
@@ -8106,7 +8208,7 @@
       <c r="G52" s="213"/>
       <c r="H52" s="92"/>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="91"/>
       <c r="C53" s="211"/>
@@ -8116,7 +8218,7 @@
       <c r="G53" s="213"/>
       <c r="H53" s="92"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="93"/>
       <c r="B54" s="94"/>
       <c r="C54" s="204"/>
@@ -8198,8 +8300,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
@@ -8208,7 +8310,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -8218,7 +8320,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="125" t="s">
         <v>156</v>
       </c>
@@ -8230,7 +8332,7 @@
       <c r="G1" s="126"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
@@ -8252,7 +8354,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>19</v>
       </c>
@@ -8274,7 +8376,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="65" t="s">
         <v>20</v>
       </c>
@@ -8292,7 +8394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -8302,7 +8404,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="65" t="s">
         <v>49</v>
       </c>
@@ -8316,7 +8418,7 @@
       <c r="G6" s="217"/>
       <c r="H6" s="191"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
@@ -8330,7 +8432,7 @@
       <c r="G7" s="217"/>
       <c r="H7" s="191"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
@@ -8344,7 +8446,7 @@
       <c r="G8" s="217"/>
       <c r="H8" s="191"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
         <v>51</v>
       </c>
@@ -8356,7 +8458,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="132">
         <v>1</v>
       </c>
@@ -8402,7 +8504,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="137">
         <v>2</v>
       </c>
@@ -8422,7 +8524,7 @@
       <c r="G12" s="140"/>
       <c r="H12" s="141"/>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="202"/>
@@ -8432,7 +8534,7 @@
       <c r="G13" s="75"/>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="77"/>
       <c r="B14" s="78"/>
       <c r="C14" s="202"/>
@@ -8442,7 +8544,7 @@
       <c r="G14" s="80"/>
       <c r="H14" s="81"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="77"/>
       <c r="B15" s="78"/>
       <c r="C15" s="202"/>
@@ -8452,7 +8554,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="81"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="77"/>
       <c r="B16" s="78"/>
       <c r="C16" s="202"/>
@@ -8462,7 +8564,7 @@
       <c r="G16" s="80"/>
       <c r="H16" s="81"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
       <c r="C17" s="202"/>
@@ -8472,7 +8574,7 @@
       <c r="G17" s="80"/>
       <c r="H17" s="81"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
       <c r="C18" s="202"/>
@@ -8482,7 +8584,7 @@
       <c r="G18" s="80"/>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="77"/>
       <c r="B19" s="78"/>
       <c r="C19" s="202"/>
@@ -8492,7 +8594,7 @@
       <c r="G19" s="80"/>
       <c r="H19" s="81"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="77"/>
       <c r="B20" s="78"/>
       <c r="C20" s="202"/>
@@ -8502,7 +8604,7 @@
       <c r="G20" s="80"/>
       <c r="H20" s="81"/>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="202"/>
@@ -8512,7 +8614,7 @@
       <c r="G21" s="80"/>
       <c r="H21" s="81"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="77"/>
       <c r="B22" s="78"/>
       <c r="C22" s="202"/>
@@ -8522,7 +8624,7 @@
       <c r="G22" s="80"/>
       <c r="H22" s="81"/>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="77"/>
       <c r="B23" s="78"/>
       <c r="C23" s="202"/>
@@ -8532,7 +8634,7 @@
       <c r="G23" s="80"/>
       <c r="H23" s="81"/>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="202"/>
@@ -8542,7 +8644,7 @@
       <c r="G24" s="80"/>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="77"/>
       <c r="B25" s="78"/>
       <c r="C25" s="202"/>
@@ -8552,7 +8654,7 @@
       <c r="G25" s="80"/>
       <c r="H25" s="81"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="77"/>
       <c r="B26" s="78"/>
       <c r="C26" s="202"/>
@@ -8562,7 +8664,7 @@
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="202"/>
@@ -8572,7 +8674,7 @@
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="77"/>
       <c r="B28" s="78"/>
       <c r="C28" s="202"/>
@@ -8582,7 +8684,7 @@
       <c r="G28" s="80"/>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="77"/>
       <c r="B29" s="78"/>
       <c r="C29" s="202"/>
@@ -8592,7 +8694,7 @@
       <c r="G29" s="80"/>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
       <c r="C30" s="204"/>
@@ -8602,7 +8704,7 @@
       <c r="G30" s="85"/>
       <c r="H30" s="86"/>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="57"/>
@@ -8612,7 +8714,7 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="52" t="s">
         <v>7</v>
       </c>
@@ -8624,7 +8726,7 @@
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
@@ -8644,7 +8746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
       <c r="B34" s="221"/>
       <c r="C34" s="222"/>
@@ -8654,7 +8756,7 @@
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="209"/>
       <c r="C35" s="210"/>
@@ -8664,7 +8766,7 @@
       <c r="G35" s="75"/>
       <c r="H35" s="76"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
       <c r="B36" s="209"/>
       <c r="C36" s="210"/>
@@ -8674,7 +8776,7 @@
       <c r="G36" s="75"/>
       <c r="H36" s="76"/>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
       <c r="B37" s="209"/>
       <c r="C37" s="210"/>
@@ -8684,7 +8786,7 @@
       <c r="G37" s="75"/>
       <c r="H37" s="76"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="82"/>
       <c r="B38" s="207"/>
       <c r="C38" s="208"/>
@@ -8694,7 +8796,7 @@
       <c r="G38" s="85"/>
       <c r="H38" s="86"/>
     </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="57"/>
@@ -8704,7 +8806,7 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="52" t="s">
         <v>11</v>
       </c>
@@ -8716,7 +8818,7 @@
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
     </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="59" t="s">
         <v>0</v>
       </c>
@@ -8736,7 +8838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="88"/>
       <c r="C42" s="214"/>
@@ -8746,7 +8848,7 @@
       <c r="G42" s="216"/>
       <c r="H42" s="89"/>
     </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="90"/>
       <c r="B43" s="91"/>
       <c r="C43" s="211"/>
@@ -8756,7 +8858,7 @@
       <c r="G43" s="213"/>
       <c r="H43" s="92"/>
     </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="90"/>
       <c r="B44" s="91"/>
       <c r="C44" s="211"/>
@@ -8766,7 +8868,7 @@
       <c r="G44" s="213"/>
       <c r="H44" s="92"/>
     </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="90"/>
       <c r="B45" s="91"/>
       <c r="C45" s="211"/>
@@ -8776,7 +8878,7 @@
       <c r="G45" s="213"/>
       <c r="H45" s="92"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="93"/>
       <c r="B46" s="94"/>
       <c r="C46" s="204"/>
@@ -8786,7 +8888,7 @@
       <c r="G46" s="230"/>
       <c r="H46" s="95"/>
     </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="57"/>
@@ -8796,7 +8898,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
     </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>15</v>
       </c>
@@ -8808,7 +8910,7 @@
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
     </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="53" t="s">
         <v>0</v>
       </c>
@@ -8828,7 +8930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="142">
         <v>1</v>
       </c>
@@ -8846,7 +8948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="90"/>
       <c r="B51" s="91"/>
       <c r="C51" s="211"/>
@@ -8856,7 +8958,7 @@
       <c r="G51" s="213"/>
       <c r="H51" s="92"/>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="90"/>
       <c r="B52" s="91"/>
       <c r="C52" s="211"/>
@@ -8866,7 +8968,7 @@
       <c r="G52" s="213"/>
       <c r="H52" s="92"/>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="91"/>
       <c r="C53" s="211"/>
@@ -8876,7 +8978,7 @@
       <c r="G53" s="213"/>
       <c r="H53" s="92"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="93"/>
       <c r="B54" s="94"/>
       <c r="C54" s="204"/>
@@ -8958,8 +9060,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
@@ -8968,7 +9070,7 @@
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -8978,7 +9080,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="125" t="s">
         <v>156</v>
       </c>
@@ -8990,7 +9092,7 @@
       <c r="G1" s="126"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
@@ -9012,7 +9114,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>19</v>
       </c>
@@ -9034,7 +9136,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="65" t="s">
         <v>20</v>
       </c>
@@ -9052,7 +9154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -9062,7 +9164,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="65" t="s">
         <v>49</v>
       </c>
@@ -9076,7 +9178,7 @@
       <c r="G6" s="217"/>
       <c r="H6" s="191"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
@@ -9090,7 +9192,7 @@
       <c r="G7" s="217"/>
       <c r="H7" s="191"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
@@ -9104,7 +9206,7 @@
       <c r="G8" s="217"/>
       <c r="H8" s="191"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
         <v>51</v>
       </c>
@@ -9116,7 +9218,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>0</v>
       </c>
@@ -9140,7 +9242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="132">
         <v>1</v>
       </c>
@@ -9162,7 +9264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="137">
         <v>2</v>
       </c>
@@ -9184,7 +9286,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="137">
         <v>3</v>
       </c>
@@ -9204,7 +9306,7 @@
       <c r="G13" s="140"/>
       <c r="H13" s="141"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="145">
         <v>4</v>
       </c>
@@ -9224,7 +9326,7 @@
       <c r="G14" s="146"/>
       <c r="H14" s="147"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="77"/>
       <c r="B15" s="78"/>
       <c r="C15" s="202"/>
@@ -9234,7 +9336,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="81"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="77"/>
       <c r="B16" s="78"/>
       <c r="C16" s="202"/>
@@ -9244,7 +9346,7 @@
       <c r="G16" s="80"/>
       <c r="H16" s="81"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
       <c r="C17" s="202"/>
@@ -9254,7 +9356,7 @@
       <c r="G17" s="80"/>
       <c r="H17" s="81"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
       <c r="C18" s="202"/>
@@ -9264,7 +9366,7 @@
       <c r="G18" s="80"/>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="77"/>
       <c r="B19" s="78"/>
       <c r="C19" s="202"/>
@@ -9274,7 +9376,7 @@
       <c r="G19" s="80"/>
       <c r="H19" s="81"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="77"/>
       <c r="B20" s="78"/>
       <c r="C20" s="202"/>
@@ -9284,7 +9386,7 @@
       <c r="G20" s="80"/>
       <c r="H20" s="81"/>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="202"/>
@@ -9294,7 +9396,7 @@
       <c r="G21" s="80"/>
       <c r="H21" s="81"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="77"/>
       <c r="B22" s="78"/>
       <c r="C22" s="202"/>
@@ -9304,7 +9406,7 @@
       <c r="G22" s="80"/>
       <c r="H22" s="81"/>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="77"/>
       <c r="B23" s="78"/>
       <c r="C23" s="202"/>
@@ -9314,7 +9416,7 @@
       <c r="G23" s="80"/>
       <c r="H23" s="81"/>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="202"/>
@@ -9324,7 +9426,7 @@
       <c r="G24" s="80"/>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="77"/>
       <c r="B25" s="78"/>
       <c r="C25" s="202"/>
@@ -9334,7 +9436,7 @@
       <c r="G25" s="80"/>
       <c r="H25" s="81"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="77"/>
       <c r="B26" s="78"/>
       <c r="C26" s="202"/>
@@ -9344,7 +9446,7 @@
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="202"/>
@@ -9354,7 +9456,7 @@
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="77"/>
       <c r="B28" s="78"/>
       <c r="C28" s="202"/>
@@ -9364,7 +9466,7 @@
       <c r="G28" s="80"/>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="77"/>
       <c r="B29" s="78"/>
       <c r="C29" s="202"/>
@@ -9374,7 +9476,7 @@
       <c r="G29" s="80"/>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
       <c r="C30" s="204"/>
@@ -9384,7 +9486,7 @@
       <c r="G30" s="85"/>
       <c r="H30" s="86"/>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="57"/>
@@ -9394,7 +9496,7 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="52" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9508,7 @@
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
@@ -9426,7 +9528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
       <c r="B34" s="221"/>
       <c r="C34" s="222"/>
@@ -9436,7 +9538,7 @@
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="209"/>
       <c r="C35" s="210"/>
@@ -9446,7 +9548,7 @@
       <c r="G35" s="75"/>
       <c r="H35" s="76"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
       <c r="B36" s="209"/>
       <c r="C36" s="210"/>
@@ -9456,7 +9558,7 @@
       <c r="G36" s="75"/>
       <c r="H36" s="76"/>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
       <c r="B37" s="209"/>
       <c r="C37" s="210"/>
@@ -9466,7 +9568,7 @@
       <c r="G37" s="75"/>
       <c r="H37" s="76"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="82"/>
       <c r="B38" s="207"/>
       <c r="C38" s="208"/>
@@ -9476,7 +9578,7 @@
       <c r="G38" s="85"/>
       <c r="H38" s="86"/>
     </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="57"/>
@@ -9486,7 +9588,7 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="52" t="s">
         <v>11</v>
       </c>
@@ -9498,7 +9600,7 @@
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
     </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="59" t="s">
         <v>0</v>
       </c>
@@ -9518,7 +9620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="142">
         <v>1</v>
       </c>
@@ -9536,7 +9638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="90"/>
       <c r="B43" s="91"/>
       <c r="C43" s="211"/>
@@ -9546,7 +9648,7 @@
       <c r="G43" s="213"/>
       <c r="H43" s="92"/>
     </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="90"/>
       <c r="B44" s="91"/>
       <c r="C44" s="211"/>
@@ -9556,7 +9658,7 @@
       <c r="G44" s="213"/>
       <c r="H44" s="92"/>
     </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="90"/>
       <c r="B45" s="91"/>
       <c r="C45" s="211"/>
@@ -9566,7 +9668,7 @@
       <c r="G45" s="213"/>
       <c r="H45" s="92"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="93"/>
       <c r="B46" s="94"/>
       <c r="C46" s="204"/>
@@ -9576,7 +9678,7 @@
       <c r="G46" s="230"/>
       <c r="H46" s="95"/>
     </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="57"/>
@@ -9586,7 +9688,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
     </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>15</v>
       </c>
@@ -9598,7 +9700,7 @@
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
     </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="53" t="s">
         <v>0</v>
       </c>
@@ -9618,7 +9720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="142">
         <v>1</v>
       </c>
@@ -9636,7 +9738,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="90"/>
       <c r="B51" s="91"/>
       <c r="C51" s="211"/>
@@ -9646,7 +9748,7 @@
       <c r="G51" s="213"/>
       <c r="H51" s="92"/>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="90"/>
       <c r="B52" s="91"/>
       <c r="C52" s="211"/>
@@ -9656,7 +9758,7 @@
       <c r="G52" s="213"/>
       <c r="H52" s="92"/>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="91"/>
       <c r="C53" s="211"/>
@@ -9666,7 +9768,7 @@
       <c r="G53" s="213"/>
       <c r="H53" s="92"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="93"/>
       <c r="B54" s="94"/>
       <c r="C54" s="204"/>
@@ -9748,8 +9850,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
@@ -9758,7 +9860,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -9768,7 +9870,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="125" t="s">
         <v>156</v>
       </c>
@@ -9780,7 +9882,7 @@
       <c r="G1" s="126"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
@@ -9802,7 +9904,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>19</v>
       </c>
@@ -9824,7 +9926,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="65" t="s">
         <v>20</v>
       </c>
@@ -9842,7 +9944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="153"/>
@@ -9852,7 +9954,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="65" t="s">
         <v>49</v>
       </c>
@@ -9866,7 +9968,7 @@
       <c r="G6" s="217"/>
       <c r="H6" s="191"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
@@ -9880,7 +9982,7 @@
       <c r="G7" s="217"/>
       <c r="H7" s="191"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
@@ -9894,7 +9996,7 @@
       <c r="G8" s="217"/>
       <c r="H8" s="191"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
         <v>51</v>
       </c>
@@ -9906,7 +10008,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>0</v>
       </c>
@@ -9930,7 +10032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="132">
         <v>1</v>
       </c>
@@ -9952,7 +10054,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="137">
         <v>2</v>
       </c>
@@ -9974,7 +10076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="137">
         <v>3</v>
       </c>
@@ -9994,7 +10096,7 @@
       <c r="G13" s="146"/>
       <c r="H13" s="147"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="145">
         <v>4</v>
       </c>
@@ -10012,7 +10114,7 @@
       <c r="G14" s="146"/>
       <c r="H14" s="147"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="145">
         <v>5</v>
       </c>
@@ -10030,7 +10132,7 @@
       <c r="G15" s="146"/>
       <c r="H15" s="147"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="145">
         <v>6</v>
       </c>
@@ -10048,7 +10150,7 @@
       <c r="G16" s="146"/>
       <c r="H16" s="147"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="145">
         <v>7</v>
       </c>
@@ -10066,7 +10168,7 @@
       <c r="G17" s="146"/>
       <c r="H17" s="147"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="145">
         <v>8</v>
       </c>
@@ -10086,7 +10188,7 @@
       <c r="G18" s="146"/>
       <c r="H18" s="147"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="77"/>
       <c r="B19" s="78"/>
       <c r="C19" s="202"/>
@@ -10096,7 +10198,7 @@
       <c r="G19" s="80"/>
       <c r="H19" s="81"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="77"/>
       <c r="B20" s="78"/>
       <c r="C20" s="202"/>
@@ -10106,7 +10208,7 @@
       <c r="G20" s="80"/>
       <c r="H20" s="81"/>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="202"/>
@@ -10116,7 +10218,7 @@
       <c r="G21" s="80"/>
       <c r="H21" s="81"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="77"/>
       <c r="B22" s="78"/>
       <c r="C22" s="202"/>
@@ -10126,7 +10228,7 @@
       <c r="G22" s="80"/>
       <c r="H22" s="81"/>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="77"/>
       <c r="B23" s="78"/>
       <c r="C23" s="202"/>
@@ -10136,7 +10238,7 @@
       <c r="G23" s="80"/>
       <c r="H23" s="81"/>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="202"/>
@@ -10146,7 +10248,7 @@
       <c r="G24" s="80"/>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="77"/>
       <c r="B25" s="78"/>
       <c r="C25" s="202"/>
@@ -10156,7 +10258,7 @@
       <c r="G25" s="80"/>
       <c r="H25" s="81"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="77"/>
       <c r="B26" s="78"/>
       <c r="C26" s="202"/>
@@ -10166,7 +10268,7 @@
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="202"/>
@@ -10176,7 +10278,7 @@
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="77"/>
       <c r="B28" s="78"/>
       <c r="C28" s="202"/>
@@ -10186,7 +10288,7 @@
       <c r="G28" s="80"/>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="77"/>
       <c r="B29" s="78"/>
       <c r="C29" s="202"/>
@@ -10196,7 +10298,7 @@
       <c r="G29" s="80"/>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
       <c r="C30" s="204"/>
@@ -10206,7 +10308,7 @@
       <c r="G30" s="85"/>
       <c r="H30" s="86"/>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="57"/>
@@ -10216,7 +10318,7 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="52" t="s">
         <v>7</v>
       </c>
@@ -10228,7 +10330,7 @@
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
@@ -10248,7 +10350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
       <c r="B34" s="221"/>
       <c r="C34" s="222"/>
@@ -10258,7 +10360,7 @@
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="209"/>
       <c r="C35" s="210"/>
@@ -10268,7 +10370,7 @@
       <c r="G35" s="75"/>
       <c r="H35" s="76"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
       <c r="B36" s="209"/>
       <c r="C36" s="210"/>
@@ -10278,7 +10380,7 @@
       <c r="G36" s="75"/>
       <c r="H36" s="76"/>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
       <c r="B37" s="209"/>
       <c r="C37" s="210"/>
@@ -10288,7 +10390,7 @@
       <c r="G37" s="75"/>
       <c r="H37" s="76"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="82"/>
       <c r="B38" s="207"/>
       <c r="C38" s="208"/>
@@ -10298,7 +10400,7 @@
       <c r="G38" s="85"/>
       <c r="H38" s="86"/>
     </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
       <c r="C39" s="57"/>
@@ -10308,7 +10410,7 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="52" t="s">
         <v>11</v>
       </c>
@@ -10320,7 +10422,7 @@
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
     </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="59" t="s">
         <v>0</v>
       </c>
@@ -10340,7 +10442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="142">
         <v>1</v>
       </c>
@@ -10358,7 +10460,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="150">
         <v>2</v>
       </c>
@@ -10376,7 +10478,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="90"/>
       <c r="B44" s="91"/>
       <c r="C44" s="211"/>
@@ -10386,7 +10488,7 @@
       <c r="G44" s="213"/>
       <c r="H44" s="92"/>
     </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="90"/>
       <c r="B45" s="91"/>
       <c r="C45" s="211"/>
@@ -10396,7 +10498,7 @@
       <c r="G45" s="213"/>
       <c r="H45" s="92"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="93"/>
       <c r="B46" s="94"/>
       <c r="C46" s="204"/>
@@ -10406,7 +10508,7 @@
       <c r="G46" s="230"/>
       <c r="H46" s="95"/>
     </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="57"/>
@@ -10416,7 +10518,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
     </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>15</v>
       </c>
@@ -10428,7 +10530,7 @@
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
     </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="53" t="s">
         <v>0</v>
       </c>
@@ -10448,7 +10550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="87"/>
       <c r="B50" s="88"/>
       <c r="C50" s="214"/>
@@ -10458,7 +10560,7 @@
       <c r="G50" s="216"/>
       <c r="H50" s="89"/>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="90"/>
       <c r="B51" s="91"/>
       <c r="C51" s="211"/>
@@ -10468,7 +10570,7 @@
       <c r="G51" s="213"/>
       <c r="H51" s="92"/>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="90"/>
       <c r="B52" s="91"/>
       <c r="C52" s="211"/>
@@ -10478,7 +10580,7 @@
       <c r="G52" s="213"/>
       <c r="H52" s="92"/>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="91"/>
       <c r="C53" s="211"/>
@@ -10488,7 +10590,7 @@
       <c r="G53" s="213"/>
       <c r="H53" s="92"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="93"/>
       <c r="B54" s="94"/>
       <c r="C54" s="204"/>
@@ -10570,8 +10672,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M37"/>
@@ -10580,14 +10682,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="12" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="128" t="s">
         <v>150</v>
       </c>
@@ -10604,7 +10706,7 @@
       <c r="L1" s="101"/>
       <c r="M1" s="121"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="102" t="s">
         <v>18</v>
       </c>
@@ -10631,7 +10733,7 @@
       </c>
       <c r="M2" s="243"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="104" t="s">
         <v>19</v>
       </c>
@@ -10658,12 +10760,12 @@
       </c>
       <c r="M3" s="243"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="102" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="244" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="248"/>
       <c r="D4" s="248"/>
@@ -10681,12 +10783,12 @@
       </c>
       <c r="M4" s="243"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="105" t="s">
         <v>151</v>
       </c>
       <c r="B5" s="249" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="250"/>
       <c r="D5" s="250"/>
@@ -10700,12 +10802,12 @@
       <c r="L5" s="250"/>
       <c r="M5" s="251"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="106" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="249" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="250"/>
       <c r="D6" s="250"/>
@@ -10719,7 +10821,7 @@
       <c r="L6" s="250"/>
       <c r="M6" s="251"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="107"/>
       <c r="B7" s="108"/>
       <c r="C7" s="108"/>
@@ -10734,7 +10836,7 @@
       <c r="L7" s="108"/>
       <c r="M7" s="109"/>
     </row>
-    <row r="8" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="21.75" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="110"/>
       <c r="C8" s="110"/>
@@ -10751,7 +10853,7 @@
       <c r="L8" s="247"/>
       <c r="M8" s="109"/>
     </row>
-    <row r="9" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="112"/>
       <c r="C9" s="112"/>
@@ -10776,7 +10878,7 @@
       <c r="L9" s="115"/>
       <c r="M9" s="109"/>
     </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="252" t="s">
         <v>153</v>
@@ -10805,7 +10907,7 @@
       <c r="L10" s="115"/>
       <c r="M10" s="109"/>
     </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="107"/>
       <c r="B11" s="253"/>
       <c r="C11" s="239" t="s">
@@ -10832,7 +10934,7 @@
       <c r="L11" s="115"/>
       <c r="M11" s="109"/>
     </row>
-    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="107"/>
       <c r="B12" s="253"/>
       <c r="C12" s="239" t="s">
@@ -10859,7 +10961,7 @@
       <c r="L12" s="115"/>
       <c r="M12" s="109"/>
     </row>
-    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="107"/>
       <c r="B13" s="253"/>
       <c r="C13" s="239" t="s">
@@ -10886,7 +10988,7 @@
       <c r="L13" s="115"/>
       <c r="M13" s="109"/>
     </row>
-    <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="107"/>
       <c r="B14" s="253"/>
       <c r="C14" s="239" t="s">
@@ -10913,7 +11015,7 @@
       <c r="L14" s="115"/>
       <c r="M14" s="109"/>
     </row>
-    <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="107"/>
       <c r="B15" s="253"/>
       <c r="C15" s="239" t="s">
@@ -10940,7 +11042,7 @@
       <c r="L15" s="115"/>
       <c r="M15" s="109"/>
     </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="107"/>
       <c r="B16" s="253"/>
       <c r="C16" s="239"/>
@@ -10955,7 +11057,7 @@
       <c r="L16" s="115"/>
       <c r="M16" s="109"/>
     </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="107"/>
       <c r="B17" s="253"/>
       <c r="C17" s="239"/>
@@ -10970,7 +11072,7 @@
       <c r="L17" s="115"/>
       <c r="M17" s="109"/>
     </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="107"/>
       <c r="B18" s="253"/>
       <c r="C18" s="239"/>
@@ -10985,7 +11087,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="109"/>
     </row>
-    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="107"/>
       <c r="B19" s="253"/>
       <c r="C19" s="239"/>
@@ -11000,7 +11102,7 @@
       <c r="L19" s="115"/>
       <c r="M19" s="109"/>
     </row>
-    <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="107"/>
       <c r="B20" s="253"/>
       <c r="C20" s="239"/>
@@ -11015,7 +11117,7 @@
       <c r="L20" s="115"/>
       <c r="M20" s="109"/>
     </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="107"/>
       <c r="B21" s="253"/>
       <c r="C21" s="116"/>
@@ -11030,7 +11132,7 @@
       <c r="L21" s="115"/>
       <c r="M21" s="109"/>
     </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="107"/>
       <c r="B22" s="253"/>
       <c r="C22" s="116"/>
@@ -11045,7 +11147,7 @@
       <c r="L22" s="115"/>
       <c r="M22" s="109"/>
     </row>
-    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="107"/>
       <c r="B23" s="253"/>
       <c r="C23" s="116"/>
@@ -11060,7 +11162,7 @@
       <c r="L23" s="115"/>
       <c r="M23" s="109"/>
     </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="107"/>
       <c r="B24" s="253"/>
       <c r="C24" s="116"/>
@@ -11075,7 +11177,7 @@
       <c r="L24" s="115"/>
       <c r="M24" s="109"/>
     </row>
-    <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="107"/>
       <c r="B25" s="253"/>
       <c r="C25" s="116"/>
@@ -11090,7 +11192,7 @@
       <c r="L25" s="115"/>
       <c r="M25" s="109"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="107"/>
       <c r="B26" s="253"/>
       <c r="C26" s="116"/>
@@ -11105,7 +11207,7 @@
       <c r="L26" s="115"/>
       <c r="M26" s="109"/>
     </row>
-    <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="107"/>
       <c r="B27" s="253"/>
       <c r="C27" s="116"/>
@@ -11120,7 +11222,7 @@
       <c r="L27" s="115"/>
       <c r="M27" s="109"/>
     </row>
-    <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="107"/>
       <c r="B28" s="253"/>
       <c r="C28" s="116"/>
@@ -11135,7 +11237,7 @@
       <c r="L28" s="115"/>
       <c r="M28" s="109"/>
     </row>
-    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="107"/>
       <c r="B29" s="253"/>
       <c r="C29" s="116"/>
@@ -11150,7 +11252,7 @@
       <c r="L29" s="115"/>
       <c r="M29" s="109"/>
     </row>
-    <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="107"/>
       <c r="B30" s="253"/>
       <c r="C30" s="116"/>
@@ -11165,7 +11267,7 @@
       <c r="L30" s="115"/>
       <c r="M30" s="109"/>
     </row>
-    <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="107"/>
       <c r="B31" s="253"/>
       <c r="C31" s="239"/>
@@ -11180,7 +11282,7 @@
       <c r="L31" s="115"/>
       <c r="M31" s="109"/>
     </row>
-    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="107"/>
       <c r="B32" s="253"/>
       <c r="C32" s="239"/>
@@ -11195,7 +11297,7 @@
       <c r="L32" s="115"/>
       <c r="M32" s="109"/>
     </row>
-    <row r="33" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="107"/>
       <c r="B33" s="253"/>
       <c r="C33" s="239"/>
@@ -11210,7 +11312,7 @@
       <c r="L33" s="115"/>
       <c r="M33" s="109"/>
     </row>
-    <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="107"/>
       <c r="B34" s="253"/>
       <c r="C34" s="239"/>
@@ -11225,7 +11327,7 @@
       <c r="L34" s="115"/>
       <c r="M34" s="109"/>
     </row>
-    <row r="35" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="107"/>
       <c r="B35" s="254"/>
       <c r="C35" s="239"/>
@@ -11240,7 +11342,7 @@
       <c r="L35" s="115"/>
       <c r="M35" s="109"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="107"/>
       <c r="B36" s="108"/>
       <c r="C36" s="108"/>
@@ -11255,7 +11357,7 @@
       <c r="L36" s="108"/>
       <c r="M36" s="109"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="118"/>
       <c r="B37" s="119"/>
       <c r="C37" s="119"/>
@@ -11272,7 +11374,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H5:M5"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="B10:B35"/>
     <mergeCell ref="C10:F10"/>
@@ -11303,6 +11404,7 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:M5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/DB設計書/映画予約システム　DB設計書.xlsx
+++ b/設計書/DB設計書/映画予約システム　DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\ntmc\設計書\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B5755-217F-4FC7-9685-36F91EB02537}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9035A-E9F9-4D88-8960-4BE9930CFEB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -2641,13 +2641,103 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2668,86 +2758,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2767,120 +2794,126 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2890,6 +2923,39 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2904,72 +2970,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3013,79 +3013,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>286737</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>158533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>641438</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>77802</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9625616" y="7110688"/>
-          <a:ext cx="4493150" cy="2711080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2010543</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>15264</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450306</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>667931</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>88502</xdr:rowOff>
+      <xdr:colOff>2366562</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132515</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3100,8 +3039,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6036203" y="13829509"/>
-          <a:ext cx="1916256" cy="2565314"/>
+          <a:off x="7721056" y="9568402"/>
+          <a:ext cx="1916256" cy="2549738"/>
           <a:chOff x="6538821" y="8360361"/>
           <a:chExt cx="1924196" cy="2204726"/>
         </a:xfrm>
@@ -3248,16 +3187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2226868</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106694</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160472</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>902126</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>168200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15772</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152325</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3272,8 +3211,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6252528" y="7594902"/>
-          <a:ext cx="1934126" cy="1786789"/>
+          <a:off x="160472" y="6356152"/>
+          <a:ext cx="1934925" cy="1781298"/>
           <a:chOff x="3418192" y="10011386"/>
           <a:chExt cx="1661809" cy="2134678"/>
         </a:xfrm>
@@ -3396,16 +3335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1072928</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65688</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25179</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1335689</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1986564</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158747</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3420,10 +3359,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1456324" y="7170499"/>
-          <a:ext cx="1964082" cy="2545449"/>
-          <a:chOff x="3418191" y="10011384"/>
-          <a:chExt cx="1661810" cy="2318157"/>
+          <a:off x="4041554" y="6368062"/>
+          <a:ext cx="1961385" cy="3490310"/>
+          <a:chOff x="3418192" y="10011385"/>
+          <a:chExt cx="1661809" cy="2318156"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3439,7 +3378,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3418191" y="10011384"/>
+            <a:off x="3418192" y="10011385"/>
             <a:ext cx="1661808" cy="405319"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3536,7 +3475,10 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>＊ジャンル</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -3544,7 +3486,10 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>＊キャスト</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -3565,6 +3510,22 @@
               <a:t>ID</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊公開年月日</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊終了年月日</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -3572,16 +3533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1140883</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>79879</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104148</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>117461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1239418</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>112725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1900336</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3596,10 +3557,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1524279" y="11018653"/>
-          <a:ext cx="1799856" cy="1949827"/>
+          <a:off x="4120523" y="10769586"/>
+          <a:ext cx="1796188" cy="3184539"/>
           <a:chOff x="3418190" y="10011382"/>
-          <a:chExt cx="1661811" cy="2134682"/>
+          <a:chExt cx="1661811" cy="2379718"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3664,7 +3625,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3418192" y="10430213"/>
-            <a:ext cx="1661809" cy="1715851"/>
+            <a:ext cx="1661809" cy="1960887"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3713,13 +3674,64 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＊上映時間</a:t>
+              <a:t>＊映画館</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊スクリーン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊日付</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊上映時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊ユーザー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊料金</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3728,16 +3740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>336868</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1002241</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>351028</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>79879</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1005872</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>117461</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3755,8 +3767,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2427076" y="9525000"/>
-          <a:ext cx="14160" cy="1257275"/>
+          <a:off x="5018616" y="9858372"/>
+          <a:ext cx="3631" cy="911214"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3785,15 +3797,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1335689</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25013</xdr:rowOff>
+      <xdr:colOff>15772</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2226868</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>34684</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1746250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3805,14 +3817,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
+          <a:stCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3417898" y="8604897"/>
-          <a:ext cx="2840482" cy="9671"/>
+        <a:xfrm>
+          <a:off x="2095397" y="7421548"/>
+          <a:ext cx="1730478" cy="7952"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3840,16 +3851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1241917</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>5032</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2034592</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>46385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2021342</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>102232</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461056</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>51836</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3862,13 +3873,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="25" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3332125" y="14967220"/>
-          <a:ext cx="2724113" cy="97200"/>
+          <a:off x="6051939" y="11230161"/>
+          <a:ext cx="1692178" cy="5451"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3896,16 +3906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1130085</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86102</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80067</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>17085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1241917</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>118949</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1890524</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>53816</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3920,10 +3930,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1513481" y="14283744"/>
-          <a:ext cx="1813153" cy="1949828"/>
-          <a:chOff x="3418190" y="10011382"/>
-          <a:chExt cx="1661811" cy="2134682"/>
+          <a:off x="4096442" y="14669710"/>
+          <a:ext cx="1810457" cy="1941731"/>
+          <a:chOff x="3418190" y="10011383"/>
+          <a:chExt cx="1661811" cy="2134681"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3939,7 +3949,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3418190" y="10011382"/>
+            <a:off x="3418190" y="10011383"/>
             <a:ext cx="1661808" cy="405319"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4034,7 +4044,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>　＊ユーザー</a:t>
+              <a:t>　＊料金</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4056,16 +4066,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>335746</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>112725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>985294</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>339898</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86102</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1002243</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>17085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4083,8 +4093,1214 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2412949" y="13017217"/>
-          <a:ext cx="4152" cy="1329478"/>
+          <a:off x="5001669" y="13954125"/>
+          <a:ext cx="16949" cy="715585"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415236</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2381064</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167429</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8325F627-1434-4E18-8C25-BDB6E0CF9C00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7685986" y="6340850"/>
+          <a:ext cx="1965828" cy="1240204"/>
+          <a:chOff x="3418191" y="10011386"/>
+          <a:chExt cx="1661810" cy="1136009"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F163BEE5-3360-4E51-B2DD-D9FFA7F00330}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418191" y="10011386"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ジャンル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6480E3-7333-408B-8FB5-ED14B820EB69}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="717182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊ジャンル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊ジャンル名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>421298</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2387126</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114334</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374C0A8E-2486-47D7-9CBC-9A9715C36586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7692048" y="7811755"/>
+          <a:ext cx="1965828" cy="1240204"/>
+          <a:chOff x="3418191" y="10011386"/>
+          <a:chExt cx="1661810" cy="1136009"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C3A1DF-1630-4FCC-9BCE-43BCF6CBC08E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418191" y="10011386"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>キャスト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2ADE7D8-E42A-40C9-82C3-BE7152D91D27}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="717182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊キャスト</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊キャスト名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434451</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>58250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2406435</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56049</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB11BC8A-D732-413D-A60F-B2CF91C3E93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7705201" y="12424875"/>
+          <a:ext cx="1971984" cy="1712299"/>
+          <a:chOff x="3418191" y="10011386"/>
+          <a:chExt cx="1661810" cy="1136009"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B7A814-347E-449E-A58C-82BA9AE2FD92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418191" y="10011386"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>上映時間</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D856AF38-F599-4723-8634-09AB714F7A31}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="717182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊上映時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊上映開始時間</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊上映終了時間</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415237</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4781B348-9105-4B57-933D-857AF06ED8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6048375" y="7189573"/>
+          <a:ext cx="1637612" cy="17677"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1986564</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>62394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1956D9B-C411-4E1E-8FC6-55F2EAEC2273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6002939" y="8428519"/>
+          <a:ext cx="1617061" cy="1106"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209307</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>162844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95230</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69545</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="グループ化 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614B6D10-90FB-43D5-B564-7E9A7031BF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="209307" y="14624969"/>
+          <a:ext cx="1965548" cy="1240201"/>
+          <a:chOff x="3418191" y="10011388"/>
+          <a:chExt cx="1661810" cy="1136007"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E8B11F-38DB-45CE-89ED-4BC44879A312}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418191" y="10011388"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>料金</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC28616E-8346-4765-B22E-7CC204F7C7D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="717182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊料金</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊料金</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1920875</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2589E31C-A833-4B40-BA4D-F63925B29105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="15430500"/>
+          <a:ext cx="1714500" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2016125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D3B44E-3227-4328-8E66-B78BBD573BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6032500" y="12779375"/>
+          <a:ext cx="1539875" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>256548</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>111115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1671736</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="グループ化 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7AC10D-7604-4D88-80E8-06C7895F825F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="256548" y="9429740"/>
+          <a:ext cx="1796188" cy="1317638"/>
+          <a:chOff x="3418190" y="10011382"/>
+          <a:chExt cx="1661811" cy="1266137"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="正方形/長方形 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA85DA7-7A65-4678-9230-E944838EDA17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418190" y="10011382"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>映画館</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="正方形/長方形 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B82DC03-709E-48E3-A23B-C3DD8437AC87}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="847306"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊映画館</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊映画館名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1669188</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6708DE2A-E0B2-42E1-B489-D6732B1866A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="254000" y="11684000"/>
+          <a:ext cx="1796188" cy="1571625"/>
+          <a:chOff x="3418190" y="10011382"/>
+          <a:chExt cx="1661811" cy="1470492"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519F6B39-755D-4CD7-87B5-481238883184}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418190" y="10011382"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>スクリーン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16C7E69-94B3-4C58-8499-EA90B42C80C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="1051661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊スクリーン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊映画館</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊座席数</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771093</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>773643</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DB9242-27FA-4E92-9CDE-6DD83A1494D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1152093" y="10747378"/>
+          <a:ext cx="2550" cy="936622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D3D628-D158-4965-9164-6C071623F64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="12525376"/>
+          <a:ext cx="1809750" cy="15874"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4841,21 +6057,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="153" t="s">
+      <c r="U3" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="155"/>
-      <c r="W3" s="179">
+      <c r="V3" s="173"/>
+      <c r="W3" s="174">
         <v>43596</v>
       </c>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="155"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="173"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4968,20 +6184,20 @@
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="42"/>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="166"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="159"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -4999,84 +6215,84 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="173" t="s">
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="175"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="168"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="163" t="s">
+      <c r="W8" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163" t="s">
+      <c r="X8" s="156"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163" t="s">
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="156"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="178"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="171"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="180" t="s">
+      <c r="W9" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="180"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="180" t="s">
+      <c r="X9" s="177"/>
+      <c r="Y9" s="178"/>
+      <c r="Z9" s="176"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="AD9" s="181"/>
-      <c r="AE9" s="182"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="178"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -5102,15 +6318,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="184"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="185"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="180"/>
+      <c r="AB10" s="181"/>
+      <c r="AC10" s="179"/>
+      <c r="AD10" s="180"/>
+      <c r="AE10" s="181"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -5136,15 +6352,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="184"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="184"/>
-      <c r="AE11" s="185"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="180"/>
+      <c r="Y11" s="181"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="180"/>
+      <c r="AB11" s="181"/>
+      <c r="AC11" s="179"/>
+      <c r="AD11" s="180"/>
+      <c r="AE11" s="181"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -5170,15 +6386,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="188"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="188"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="184"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -5277,106 +6493,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="185"/>
+      <c r="Z16" s="185"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="162"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="185"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="185"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="185"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="185"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5519,392 +6735,392 @@
     </row>
     <row r="23" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="43"/>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="153" t="s">
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="153" t="s">
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="153" t="s">
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="175"/>
+      <c r="Y23" s="175"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="154"/>
-      <c r="AE23" s="155"/>
+      <c r="AD23" s="175"/>
+      <c r="AE23" s="173"/>
       <c r="AF23" s="43"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156">
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="186">
         <v>43596</v>
       </c>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="153" t="s">
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="153" t="s">
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
+      <c r="X24" s="175"/>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="175"/>
+      <c r="AA24" s="175"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="155"/>
+      <c r="AD24" s="175"/>
+      <c r="AE24" s="173"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="161"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="154"/>
-      <c r="AE25" s="155"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="190"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="190"/>
+      <c r="T25" s="190"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="190"/>
+      <c r="X25" s="190"/>
+      <c r="Y25" s="190"/>
+      <c r="Z25" s="190"/>
+      <c r="AA25" s="190"/>
+      <c r="AB25" s="191"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="175"/>
+      <c r="AE25" s="173"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="161"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="154"/>
-      <c r="AE26" s="155"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="190"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="190"/>
+      <c r="W26" s="190"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="191"/>
+      <c r="AC26" s="172"/>
+      <c r="AD26" s="175"/>
+      <c r="AE26" s="173"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="160"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="161"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="154"/>
-      <c r="AE27" s="155"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="190"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="190"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="190"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="190"/>
+      <c r="AB27" s="191"/>
+      <c r="AC27" s="172"/>
+      <c r="AD27" s="175"/>
+      <c r="AE27" s="173"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="161"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="155"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="190"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="190"/>
+      <c r="T28" s="190"/>
+      <c r="U28" s="190"/>
+      <c r="V28" s="190"/>
+      <c r="W28" s="190"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="191"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="175"/>
+      <c r="AE28" s="173"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="160"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="160"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="161"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="154"/>
-      <c r="AE29" s="155"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="190"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="190"/>
+      <c r="R29" s="190"/>
+      <c r="S29" s="190"/>
+      <c r="T29" s="190"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="190"/>
+      <c r="W29" s="190"/>
+      <c r="X29" s="190"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="190"/>
+      <c r="AB29" s="191"/>
+      <c r="AC29" s="172"/>
+      <c r="AD29" s="175"/>
+      <c r="AE29" s="173"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="160"/>
-      <c r="S30" s="160"/>
-      <c r="T30" s="160"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="160"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="161"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="154"/>
-      <c r="AE30" s="155"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="190"/>
+      <c r="Q30" s="190"/>
+      <c r="R30" s="190"/>
+      <c r="S30" s="190"/>
+      <c r="T30" s="190"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="191"/>
+      <c r="AC30" s="172"/>
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="173"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="160"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="160"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="161"/>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="154"/>
-      <c r="AE31" s="155"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="190"/>
+      <c r="R31" s="190"/>
+      <c r="S31" s="190"/>
+      <c r="T31" s="190"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="190"/>
+      <c r="W31" s="190"/>
+      <c r="X31" s="190"/>
+      <c r="Y31" s="190"/>
+      <c r="Z31" s="190"/>
+      <c r="AA31" s="190"/>
+      <c r="AB31" s="191"/>
+      <c r="AC31" s="172"/>
+      <c r="AD31" s="175"/>
+      <c r="AE31" s="173"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="160"/>
-      <c r="T32" s="160"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="160"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="161"/>
-      <c r="AC32" s="153"/>
-      <c r="AD32" s="154"/>
-      <c r="AE32" s="155"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="190"/>
+      <c r="X32" s="190"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="172"/>
+      <c r="AD32" s="175"/>
+      <c r="AE32" s="173"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
-      <c r="U33" s="160"/>
-      <c r="V33" s="160"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="161"/>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="154"/>
-      <c r="AE33" s="155"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="190"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="190"/>
+      <c r="Q33" s="190"/>
+      <c r="R33" s="190"/>
+      <c r="S33" s="190"/>
+      <c r="T33" s="190"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="190"/>
+      <c r="W33" s="190"/>
+      <c r="X33" s="190"/>
+      <c r="Y33" s="190"/>
+      <c r="Z33" s="190"/>
+      <c r="AA33" s="190"/>
+      <c r="AB33" s="191"/>
+      <c r="AC33" s="172"/>
+      <c r="AD33" s="175"/>
+      <c r="AE33" s="173"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5943,6 +7159,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5954,51 +7215,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6017,8 +7233,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="53" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="40" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6028,7 +7244,7 @@
     <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6043,14 +7259,14 @@
       <c r="F1" s="123"/>
     </row>
     <row r="2" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="197" t="s">
+      <c r="B2" s="197"/>
+      <c r="C2" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="37" t="s">
         <v>25</v>
       </c>
@@ -6059,14 +7275,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="197" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="198"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
@@ -6075,14 +7291,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="197" t="s">
+      <c r="B4" s="197"/>
+      <c r="C4" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="198"/>
+      <c r="D4" s="193"/>
       <c r="E4" s="37" t="s">
         <v>27</v>
       </c>
@@ -6091,14 +7307,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="199" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="200"/>
+      <c r="D5" s="195"/>
       <c r="E5" s="37" t="s">
         <v>28</v>
       </c>
@@ -6107,14 +7323,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="197" t="s">
+      <c r="B6" s="197"/>
+      <c r="C6" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="198"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="37" t="s">
         <v>29</v>
       </c>
@@ -6153,10 +7369,10 @@
       <c r="D9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="193" t="s">
+      <c r="E9" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="194"/>
+      <c r="F9" s="203"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="129">
@@ -6171,10 +7387,10 @@
       <c r="D10" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="189" t="s">
+      <c r="E10" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="190"/>
+      <c r="F10" s="199"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="129">
@@ -6189,10 +7405,10 @@
       <c r="D11" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="189" t="s">
+      <c r="E11" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="190"/>
+      <c r="F11" s="199"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="129">
@@ -6207,10 +7423,10 @@
       <c r="D12" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="189" t="s">
+      <c r="E12" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="190"/>
+      <c r="F12" s="199"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="129">
@@ -6225,10 +7441,10 @@
       <c r="D13" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="189" t="s">
+      <c r="E13" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="190"/>
+      <c r="F13" s="199"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="129">
@@ -6243,34 +7459,34 @@
       <c r="D14" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="189" t="s">
+      <c r="E14" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="190"/>
+      <c r="F14" s="199"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="192"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="201"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="192"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="201"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="192"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="201"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -6732,16 +7948,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -6751,6 +7957,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6766,7 +7982,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
@@ -6797,10 +8013,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="47"/>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="49" t="s">
         <v>25</v>
       </c>
@@ -6819,10 +8035,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="47"/>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="198"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="49" t="s">
         <v>28</v>
       </c>
@@ -6841,12 +8057,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="47"/>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="198"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="49" t="s">
         <v>27</v>
       </c>
@@ -6869,42 +8085,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="51"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="198"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="51"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="198"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="198"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
@@ -6925,10 +8141,10 @@
       <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="54" t="s">
         <v>1</v>
       </c>
@@ -6949,11 +8165,11 @@
       <c r="B11" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="252" t="s">
+      <c r="C11" s="234" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254" t="s">
+      <c r="D11" s="235"/>
+      <c r="E11" s="153" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="133" t="s">
@@ -6971,10 +8187,10 @@
       <c r="B12" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="202"/>
+      <c r="D12" s="205"/>
       <c r="E12" s="73" t="s">
         <v>81</v>
       </c>
@@ -6991,10 +8207,10 @@
       <c r="B13" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="204" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="202"/>
+      <c r="D13" s="205"/>
       <c r="E13" s="73" t="s">
         <v>94</v>
       </c>
@@ -7007,8 +8223,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="76"/>
       <c r="B14" s="77"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="205"/>
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
       <c r="G14" s="79"/>
@@ -7017,8 +8233,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="76"/>
       <c r="B15" s="77"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="205"/>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
       <c r="G15" s="79"/>
@@ -7027,8 +8243,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="76"/>
       <c r="B16" s="77"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="205"/>
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
       <c r="G16" s="79"/>
@@ -7037,8 +8253,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="76"/>
       <c r="B17" s="77"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="205"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="79"/>
@@ -7047,8 +8263,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="205"/>
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
       <c r="G18" s="79"/>
@@ -7057,8 +8273,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
       <c r="G19" s="79"/>
@@ -7067,8 +8283,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="79"/>
@@ -7077,8 +8293,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
       <c r="G21" s="79"/>
@@ -7087,8 +8303,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="76"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="205"/>
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
       <c r="G22" s="79"/>
@@ -7097,8 +8313,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="76"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="205"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="79"/>
@@ -7107,8 +8323,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="76"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="79"/>
@@ -7117,8 +8333,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="76"/>
       <c r="B25" s="77"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -7127,8 +8343,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205"/>
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
@@ -7137,8 +8353,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="76"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="78"/>
       <c r="F27" s="78"/>
       <c r="G27" s="79"/>
@@ -7147,8 +8363,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="76"/>
       <c r="B28" s="77"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
       <c r="G28" s="79"/>
@@ -7157,8 +8373,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="76"/>
       <c r="B29" s="77"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="205"/>
       <c r="E29" s="78"/>
       <c r="F29" s="78"/>
       <c r="G29" s="79"/>
@@ -7167,8 +8383,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="84"/>
@@ -7200,10 +8416,10 @@
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="214" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="219"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="60" t="s">
         <v>9</v>
       </c>
@@ -7218,51 +8434,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="225"/>
-      <c r="C34" s="226"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="224"/>
       <c r="D34" s="216"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="218"/>
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="74"/>
       <c r="H35" s="75"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="74"/>
       <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="74"/>
       <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="81"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="208"/>
       <c r="G38" s="84"/>
       <c r="H38" s="85"/>
     </row>
@@ -7295,15 +8511,15 @@
       <c r="B41" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="214" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="218"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="214" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="215"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="64" t="s">
         <v>14</v>
       </c>
@@ -7312,50 +8528,50 @@
       <c r="A42" s="86"/>
       <c r="B42" s="87"/>
       <c r="C42" s="216"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="217"/>
+      <c r="D42" s="217"/>
+      <c r="E42" s="218"/>
       <c r="F42" s="216"/>
-      <c r="G42" s="217"/>
+      <c r="G42" s="218"/>
       <c r="H42" s="88"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="89"/>
       <c r="B43" s="90"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="209"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="91"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="89"/>
       <c r="B44" s="90"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="89"/>
       <c r="B45" s="90"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="92"/>
       <c r="B46" s="93"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="232"/>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7387,15 +8603,15 @@
       <c r="B49" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="214" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="218"/>
-      <c r="E49" s="219"/>
-      <c r="F49" s="203" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="213"/>
+      <c r="G49" s="226"/>
       <c r="H49" s="55" t="s">
         <v>17</v>
       </c>
@@ -7405,15 +8621,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="142"/>
-      <c r="C50" s="220" t="s">
+      <c r="C50" s="228" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="221"/>
-      <c r="E50" s="222"/>
-      <c r="F50" s="220" t="s">
+      <c r="D50" s="229"/>
+      <c r="E50" s="230"/>
+      <c r="F50" s="228" t="s">
         <v>135</v>
       </c>
-      <c r="G50" s="222"/>
+      <c r="G50" s="230"/>
       <c r="H50" s="143" t="s">
         <v>149</v>
       </c>
@@ -7421,53 +8637,83 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="89"/>
       <c r="B51" s="90"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="89"/>
       <c r="B52" s="90"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="89"/>
       <c r="B53" s="90"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="92"/>
       <c r="B54" s="93"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="232"/>
       <c r="H54" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -7484,44 +8730,14 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7567,10 +8783,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="49" t="s">
         <v>25</v>
       </c>
@@ -7589,10 +8805,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="198"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="49" t="s">
         <v>28</v>
       </c>
@@ -7611,12 +8827,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="65"/>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="198"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="49" t="s">
         <v>27</v>
       </c>
@@ -7639,42 +8855,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="51"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="198"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="51"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="198"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="192" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="198"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
@@ -7695,10 +8911,10 @@
       <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="54" t="s">
         <v>1</v>
       </c>
@@ -7719,11 +8935,11 @@
       <c r="B11" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="252" t="s">
+      <c r="C11" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254" t="s">
+      <c r="D11" s="235"/>
+      <c r="E11" s="153" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="133" t="s">
@@ -7741,11 +8957,11 @@
       <c r="B12" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="252" t="s">
+      <c r="C12" s="234" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="253"/>
-      <c r="E12" s="254" t="s">
+      <c r="D12" s="235"/>
+      <c r="E12" s="153" t="s">
         <v>154</v>
       </c>
       <c r="F12" s="133" t="s">
@@ -7761,11 +8977,11 @@
       <c r="B13" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="252" t="s">
+      <c r="C13" s="234" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="253"/>
-      <c r="E13" s="254" t="s">
+      <c r="D13" s="235"/>
+      <c r="E13" s="153" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="138" t="s">
@@ -7781,10 +8997,10 @@
       <c r="B14" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="252" t="s">
+      <c r="C14" s="234" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="253"/>
+      <c r="D14" s="235"/>
       <c r="E14" s="73" t="s">
         <v>81</v>
       </c>
@@ -7801,10 +9017,10 @@
       <c r="B15" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="252" t="s">
+      <c r="C15" s="234" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="253"/>
+      <c r="D15" s="235"/>
       <c r="E15" s="78" t="s">
         <v>81</v>
       </c>
@@ -7821,11 +9037,11 @@
       <c r="B16" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="252" t="s">
+      <c r="C16" s="234" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="253"/>
-      <c r="E16" s="254" t="s">
+      <c r="D16" s="235"/>
+      <c r="E16" s="153" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="138" t="s">
@@ -7839,8 +9055,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="76"/>
       <c r="B17" s="77"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="205"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="79"/>
@@ -7849,8 +9065,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="205"/>
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
       <c r="G18" s="79"/>
@@ -7859,8 +9075,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
       <c r="G19" s="79"/>
@@ -7869,8 +9085,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="79"/>
@@ -7879,8 +9095,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
       <c r="G21" s="79"/>
@@ -7889,8 +9105,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="76"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="205"/>
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
       <c r="G22" s="79"/>
@@ -7899,8 +9115,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="76"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="205"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="79"/>
@@ -7909,8 +9125,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="76"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="79"/>
@@ -7919,8 +9135,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="76"/>
       <c r="B25" s="77"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -7929,8 +9145,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205"/>
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
@@ -7939,8 +9155,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="76"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="78"/>
       <c r="F27" s="78"/>
       <c r="G27" s="79"/>
@@ -7949,8 +9165,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="76"/>
       <c r="B28" s="77"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
       <c r="G28" s="79"/>
@@ -7959,8 +9175,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="76"/>
       <c r="B29" s="77"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="205"/>
       <c r="E29" s="78"/>
       <c r="F29" s="78"/>
       <c r="G29" s="79"/>
@@ -7969,8 +9185,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="84"/>
@@ -8002,10 +9218,10 @@
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="214" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="219"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="66" t="s">
         <v>9</v>
       </c>
@@ -8020,51 +9236,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="225"/>
-      <c r="C34" s="226"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="224"/>
       <c r="D34" s="216"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="218"/>
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="74"/>
       <c r="H35" s="75"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="74"/>
       <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="74"/>
       <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="81"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="208"/>
       <c r="G38" s="84"/>
       <c r="H38" s="85"/>
     </row>
@@ -8097,15 +9313,15 @@
       <c r="B41" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="214" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="218"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="214" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="215"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="64" t="s">
         <v>14</v>
       </c>
@@ -8115,16 +9331,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="142"/>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="236" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="257"/>
-      <c r="F42" s="255" t="s">
+      <c r="D42" s="237"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="236" t="s">
         <v>191</v>
       </c>
-      <c r="G42" s="257"/>
-      <c r="H42" s="258" t="s">
+      <c r="G42" s="238"/>
+      <c r="H42" s="154" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8133,41 +9349,41 @@
         <v>2</v>
       </c>
       <c r="B43" s="150"/>
-      <c r="C43" s="259"/>
-      <c r="D43" s="260"/>
-      <c r="E43" s="261"/>
-      <c r="F43" s="259"/>
-      <c r="G43" s="261"/>
-      <c r="H43" s="262"/>
+      <c r="C43" s="239"/>
+      <c r="D43" s="240"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="239"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="155"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="89"/>
       <c r="B44" s="90"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="89"/>
       <c r="B45" s="90"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="92"/>
       <c r="B46" s="93"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="232"/>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8199,15 +9415,15 @@
       <c r="B49" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="214" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="218"/>
-      <c r="E49" s="219"/>
-      <c r="F49" s="203" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="213"/>
+      <c r="G49" s="226"/>
       <c r="H49" s="55" t="s">
         <v>17</v>
       </c>
@@ -8217,79 +9433,89 @@
         <v>1</v>
       </c>
       <c r="B50" s="142"/>
-      <c r="C50" s="255" t="s">
+      <c r="C50" s="236" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="256"/>
-      <c r="E50" s="257"/>
-      <c r="F50" s="255" t="s">
+      <c r="D50" s="237"/>
+      <c r="E50" s="238"/>
+      <c r="F50" s="236" t="s">
         <v>194</v>
       </c>
-      <c r="G50" s="257"/>
-      <c r="H50" s="258" t="s">
+      <c r="G50" s="238"/>
+      <c r="H50" s="154" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="89"/>
       <c r="B51" s="90"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="89"/>
       <c r="B52" s="90"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="89"/>
       <c r="B53" s="90"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="92"/>
       <c r="B54" s="93"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="232"/>
       <c r="H54" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -8306,34 +9532,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8379,10 +9595,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="49" t="s">
         <v>25</v>
       </c>
@@ -8401,10 +9617,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="198"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="49" t="s">
         <v>28</v>
       </c>
@@ -8423,12 +9639,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="65"/>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="198"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="49" t="s">
         <v>27</v>
       </c>
@@ -8451,42 +9667,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="51"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="198"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="51"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="198"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="198"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
@@ -8507,10 +9723,10 @@
       <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="54" t="s">
         <v>1</v>
       </c>
@@ -8531,11 +9747,11 @@
       <c r="B11" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="252" t="s">
+      <c r="C11" s="234" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254" t="s">
+      <c r="D11" s="235"/>
+      <c r="E11" s="153" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="133" t="s">
@@ -8553,11 +9769,11 @@
       <c r="B12" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="204" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="202"/>
-      <c r="E12" s="254" t="s">
+      <c r="D12" s="205"/>
+      <c r="E12" s="153" t="s">
         <v>172</v>
       </c>
       <c r="F12" s="138" t="s">
@@ -8573,11 +9789,11 @@
       <c r="B13" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="204" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="202"/>
-      <c r="E13" s="254" t="s">
+      <c r="D13" s="205"/>
+      <c r="E13" s="153" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="73"/>
@@ -8591,11 +9807,11 @@
       <c r="B14" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="202"/>
-      <c r="E14" s="254" t="s">
+      <c r="D14" s="205"/>
+      <c r="E14" s="153" t="s">
         <v>174</v>
       </c>
       <c r="F14" s="78"/>
@@ -8609,11 +9825,11 @@
       <c r="B15" s="147" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="201" t="s">
+      <c r="C15" s="204" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="202"/>
-      <c r="E15" s="254" t="s">
+      <c r="D15" s="205"/>
+      <c r="E15" s="153" t="s">
         <v>172</v>
       </c>
       <c r="F15" s="78"/>
@@ -8627,11 +9843,11 @@
       <c r="B16" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="204" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="202"/>
-      <c r="E16" s="254" t="s">
+      <c r="D16" s="205"/>
+      <c r="E16" s="153" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="78"/>
@@ -8641,8 +9857,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="76"/>
       <c r="B17" s="77"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="205"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="79"/>
@@ -8651,8 +9867,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="205"/>
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
       <c r="G18" s="79"/>
@@ -8661,8 +9877,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
       <c r="G19" s="79"/>
@@ -8671,8 +9887,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="79"/>
@@ -8681,8 +9897,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
       <c r="G21" s="79"/>
@@ -8691,8 +9907,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="76"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="205"/>
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
       <c r="G22" s="79"/>
@@ -8701,8 +9917,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="76"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="205"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="79"/>
@@ -8711,8 +9927,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="76"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="79"/>
@@ -8721,8 +9937,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="76"/>
       <c r="B25" s="77"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -8731,8 +9947,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205"/>
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
@@ -8741,8 +9957,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="76"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="78"/>
       <c r="F27" s="78"/>
       <c r="G27" s="79"/>
@@ -8751,8 +9967,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="76"/>
       <c r="B28" s="77"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
       <c r="G28" s="79"/>
@@ -8761,8 +9977,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="76"/>
       <c r="B29" s="77"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="205"/>
       <c r="E29" s="78"/>
       <c r="F29" s="78"/>
       <c r="G29" s="79"/>
@@ -8771,8 +9987,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="84"/>
@@ -8804,10 +10020,10 @@
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="214" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="219"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="66" t="s">
         <v>9</v>
       </c>
@@ -8822,51 +10038,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="225"/>
-      <c r="C34" s="226"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="224"/>
       <c r="D34" s="216"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="218"/>
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="74"/>
       <c r="H35" s="75"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="74"/>
       <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="74"/>
       <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="81"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="208"/>
       <c r="G38" s="84"/>
       <c r="H38" s="85"/>
     </row>
@@ -8899,15 +10115,15 @@
       <c r="B41" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="214" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="218"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="214" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="215"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="64" t="s">
         <v>14</v>
       </c>
@@ -8916,50 +10132,50 @@
       <c r="A42" s="86"/>
       <c r="B42" s="87"/>
       <c r="C42" s="216"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="217"/>
+      <c r="D42" s="217"/>
+      <c r="E42" s="218"/>
       <c r="F42" s="216"/>
-      <c r="G42" s="217"/>
+      <c r="G42" s="218"/>
       <c r="H42" s="88"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="89"/>
       <c r="B43" s="90"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="209"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="91"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="89"/>
       <c r="B44" s="90"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="89"/>
       <c r="B45" s="90"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="92"/>
       <c r="B46" s="93"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="232"/>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8991,15 +10207,15 @@
       <c r="B49" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="214" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="218"/>
-      <c r="E49" s="219"/>
-      <c r="F49" s="203" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="213"/>
+      <c r="G49" s="226"/>
       <c r="H49" s="55" t="s">
         <v>17</v>
       </c>
@@ -9009,82 +10225,89 @@
         <v>1</v>
       </c>
       <c r="B50" s="142"/>
-      <c r="C50" s="255" t="s">
+      <c r="C50" s="236" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="256"/>
-      <c r="E50" s="257"/>
-      <c r="F50" s="220" t="s">
+      <c r="D50" s="237"/>
+      <c r="E50" s="238"/>
+      <c r="F50" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="222"/>
-      <c r="H50" s="258" t="s">
+      <c r="G50" s="230"/>
+      <c r="H50" s="154" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="89"/>
       <c r="B51" s="90"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="89"/>
       <c r="B52" s="90"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="89"/>
       <c r="B53" s="90"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="92"/>
       <c r="B54" s="93"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="232"/>
       <c r="H54" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -9098,34 +10321,27 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9140,7 +10356,7 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -9171,10 +10387,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="49" t="s">
         <v>25</v>
       </c>
@@ -9193,10 +10409,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="198"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="49" t="s">
         <v>28</v>
       </c>
@@ -9215,12 +10431,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="65"/>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="198"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="49" t="s">
         <v>27</v>
       </c>
@@ -9243,42 +10459,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="51"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="192" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="198"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="51"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="192" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="198"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="192" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="198"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
@@ -9299,10 +10515,10 @@
       <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="54" t="s">
         <v>1</v>
       </c>
@@ -9323,11 +10539,11 @@
       <c r="B11" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="252" t="s">
+      <c r="C11" s="234" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254" t="s">
+      <c r="D11" s="235"/>
+      <c r="E11" s="153" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="133" t="s">
@@ -9345,10 +10561,10 @@
       <c r="B12" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="204" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="202"/>
+      <c r="D12" s="205"/>
       <c r="E12" s="73" t="s">
         <v>94</v>
       </c>
@@ -9367,10 +10583,10 @@
       <c r="B13" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="204" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="202"/>
+      <c r="D13" s="205"/>
       <c r="E13" s="78" t="s">
         <v>82</v>
       </c>
@@ -9383,8 +10599,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="76"/>
       <c r="B14" s="77"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="205"/>
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
       <c r="G14" s="79"/>
@@ -9393,8 +10609,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="76"/>
       <c r="B15" s="77"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="205"/>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
       <c r="G15" s="79"/>
@@ -9403,8 +10619,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="76"/>
       <c r="B16" s="77"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="205"/>
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
       <c r="G16" s="79"/>
@@ -9413,8 +10629,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="76"/>
       <c r="B17" s="77"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="205"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="79"/>
@@ -9423,8 +10639,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="205"/>
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
       <c r="G18" s="79"/>
@@ -9433,8 +10649,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
       <c r="G19" s="79"/>
@@ -9443,8 +10659,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="79"/>
@@ -9453,8 +10669,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
       <c r="G21" s="79"/>
@@ -9463,8 +10679,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="76"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="205"/>
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
       <c r="G22" s="79"/>
@@ -9473,8 +10689,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="76"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="205"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="79"/>
@@ -9483,8 +10699,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="76"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="79"/>
@@ -9493,8 +10709,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="76"/>
       <c r="B25" s="77"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -9503,8 +10719,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205"/>
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
@@ -9513,8 +10729,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="76"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="78"/>
       <c r="F27" s="78"/>
       <c r="G27" s="79"/>
@@ -9523,8 +10739,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="76"/>
       <c r="B28" s="77"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
       <c r="G28" s="79"/>
@@ -9533,8 +10749,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="212"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="208"/>
       <c r="E29" s="83"/>
       <c r="F29" s="83"/>
       <c r="G29" s="84"/>
@@ -9566,10 +10782,10 @@
       <c r="A32" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="214" t="s">
+      <c r="B32" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="219"/>
+      <c r="C32" s="221"/>
       <c r="D32" s="66" t="s">
         <v>9</v>
       </c>
@@ -9584,51 +10800,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="225"/>
-      <c r="C33" s="226"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="224"/>
       <c r="D33" s="216"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="218"/>
       <c r="G33" s="70"/>
       <c r="H33" s="71"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="209"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="215"/>
       <c r="G34" s="74"/>
       <c r="H34" s="75"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="74"/>
       <c r="H35" s="75"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="74"/>
       <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="81"/>
-      <c r="B37" s="231"/>
-      <c r="C37" s="232"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="211"/>
-      <c r="F37" s="212"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="208"/>
       <c r="G37" s="84"/>
       <c r="H37" s="85"/>
     </row>
@@ -9661,15 +10877,15 @@
       <c r="B40" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="214" t="s">
+      <c r="C40" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="218"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="214" t="s">
+      <c r="D40" s="222"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="215"/>
+      <c r="G40" s="227"/>
       <c r="H40" s="64" t="s">
         <v>14</v>
       </c>
@@ -9679,15 +10895,15 @@
         <v>1</v>
       </c>
       <c r="B41" s="142"/>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="228" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="229"/>
+      <c r="E41" s="230"/>
+      <c r="F41" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="222"/>
+      <c r="G41" s="230"/>
       <c r="H41" s="143" t="s">
         <v>78</v>
       </c>
@@ -9695,41 +10911,41 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="89"/>
       <c r="B42" s="90"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="209"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="215"/>
       <c r="H42" s="91"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="89"/>
       <c r="B43" s="90"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="209"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="91"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="89"/>
       <c r="B44" s="90"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="92"/>
       <c r="B45" s="93"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="211"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="223"/>
-      <c r="G45" s="224"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="208"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="232"/>
       <c r="H45" s="94"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -9761,15 +10977,15 @@
       <c r="B48" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="214" t="s">
+      <c r="C48" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="218"/>
-      <c r="E48" s="219"/>
-      <c r="F48" s="203" t="s">
+      <c r="D48" s="222"/>
+      <c r="E48" s="221"/>
+      <c r="F48" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="213"/>
+      <c r="G48" s="226"/>
       <c r="H48" s="55" t="s">
         <v>17</v>
       </c>
@@ -9779,15 +10995,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="142"/>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="220" t="s">
+      <c r="D49" s="229"/>
+      <c r="E49" s="230"/>
+      <c r="F49" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="222"/>
+      <c r="G49" s="230"/>
       <c r="H49" s="143" t="s">
         <v>72</v>
       </c>
@@ -9795,65 +11011,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="89"/>
       <c r="B50" s="90"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="208"/>
-      <c r="E50" s="209"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="209"/>
+      <c r="C50" s="213"/>
+      <c r="D50" s="214"/>
+      <c r="E50" s="215"/>
+      <c r="F50" s="213"/>
+      <c r="G50" s="215"/>
       <c r="H50" s="91"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="89"/>
       <c r="B51" s="90"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="89"/>
       <c r="B52" s="90"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="92"/>
       <c r="B53" s="93"/>
-      <c r="C53" s="210"/>
-      <c r="D53" s="211"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="223"/>
-      <c r="G53" s="224"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="208"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="232"/>
       <c r="H53" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="C24:D24"/>
@@ -9867,34 +11091,26 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9940,10 +11156,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="49" t="s">
         <v>25</v>
       </c>
@@ -9962,10 +11178,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="198"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="49" t="s">
         <v>28</v>
       </c>
@@ -9984,12 +11200,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="65"/>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="198"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="49" t="s">
         <v>27</v>
       </c>
@@ -10012,42 +11228,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="51"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="198"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="51"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="192" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="198"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="192" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="198"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="52" t="s">
@@ -10068,10 +11284,10 @@
       <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="54" t="s">
         <v>1</v>
       </c>
@@ -10092,11 +11308,11 @@
       <c r="B11" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="252" t="s">
+      <c r="C11" s="234" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254" t="s">
+      <c r="D11" s="235"/>
+      <c r="E11" s="153" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="133" t="s">
@@ -10114,11 +11330,11 @@
       <c r="B12" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="252" t="s">
+      <c r="C12" s="234" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="253"/>
-      <c r="E12" s="254" t="s">
+      <c r="D12" s="235"/>
+      <c r="E12" s="153" t="s">
         <v>94</v>
       </c>
       <c r="F12" s="148" t="s">
@@ -10136,11 +11352,11 @@
       <c r="B13" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="252" t="s">
+      <c r="C13" s="234" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="253"/>
-      <c r="E13" s="254" t="s">
+      <c r="D13" s="235"/>
+      <c r="E13" s="153" t="s">
         <v>94</v>
       </c>
       <c r="F13" s="148" t="s">
@@ -10154,8 +11370,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="144"/>
       <c r="B14" s="147"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
       <c r="E14" s="148"/>
       <c r="F14" s="148"/>
       <c r="G14" s="145"/>
@@ -10164,8 +11380,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="144"/>
       <c r="B15" s="147"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="243"/>
       <c r="E15" s="148"/>
       <c r="F15" s="148"/>
       <c r="G15" s="145"/>
@@ -10174,8 +11390,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="144"/>
       <c r="B16" s="147"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="243"/>
       <c r="E16" s="148"/>
       <c r="F16" s="148"/>
       <c r="G16" s="145"/>
@@ -10184,8 +11400,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="144"/>
       <c r="B17" s="147"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
       <c r="E17" s="148"/>
       <c r="F17" s="148"/>
       <c r="G17" s="145"/>
@@ -10194,8 +11410,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="144"/>
       <c r="B18" s="147"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
       <c r="E18" s="148"/>
       <c r="F18" s="148"/>
       <c r="G18" s="145"/>
@@ -10204,8 +11420,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
       <c r="G19" s="79"/>
@@ -10214,8 +11430,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="79"/>
@@ -10224,8 +11440,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
       <c r="G21" s="79"/>
@@ -10234,8 +11450,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="76"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="205"/>
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
       <c r="G22" s="79"/>
@@ -10244,8 +11460,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="76"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="205"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="79"/>
@@ -10254,8 +11470,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="76"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="79"/>
@@ -10264,8 +11480,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="76"/>
       <c r="B25" s="77"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -10274,8 +11490,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205"/>
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
@@ -10284,8 +11500,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="76"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="78"/>
       <c r="F27" s="78"/>
       <c r="G27" s="79"/>
@@ -10294,8 +11510,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="76"/>
       <c r="B28" s="77"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
       <c r="G28" s="79"/>
@@ -10304,8 +11520,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="76"/>
       <c r="B29" s="77"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="205"/>
       <c r="E29" s="78"/>
       <c r="F29" s="78"/>
       <c r="G29" s="79"/>
@@ -10314,8 +11530,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="84"/>
@@ -10347,10 +11563,10 @@
       <c r="A33" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="214" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="219"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="66" t="s">
         <v>9</v>
       </c>
@@ -10365,51 +11581,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="225"/>
-      <c r="C34" s="226"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="224"/>
       <c r="D34" s="216"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="218"/>
       <c r="G34" s="70"/>
       <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="74"/>
       <c r="H35" s="75"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="72"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="74"/>
       <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="72"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="74"/>
       <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="81"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="208"/>
       <c r="G38" s="84"/>
       <c r="H38" s="85"/>
     </row>
@@ -10442,15 +11658,15 @@
       <c r="B41" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="214" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="218"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="214" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="215"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="64" t="s">
         <v>14</v>
       </c>
@@ -10460,15 +11676,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="142"/>
-      <c r="C42" s="220" t="s">
+      <c r="C42" s="228" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="221"/>
-      <c r="E42" s="222"/>
-      <c r="F42" s="220" t="s">
+      <c r="D42" s="229"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="222"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="143" t="s">
         <v>78</v>
       </c>
@@ -10478,15 +11694,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="150"/>
-      <c r="C43" s="233" t="s">
+      <c r="C43" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="234"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="233" t="s">
+      <c r="D43" s="245"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="244" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="235"/>
+      <c r="G43" s="246"/>
       <c r="H43" s="151" t="s">
         <v>76</v>
       </c>
@@ -10494,31 +11710,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="89"/>
       <c r="B44" s="90"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="89"/>
       <c r="B45" s="90"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="92"/>
       <c r="B46" s="93"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="232"/>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10550,15 +11766,15 @@
       <c r="B49" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="214" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="218"/>
-      <c r="E49" s="219"/>
-      <c r="F49" s="203" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="213"/>
+      <c r="G49" s="226"/>
       <c r="H49" s="55" t="s">
         <v>17</v>
       </c>
@@ -10567,54 +11783,102 @@
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="216"/>
-      <c r="D50" s="229"/>
-      <c r="E50" s="217"/>
+      <c r="D50" s="217"/>
+      <c r="E50" s="218"/>
       <c r="F50" s="216"/>
-      <c r="G50" s="217"/>
+      <c r="G50" s="218"/>
       <c r="H50" s="88"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="89"/>
       <c r="B51" s="90"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="89"/>
       <c r="B52" s="90"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="89"/>
       <c r="B53" s="90"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="92"/>
       <c r="B54" s="93"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="232"/>
       <c r="H54" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -10629,54 +11893,6 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10723,116 +11939,116 @@
       <c r="A2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="252" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="245"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="246" t="s">
+      <c r="I2" s="252" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="245"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="244">
+      <c r="L2" s="250">
         <v>43596</v>
       </c>
-      <c r="M2" s="245"/>
+      <c r="M2" s="251"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="252" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="245"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="251"/>
       <c r="H3" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="246" t="s">
+      <c r="I3" s="252" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="245"/>
+      <c r="J3" s="251"/>
       <c r="K3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="246" t="s">
+      <c r="L3" s="252" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="245"/>
+      <c r="M3" s="251"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="250"/>
-      <c r="J4" s="245"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="251"/>
       <c r="K4" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="246" t="s">
+      <c r="L4" s="252" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="245"/>
+      <c r="M4" s="251"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="236"/>
-      <c r="L5" s="236"/>
-      <c r="M5" s="237"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="259"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="257" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="237"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="259"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="106"/>
@@ -10856,14 +12072,14 @@
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
       <c r="F8" s="110"/>
-      <c r="G8" s="247" t="s">
+      <c r="G8" s="253" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="248"/>
-      <c r="I8" s="248"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="249"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="255"/>
       <c r="M8" s="108"/>
     </row>
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
@@ -10893,15 +12109,15 @@
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="106"/>
-      <c r="B10" s="238" t="s">
+      <c r="B10" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="241" t="s">
+      <c r="C10" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="243"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="249"/>
       <c r="G10" s="114" t="s">
         <v>101</v>
       </c>
@@ -10922,13 +12138,13 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="106"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="241" t="s">
+      <c r="B11" s="261"/>
+      <c r="C11" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="243"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
       <c r="G11" s="114" t="s">
         <v>93</v>
       </c>
@@ -10949,13 +12165,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="106"/>
-      <c r="B12" s="239"/>
-      <c r="C12" s="241" t="s">
+      <c r="B12" s="261"/>
+      <c r="C12" s="247" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="243"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
       <c r="G12" s="114" t="s">
         <v>93</v>
       </c>
@@ -10976,13 +12192,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="106"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="241" t="s">
+      <c r="B13" s="261"/>
+      <c r="C13" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="243"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="249"/>
       <c r="G13" s="114" t="s">
         <v>93</v>
       </c>
@@ -11003,13 +12219,13 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="106"/>
-      <c r="B14" s="239"/>
-      <c r="C14" s="241" t="s">
+      <c r="B14" s="261"/>
+      <c r="C14" s="247" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="243"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="249"/>
       <c r="G14" s="114" t="s">
         <v>93</v>
       </c>
@@ -11030,13 +12246,13 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="106"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="241" t="s">
+      <c r="B15" s="261"/>
+      <c r="C15" s="247" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="243"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="249"/>
       <c r="G15" s="114" t="s">
         <v>93</v>
       </c>
@@ -11057,11 +12273,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="106"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="243"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="249"/>
       <c r="G16" s="114"/>
       <c r="H16" s="114"/>
       <c r="I16" s="114"/>
@@ -11072,11 +12288,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="106"/>
-      <c r="B17" s="239"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="243"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="249"/>
       <c r="G17" s="114"/>
       <c r="H17" s="114"/>
       <c r="I17" s="114"/>
@@ -11087,11 +12303,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="106"/>
-      <c r="B18" s="239"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="243"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="248"/>
+      <c r="F18" s="249"/>
       <c r="G18" s="114"/>
       <c r="H18" s="114"/>
       <c r="I18" s="114"/>
@@ -11102,11 +12318,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="106"/>
-      <c r="B19" s="239"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="243"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="249"/>
       <c r="G19" s="114"/>
       <c r="H19" s="114"/>
       <c r="I19" s="114"/>
@@ -11117,11 +12333,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="106"/>
-      <c r="B20" s="239"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="243"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="249"/>
       <c r="G20" s="114"/>
       <c r="H20" s="114"/>
       <c r="I20" s="114"/>
@@ -11132,7 +12348,7 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="106"/>
-      <c r="B21" s="239"/>
+      <c r="B21" s="261"/>
       <c r="C21" s="115"/>
       <c r="D21" s="128"/>
       <c r="E21" s="128"/>
@@ -11147,7 +12363,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="239"/>
+      <c r="B22" s="261"/>
       <c r="C22" s="115"/>
       <c r="D22" s="128"/>
       <c r="E22" s="128"/>
@@ -11162,7 +12378,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="106"/>
-      <c r="B23" s="239"/>
+      <c r="B23" s="261"/>
       <c r="C23" s="115"/>
       <c r="D23" s="128"/>
       <c r="E23" s="128"/>
@@ -11177,7 +12393,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="106"/>
-      <c r="B24" s="239"/>
+      <c r="B24" s="261"/>
       <c r="C24" s="115"/>
       <c r="D24" s="128"/>
       <c r="E24" s="128"/>
@@ -11192,7 +12408,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="106"/>
-      <c r="B25" s="239"/>
+      <c r="B25" s="261"/>
       <c r="C25" s="115"/>
       <c r="D25" s="128"/>
       <c r="E25" s="128"/>
@@ -11207,7 +12423,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="106"/>
-      <c r="B26" s="239"/>
+      <c r="B26" s="261"/>
       <c r="C26" s="115"/>
       <c r="D26" s="128"/>
       <c r="E26" s="128"/>
@@ -11222,7 +12438,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="106"/>
-      <c r="B27" s="239"/>
+      <c r="B27" s="261"/>
       <c r="C27" s="115"/>
       <c r="D27" s="128"/>
       <c r="E27" s="128"/>
@@ -11237,7 +12453,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="106"/>
-      <c r="B28" s="239"/>
+      <c r="B28" s="261"/>
       <c r="C28" s="115"/>
       <c r="D28" s="128"/>
       <c r="E28" s="128"/>
@@ -11252,7 +12468,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="106"/>
-      <c r="B29" s="239"/>
+      <c r="B29" s="261"/>
       <c r="C29" s="115"/>
       <c r="D29" s="128"/>
       <c r="E29" s="128"/>
@@ -11267,7 +12483,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="106"/>
-      <c r="B30" s="239"/>
+      <c r="B30" s="261"/>
       <c r="C30" s="115"/>
       <c r="D30" s="128"/>
       <c r="E30" s="128"/>
@@ -11282,11 +12498,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="106"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="243"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="248"/>
+      <c r="F31" s="249"/>
       <c r="G31" s="114"/>
       <c r="H31" s="114"/>
       <c r="I31" s="114"/>
@@ -11297,11 +12513,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="106"/>
-      <c r="B32" s="239"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="243"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="249"/>
       <c r="G32" s="114"/>
       <c r="H32" s="114"/>
       <c r="I32" s="114"/>
@@ -11312,11 +12528,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="106"/>
-      <c r="B33" s="239"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="243"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="248"/>
+      <c r="F33" s="249"/>
       <c r="G33" s="114"/>
       <c r="H33" s="114"/>
       <c r="I33" s="114"/>
@@ -11327,11 +12543,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="106"/>
-      <c r="B34" s="239"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="242"/>
-      <c r="E34" s="242"/>
-      <c r="F34" s="243"/>
+      <c r="B34" s="261"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="248"/>
+      <c r="F34" s="249"/>
       <c r="G34" s="114"/>
       <c r="H34" s="114"/>
       <c r="I34" s="114"/>
@@ -11342,11 +12558,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="106"/>
-      <c r="B35" s="240"/>
-      <c r="C35" s="241"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="243"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="247"/>
+      <c r="D35" s="248"/>
+      <c r="E35" s="248"/>
+      <c r="F35" s="249"/>
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
       <c r="I35" s="114"/>
@@ -11387,7 +12603,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -11404,20 +12634,6 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="B10:B35"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/DB設計書/映画予約システム　DB設計書.xlsx
+++ b/設計書/DB設計書/映画予約システム　DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/practice/設計書/DB設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{B2CE8741-7180-5845-9DDB-EACE84230DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E845A6-A461-8D41-841A-F1123AED3C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="306">
   <si>
     <t>No</t>
   </si>
@@ -1209,10 +1208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(64)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1928,15 +1923,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PK3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PK2 , FK1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PK1 , AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3508,6 +3499,45 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3556,18 +3586,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3595,25 +3616,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3628,112 +3646,115 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3748,10 +3769,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3781,20 +3814,20 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3822,48 +3855,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4872,7 +4863,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＃＊予約</a:t>
+              <a:t>　＊予約</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4883,7 +4874,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＃＊座席番号</a:t>
+              <a:t>　＊座席番号</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:p>
@@ -6981,21 +6972,21 @@
       <c r="R3" s="122"/>
       <c r="S3" s="122"/>
       <c r="T3" s="122"/>
-      <c r="U3" s="193" t="s">
+      <c r="U3" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="194"/>
-      <c r="W3" s="195">
+      <c r="V3" s="182"/>
+      <c r="W3" s="206">
         <v>43596</v>
       </c>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="194"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="182"/>
       <c r="AF3" s="122"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -7108,20 +7099,20 @@
       <c r="C7" s="126"/>
       <c r="D7" s="126"/>
       <c r="E7" s="127"/>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="180"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="193"/>
       <c r="R7" s="122"/>
       <c r="S7" s="122"/>
       <c r="T7" s="122"/>
@@ -7139,86 +7130,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="122"/>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="187" t="s">
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="189"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="202"/>
       <c r="R8" s="122"/>
       <c r="S8" s="122"/>
       <c r="T8" s="122"/>
       <c r="U8" s="122"/>
       <c r="V8" s="122"/>
-      <c r="W8" s="177" t="s">
+      <c r="W8" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177" t="s">
+      <c r="X8" s="190"/>
+      <c r="Y8" s="190"/>
+      <c r="Z8" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177" t="s">
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="177"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="190"/>
       <c r="AF8" s="122"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="122"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="192"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="205"/>
       <c r="R9" s="122"/>
       <c r="S9" s="122"/>
       <c r="T9" s="122"/>
       <c r="U9" s="122"/>
       <c r="V9" s="122"/>
-      <c r="W9" s="197" t="s">
+      <c r="W9" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="199"/>
-      <c r="Z9" s="197" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="199"/>
-      <c r="AC9" s="197" t="s">
+      <c r="X9" s="208"/>
+      <c r="Y9" s="209"/>
+      <c r="Z9" s="207" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA9" s="208"/>
+      <c r="AB9" s="209"/>
+      <c r="AC9" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="199"/>
+      <c r="AD9" s="208"/>
+      <c r="AE9" s="209"/>
       <c r="AF9" s="122"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -7244,15 +7235,15 @@
       <c r="T10" s="122"/>
       <c r="U10" s="122"/>
       <c r="V10" s="122"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="200"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="202"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="212"/>
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="211"/>
+      <c r="AB10" s="212"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="211"/>
+      <c r="AE10" s="212"/>
       <c r="AF10" s="122"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -7278,15 +7269,15 @@
       <c r="T11" s="122"/>
       <c r="U11" s="122"/>
       <c r="V11" s="122"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="202"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="202"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="202"/>
+      <c r="W11" s="210"/>
+      <c r="X11" s="211"/>
+      <c r="Y11" s="212"/>
+      <c r="Z11" s="210"/>
+      <c r="AA11" s="211"/>
+      <c r="AB11" s="212"/>
+      <c r="AC11" s="210"/>
+      <c r="AD11" s="211"/>
+      <c r="AE11" s="212"/>
       <c r="AF11" s="122"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -7312,15 +7303,15 @@
       <c r="T12" s="129"/>
       <c r="U12" s="129"/>
       <c r="V12" s="129"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="205"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="205"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="213"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="215"/>
+      <c r="AC12" s="213"/>
+      <c r="AD12" s="214"/>
+      <c r="AE12" s="215"/>
       <c r="AF12" s="122"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -7419,106 +7410,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="122"/>
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="206"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="206"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
-      <c r="T16" s="206"/>
-      <c r="U16" s="206"/>
-      <c r="V16" s="206"/>
-      <c r="W16" s="206"/>
-      <c r="X16" s="206"/>
-      <c r="Y16" s="206"/>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="206"/>
-      <c r="AB16" s="206"/>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="206"/>
-      <c r="AE16" s="206"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="189"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="189"/>
+      <c r="Y16" s="189"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="189"/>
+      <c r="AB16" s="189"/>
+      <c r="AC16" s="189"/>
+      <c r="AD16" s="189"/>
+      <c r="AE16" s="189"/>
       <c r="AF16" s="122"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="122"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206"/>
-      <c r="R17" s="206"/>
-      <c r="S17" s="206"/>
-      <c r="T17" s="206"/>
-      <c r="U17" s="206"/>
-      <c r="V17" s="206"/>
-      <c r="W17" s="206"/>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="206"/>
-      <c r="Z17" s="206"/>
-      <c r="AA17" s="206"/>
-      <c r="AB17" s="206"/>
-      <c r="AC17" s="206"/>
-      <c r="AD17" s="206"/>
-      <c r="AE17" s="206"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="189"/>
+      <c r="T17" s="189"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="189"/>
+      <c r="W17" s="189"/>
+      <c r="X17" s="189"/>
+      <c r="Y17" s="189"/>
+      <c r="Z17" s="189"/>
+      <c r="AA17" s="189"/>
+      <c r="AB17" s="189"/>
+      <c r="AC17" s="189"/>
+      <c r="AD17" s="189"/>
+      <c r="AE17" s="189"/>
       <c r="AF17" s="122"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="122"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="206"/>
-      <c r="O18" s="206"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="206"/>
-      <c r="R18" s="206"/>
-      <c r="S18" s="206"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="206"/>
-      <c r="V18" s="206"/>
-      <c r="W18" s="206"/>
-      <c r="X18" s="206"/>
-      <c r="Y18" s="206"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="206"/>
-      <c r="AC18" s="206"/>
-      <c r="AD18" s="206"/>
-      <c r="AE18" s="206"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="189"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="189"/>
+      <c r="AB18" s="189"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="189"/>
       <c r="AF18" s="122"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7661,408 +7652,408 @@
     </row>
     <row r="23" spans="1:32" s="133" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="130"/>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="193" t="s">
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="193" t="s">
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
-      <c r="M23" s="196"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="196"/>
-      <c r="P23" s="196"/>
-      <c r="Q23" s="196"/>
-      <c r="R23" s="196"/>
-      <c r="S23" s="196"/>
-      <c r="T23" s="196"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="196"/>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="194"/>
-      <c r="AC23" s="193" t="s">
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="181"/>
+      <c r="X23" s="181"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="181"/>
+      <c r="AB23" s="182"/>
+      <c r="AC23" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="194"/>
+      <c r="AD23" s="181"/>
+      <c r="AE23" s="182"/>
       <c r="AF23" s="130"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="122"/>
-      <c r="B24" s="193" t="s">
+      <c r="B24" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="207">
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="183">
         <v>43596</v>
       </c>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="193" t="s">
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="196"/>
-      <c r="L24" s="196"/>
-      <c r="M24" s="196"/>
-      <c r="N24" s="196"/>
-      <c r="O24" s="196"/>
-      <c r="P24" s="196"/>
-      <c r="Q24" s="196"/>
-      <c r="R24" s="196"/>
-      <c r="S24" s="196"/>
-      <c r="T24" s="196"/>
-      <c r="U24" s="196"/>
-      <c r="V24" s="196"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="196"/>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="194"/>
-      <c r="AC24" s="193" t="s">
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181"/>
+      <c r="U24" s="181"/>
+      <c r="V24" s="181"/>
+      <c r="W24" s="181"/>
+      <c r="X24" s="181"/>
+      <c r="Y24" s="181"/>
+      <c r="Z24" s="181"/>
+      <c r="AA24" s="181"/>
+      <c r="AB24" s="182"/>
+      <c r="AC24" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AD24" s="196"/>
-      <c r="AE24" s="194"/>
+      <c r="AD24" s="181"/>
+      <c r="AE24" s="182"/>
       <c r="AF24" s="122"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="122"/>
-      <c r="B25" s="193" t="s">
+      <c r="B25" s="180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="183">
+        <v>43621</v>
+      </c>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="180" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="207">
-        <v>43621</v>
-      </c>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="193" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
-      <c r="S25" s="196"/>
-      <c r="T25" s="196"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="196"/>
-      <c r="X25" s="196"/>
-      <c r="Y25" s="196"/>
-      <c r="Z25" s="196"/>
-      <c r="AA25" s="196"/>
-      <c r="AB25" s="194"/>
-      <c r="AC25" s="193" t="s">
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="181"/>
+      <c r="V25" s="181"/>
+      <c r="W25" s="181"/>
+      <c r="X25" s="181"/>
+      <c r="Y25" s="181"/>
+      <c r="Z25" s="181"/>
+      <c r="AA25" s="181"/>
+      <c r="AB25" s="182"/>
+      <c r="AC25" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AD25" s="196"/>
-      <c r="AE25" s="194"/>
+      <c r="AD25" s="181"/>
+      <c r="AE25" s="182"/>
       <c r="AF25" s="122"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="122"/>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="183">
+        <v>43647</v>
+      </c>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="207">
-        <v>43647</v>
-      </c>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="193" t="s">
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="181"/>
+      <c r="U26" s="181"/>
+      <c r="V26" s="181"/>
+      <c r="W26" s="181"/>
+      <c r="X26" s="181"/>
+      <c r="Y26" s="181"/>
+      <c r="Z26" s="181"/>
+      <c r="AA26" s="181"/>
+      <c r="AB26" s="182"/>
+      <c r="AC26" s="180" t="s">
         <v>264</v>
       </c>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="196"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="196"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="196"/>
-      <c r="AA26" s="196"/>
-      <c r="AB26" s="194"/>
-      <c r="AC26" s="193" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD26" s="196"/>
-      <c r="AE26" s="194"/>
+      <c r="AD26" s="181"/>
+      <c r="AE26" s="182"/>
       <c r="AF26" s="122"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="122"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="211"/>
-      <c r="W27" s="211"/>
-      <c r="X27" s="211"/>
-      <c r="Y27" s="211"/>
-      <c r="Z27" s="211"/>
-      <c r="AA27" s="211"/>
-      <c r="AB27" s="212"/>
-      <c r="AC27" s="193"/>
-      <c r="AD27" s="196"/>
-      <c r="AE27" s="194"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="187"/>
+      <c r="Q27" s="187"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="187"/>
+      <c r="Z27" s="187"/>
+      <c r="AA27" s="187"/>
+      <c r="AB27" s="188"/>
+      <c r="AC27" s="180"/>
+      <c r="AD27" s="181"/>
+      <c r="AE27" s="182"/>
       <c r="AF27" s="122"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="122"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="211"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="212"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="196"/>
-      <c r="AE28" s="194"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="187"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="188"/>
+      <c r="AC28" s="180"/>
+      <c r="AD28" s="181"/>
+      <c r="AE28" s="182"/>
       <c r="AF28" s="122"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="122"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="211"/>
-      <c r="Q29" s="211"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="211"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="211"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="211"/>
-      <c r="AB29" s="212"/>
-      <c r="AC29" s="193"/>
-      <c r="AD29" s="196"/>
-      <c r="AE29" s="194"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="187"/>
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="180"/>
+      <c r="AD29" s="181"/>
+      <c r="AE29" s="182"/>
       <c r="AF29" s="122"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="122"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="211"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="211"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="211"/>
-      <c r="AB30" s="212"/>
-      <c r="AC30" s="193"/>
-      <c r="AD30" s="196"/>
-      <c r="AE30" s="194"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="187"/>
+      <c r="R30" s="187"/>
+      <c r="S30" s="187"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="187"/>
+      <c r="X30" s="187"/>
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="187"/>
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="188"/>
+      <c r="AC30" s="180"/>
+      <c r="AD30" s="181"/>
+      <c r="AE30" s="182"/>
       <c r="AF30" s="122"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="122"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="211"/>
-      <c r="AB31" s="212"/>
-      <c r="AC31" s="193"/>
-      <c r="AD31" s="196"/>
-      <c r="AE31" s="194"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="187"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="187"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="187"/>
+      <c r="Z31" s="187"/>
+      <c r="AA31" s="187"/>
+      <c r="AB31" s="188"/>
+      <c r="AC31" s="180"/>
+      <c r="AD31" s="181"/>
+      <c r="AE31" s="182"/>
       <c r="AF31" s="122"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="122"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="211"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
-      <c r="W32" s="211"/>
-      <c r="X32" s="211"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="211"/>
-      <c r="AA32" s="211"/>
-      <c r="AB32" s="212"/>
-      <c r="AC32" s="193"/>
-      <c r="AD32" s="196"/>
-      <c r="AE32" s="194"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="187"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="187"/>
+      <c r="Y32" s="187"/>
+      <c r="Z32" s="187"/>
+      <c r="AA32" s="187"/>
+      <c r="AB32" s="188"/>
+      <c r="AC32" s="180"/>
+      <c r="AD32" s="181"/>
+      <c r="AE32" s="182"/>
       <c r="AF32" s="122"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="122"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="211"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="211"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="211"/>
-      <c r="Y33" s="211"/>
-      <c r="Z33" s="211"/>
-      <c r="AA33" s="211"/>
-      <c r="AB33" s="212"/>
-      <c r="AC33" s="193"/>
-      <c r="AD33" s="196"/>
-      <c r="AE33" s="194"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="187"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="187"/>
+      <c r="T33" s="187"/>
+      <c r="U33" s="187"/>
+      <c r="V33" s="187"/>
+      <c r="W33" s="187"/>
+      <c r="X33" s="187"/>
+      <c r="Y33" s="187"/>
+      <c r="Z33" s="187"/>
+      <c r="AA33" s="187"/>
+      <c r="AB33" s="188"/>
+      <c r="AC33" s="180"/>
+      <c r="AD33" s="181"/>
+      <c r="AE33" s="182"/>
       <c r="AF33" s="122"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -8101,51 +8092,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -8157,6 +8103,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8207,10 +8198,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -8229,15 +8220,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -8251,12 +8242,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -8279,42 +8270,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="222" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="222" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8335,10 +8326,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8357,14 +8348,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="229"/>
+        <v>193</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="253"/>
       <c r="E11" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>56</v>
@@ -8373,7 +8364,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -8383,12 +8374,12 @@
       <c r="B12" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="257" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="258"/>
+      <c r="C12" s="250" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="251"/>
       <c r="E12" s="175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="147" t="s">
         <v>56</v>
@@ -8426,7 +8417,7 @@
       <c r="A15" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="233"/>
@@ -8446,20 +8437,20 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="B16" s="243" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="244"/>
+      <c r="D16" s="245" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="246"/>
+      <c r="F16" s="247"/>
       <c r="G16" s="164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H16" s="165" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -8491,15 +8482,15 @@
       <c r="B19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="233"/>
-      <c r="F19" s="232" t="s">
+      <c r="F19" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="239"/>
       <c r="H19" s="69" t="s">
         <v>14</v>
       </c>
@@ -8511,15 +8502,15 @@
       <c r="B20" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="259" t="s">
+      <c r="D20" s="274"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="261"/>
+      <c r="G20" s="275"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -8553,15 +8544,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="F23" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="235"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -8571,23 +8562,33 @@
         <v>1</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="236" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="238"/>
+        <v>284</v>
+      </c>
+      <c r="C24" s="245" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="245" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="247"/>
       <c r="H24" s="167" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="C24:E24"/>
@@ -8598,16 +8599,6 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8656,10 +8647,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -8678,15 +8669,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -8700,17 +8691,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -8728,42 +8719,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="222" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8784,10 +8775,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8806,14 +8797,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="224" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="225"/>
+        <v>191</v>
+      </c>
+      <c r="C11" s="257" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="258"/>
       <c r="E11" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>56</v>
@@ -8822,7 +8813,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -8830,14 +8821,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="224" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="225"/>
+        <v>224</v>
+      </c>
+      <c r="C12" s="257" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="258"/>
       <c r="E12" s="168" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>56</v>
@@ -8854,14 +8845,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="231"/>
+        <v>225</v>
+      </c>
+      <c r="C13" s="259" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="260"/>
       <c r="E13" s="147" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="157" t="s">
         <v>56</v>
@@ -8899,7 +8890,7 @@
       <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="233"/>
@@ -8919,20 +8910,20 @@
       <c r="A17" s="163">
         <v>1</v>
       </c>
-      <c r="B17" s="234" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
+      <c r="B17" s="243" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="244"/>
+      <c r="D17" s="245" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="246"/>
+      <c r="F17" s="247"/>
       <c r="G17" s="164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H17" s="165" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
@@ -8964,15 +8955,15 @@
       <c r="B20" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="239"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="233"/>
-      <c r="F20" s="232" t="s">
+      <c r="F20" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="240"/>
+      <c r="G20" s="239"/>
       <c r="H20" s="69" t="s">
         <v>14</v>
       </c>
@@ -8984,15 +8975,15 @@
       <c r="B21" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="259" t="s">
+      <c r="C21" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="260"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="259" t="s">
+      <c r="D21" s="274"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="261"/>
+      <c r="G21" s="275"/>
       <c r="H21" s="137" t="s">
         <v>74</v>
       </c>
@@ -9026,15 +9017,15 @@
       <c r="B24" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="239"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="233"/>
-      <c r="F24" s="226" t="s">
+      <c r="F24" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="246"/>
+      <c r="G24" s="235"/>
       <c r="H24" s="60" t="s">
         <v>17</v>
       </c>
@@ -9044,29 +9035,29 @@
         <v>1</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="236" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="236" t="s">
-        <v>242</v>
-      </c>
-      <c r="G25" s="238"/>
+        <v>284</v>
+      </c>
+      <c r="C25" s="245" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="246"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="245" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" s="247"/>
       <c r="H25" s="167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="C10:D10"/>
@@ -9076,12 +9067,12 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9130,10 +9121,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -9152,15 +9143,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -9174,17 +9165,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -9202,42 +9193,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="222" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -9258,10 +9249,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9282,12 +9273,12 @@
       <c r="B11" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="224" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="225"/>
+      <c r="C11" s="257" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="258"/>
       <c r="E11" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>62</v>
@@ -9296,7 +9287,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -9306,10 +9297,10 @@
       <c r="B12" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="230" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="231"/>
+      <c r="C12" s="259" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="260"/>
       <c r="E12" s="170" t="s">
         <v>64</v>
       </c>
@@ -9349,7 +9340,7 @@
       <c r="A15" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="233"/>
@@ -9369,20 +9360,20 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="B16" s="243" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="244"/>
+      <c r="D16" s="245" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="246"/>
+      <c r="F16" s="247"/>
       <c r="G16" s="164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H16" s="171" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -9414,15 +9405,15 @@
       <c r="B19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="233"/>
-      <c r="F19" s="232" t="s">
+      <c r="F19" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="239"/>
       <c r="H19" s="69" t="s">
         <v>14</v>
       </c>
@@ -9434,15 +9425,15 @@
       <c r="B20" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="259" t="s">
+      <c r="D20" s="274"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="261"/>
+      <c r="G20" s="275"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -9476,15 +9467,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="F23" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="235"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -9494,34 +9485,23 @@
         <v>1</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" s="236" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="245" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="245" t="s">
         <v>180</v>
       </c>
-      <c r="G24" s="238"/>
+      <c r="G24" s="247"/>
       <c r="H24" s="167" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -9531,6 +9511,17 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9545,8 +9536,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -9579,10 +9570,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -9601,15 +9592,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -9623,17 +9614,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -9651,42 +9642,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -9707,10 +9698,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9731,12 +9722,12 @@
       <c r="B11" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="276" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="263"/>
+      <c r="D11" s="277"/>
       <c r="E11" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>56</v>
@@ -9745,7 +9736,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -9755,10 +9746,10 @@
       <c r="B12" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="264" t="s">
+      <c r="C12" s="278" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="265"/>
+      <c r="D12" s="279"/>
       <c r="E12" s="35" t="s">
         <v>64</v>
       </c>
@@ -9779,12 +9770,12 @@
       <c r="B13" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="266" t="s">
+      <c r="C13" s="280" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="267"/>
+      <c r="D13" s="281"/>
       <c r="E13" s="156" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="F13" s="157" t="s">
         <v>56</v>
@@ -9822,7 +9813,7 @@
       <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="233"/>
@@ -9842,17 +9833,17 @@
       <c r="A17" s="163">
         <v>1</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236" t="s">
+      <c r="C17" s="244"/>
+      <c r="D17" s="245" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="247"/>
       <c r="G17" s="164" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H17" s="165" t="s">
         <v>58</v>
@@ -9887,15 +9878,15 @@
       <c r="B20" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="239"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="233"/>
-      <c r="F20" s="232" t="s">
+      <c r="F20" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="240"/>
+      <c r="G20" s="239"/>
       <c r="H20" s="69" t="s">
         <v>14</v>
       </c>
@@ -9907,15 +9898,15 @@
       <c r="B21" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="241" t="s">
+      <c r="C21" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="242"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="244" t="s">
+      <c r="D21" s="227"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="245"/>
+      <c r="G21" s="230"/>
       <c r="H21" s="137" t="s">
         <v>74</v>
       </c>
@@ -9949,15 +9940,15 @@
       <c r="B24" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="239"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="233"/>
-      <c r="F24" s="226" t="s">
+      <c r="F24" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="246"/>
+      <c r="G24" s="235"/>
       <c r="H24" s="60" t="s">
         <v>17</v>
       </c>
@@ -9967,23 +9958,31 @@
         <v>1</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="236" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="236" t="s">
+      <c r="D25" s="246"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="238"/>
+      <c r="G25" s="247"/>
       <c r="H25" s="167" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C10:D10"/>
@@ -9997,14 +9996,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10056,21 +10047,21 @@
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="290" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="278"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="292"/>
       <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="276" t="s">
+      <c r="H2" s="290" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="277"/>
-      <c r="J2" s="278"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="292"/>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
@@ -10086,21 +10077,21 @@
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="276" t="s">
+      <c r="B3" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="278"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="292"/>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="276" t="s">
+      <c r="H3" s="290" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="277"/>
-      <c r="J3" s="278"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="292"/>
       <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
@@ -10116,22 +10107,22 @@
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="290" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="278"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="292"/>
       <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="286" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M4" s="286"/>
       <c r="N4" s="286"/>
@@ -10142,23 +10133,23 @@
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="279" t="s">
+      <c r="B5" s="293" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="281"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="294"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="294"/>
+      <c r="N5" s="294"/>
+      <c r="O5" s="294"/>
+      <c r="P5" s="295"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
@@ -10242,25 +10233,25 @@
         <v>141</v>
       </c>
       <c r="K9" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="N9" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="O9" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="273" t="s">
+      <c r="B10" s="287" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="282" t="s">
@@ -10292,7 +10283,7 @@
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="274"/>
+      <c r="B11" s="288"/>
       <c r="C11" s="282" t="s">
         <v>77</v>
       </c>
@@ -10322,7 +10313,7 @@
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="274"/>
+      <c r="B12" s="288"/>
       <c r="C12" s="282" t="s">
         <v>78</v>
       </c>
@@ -10352,7 +10343,7 @@
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="274"/>
+      <c r="B13" s="288"/>
       <c r="C13" s="282" t="s">
         <v>79</v>
       </c>
@@ -10382,7 +10373,7 @@
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="274"/>
+      <c r="B14" s="288"/>
       <c r="C14" s="282" t="s">
         <v>80</v>
       </c>
@@ -10412,7 +10403,7 @@
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="274"/>
+      <c r="B15" s="288"/>
       <c r="C15" s="282" t="s">
         <v>81</v>
       </c>
@@ -10442,7 +10433,7 @@
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="274"/>
+      <c r="B16" s="288"/>
       <c r="C16" s="282"/>
       <c r="D16" s="283"/>
       <c r="E16" s="283"/>
@@ -10460,7 +10451,7 @@
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="274"/>
+      <c r="B17" s="288"/>
       <c r="C17" s="282"/>
       <c r="D17" s="283"/>
       <c r="E17" s="283"/>
@@ -10478,7 +10469,7 @@
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="274"/>
+      <c r="B18" s="288"/>
       <c r="C18" s="282"/>
       <c r="D18" s="283"/>
       <c r="E18" s="283"/>
@@ -10496,7 +10487,7 @@
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="274"/>
+      <c r="B19" s="288"/>
       <c r="C19" s="282"/>
       <c r="D19" s="283"/>
       <c r="E19" s="283"/>
@@ -10514,7 +10505,7 @@
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="274"/>
+      <c r="B20" s="288"/>
       <c r="C20" s="282"/>
       <c r="D20" s="283"/>
       <c r="E20" s="283"/>
@@ -10532,7 +10523,7 @@
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="274"/>
+      <c r="B21" s="288"/>
       <c r="C21" s="14"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -10550,7 +10541,7 @@
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="274"/>
+      <c r="B22" s="288"/>
       <c r="C22" s="14"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -10568,7 +10559,7 @@
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="274"/>
+      <c r="B23" s="288"/>
       <c r="C23" s="14"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -10586,7 +10577,7 @@
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="274"/>
+      <c r="B24" s="288"/>
       <c r="C24" s="14"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -10604,7 +10595,7 @@
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="274"/>
+      <c r="B25" s="288"/>
       <c r="C25" s="14"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -10622,7 +10613,7 @@
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="274"/>
+      <c r="B26" s="288"/>
       <c r="C26" s="14"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -10640,7 +10631,7 @@
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="274"/>
+      <c r="B27" s="288"/>
       <c r="C27" s="14"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -10658,7 +10649,7 @@
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="274"/>
+      <c r="B28" s="288"/>
       <c r="C28" s="14"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -10676,7 +10667,7 @@
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="274"/>
+      <c r="B29" s="288"/>
       <c r="C29" s="14"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -10694,7 +10685,7 @@
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="274"/>
+      <c r="B30" s="288"/>
       <c r="C30" s="14"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -10712,7 +10703,7 @@
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="274"/>
+      <c r="B31" s="288"/>
       <c r="C31" s="282"/>
       <c r="D31" s="283"/>
       <c r="E31" s="283"/>
@@ -10730,7 +10721,7 @@
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="274"/>
+      <c r="B32" s="288"/>
       <c r="C32" s="282"/>
       <c r="D32" s="283"/>
       <c r="E32" s="283"/>
@@ -10748,7 +10739,7 @@
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="274"/>
+      <c r="B33" s="288"/>
       <c r="C33" s="282"/>
       <c r="D33" s="283"/>
       <c r="E33" s="283"/>
@@ -10766,7 +10757,7 @@
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="274"/>
+      <c r="B34" s="288"/>
       <c r="C34" s="282"/>
       <c r="D34" s="283"/>
       <c r="E34" s="283"/>
@@ -10784,7 +10775,7 @@
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="275"/>
+      <c r="B35" s="289"/>
       <c r="C35" s="282"/>
       <c r="D35" s="283"/>
       <c r="E35" s="283"/>
@@ -10838,19 +10829,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B10:B35"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
@@ -10867,6 +10845,19 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10881,8 +10872,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A20" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -10907,14 +10898,14 @@
       <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="213" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="98" t="s">
         <v>25</v>
       </c>
@@ -10923,14 +10914,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="213" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="98" t="s">
         <v>26</v>
       </c>
@@ -10939,14 +10930,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="213" t="s">
+      <c r="B4" s="221"/>
+      <c r="C4" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="214"/>
+      <c r="D4" s="223"/>
       <c r="E4" s="98" t="s">
         <v>27</v>
       </c>
@@ -10955,30 +10946,30 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="98" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="213" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="214"/>
+      <c r="D6" s="223"/>
       <c r="E6" s="98" t="s">
         <v>29</v>
       </c>
@@ -11017,10 +11008,10 @@
       <c r="D9" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="222"/>
+      <c r="F9" s="219"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="23">
@@ -11035,10 +11026,10 @@
       <c r="D10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="219" t="s">
+      <c r="E10" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="217"/>
     </row>
     <row r="11" spans="1:6" ht="33.5" customHeight="1">
       <c r="A11" s="23">
@@ -11053,10 +11044,10 @@
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="219" t="s">
+      <c r="E11" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="220"/>
+      <c r="F11" s="217"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="23">
@@ -11071,28 +11062,28 @@
       <c r="D12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="219" t="s">
+      <c r="E12" s="216" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="220"/>
+      <c r="F12" s="217"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="23">
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>257</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>258</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="219" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="220"/>
+      <c r="E13" s="216" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="217"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="23">
@@ -11107,10 +11098,10 @@
       <c r="D14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="220"/>
+      <c r="F14" s="217"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="23">
@@ -11125,10 +11116,10 @@
       <c r="D15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="219" t="s">
+      <c r="E15" s="216" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="220"/>
+      <c r="F15" s="217"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="23">
@@ -11143,10 +11134,10 @@
       <c r="D16" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="219" t="s">
+      <c r="E16" s="216" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="220"/>
+      <c r="F16" s="217"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="23">
@@ -11161,10 +11152,10 @@
       <c r="D17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="219" t="s">
+      <c r="E17" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="220"/>
+      <c r="F17" s="217"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="23">
@@ -11179,10 +11170,10 @@
       <c r="D18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="219" t="s">
+      <c r="E18" s="216" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="220"/>
+      <c r="F18" s="217"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
       <c r="A19" s="23">
@@ -11192,15 +11183,15 @@
         <v>153</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="219" t="s">
+      <c r="E19" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="220"/>
+      <c r="F19" s="217"/>
     </row>
     <row r="20" spans="1:6" ht="33.75" customHeight="1">
       <c r="A20" s="23">
@@ -11215,10 +11206,10 @@
       <c r="D20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="219" t="s">
+      <c r="E20" s="216" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="220"/>
+      <c r="F20" s="217"/>
     </row>
     <row r="21" spans="1:6" ht="29.25" customHeight="1">
       <c r="A21" s="91" t="s">
@@ -11760,6 +11751,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
@@ -11772,16 +11773,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11798,7 +11789,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:E22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -11829,10 +11820,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -11851,15 +11842,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -11873,17 +11864,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -11901,42 +11892,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="222" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -11957,10 +11948,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -11979,14 +11970,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="250" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="257" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="258"/>
+      <c r="D11" s="251"/>
       <c r="E11" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>56</v>
@@ -11995,7 +11986,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -12005,12 +11996,12 @@
       <c r="B12" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="257" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="258"/>
+      <c r="C12" s="250" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="251"/>
       <c r="E12" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="82" t="s">
         <v>56</v>
@@ -12019,7 +12010,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -12029,10 +12020,10 @@
       <c r="B13" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="228" t="s">
+      <c r="C13" s="252" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="229"/>
+      <c r="D13" s="253"/>
       <c r="E13" s="82" t="s">
         <v>75</v>
       </c>
@@ -12043,7 +12034,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -12051,19 +12042,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="173" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="257" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="258"/>
+        <v>193</v>
+      </c>
+      <c r="C14" s="250" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="251"/>
       <c r="E14" s="175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="295" t="s">
+      <c r="G14" s="179" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="149" t="s">
@@ -12096,7 +12087,7 @@
       <c r="A17" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="233"/>
@@ -12116,20 +12107,20 @@
       <c r="A18" s="163">
         <v>1</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="243" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="244"/>
+      <c r="D18" s="245" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="246"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="164" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="165" t="s">
         <v>304</v>
-      </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="164" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="165" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
@@ -12161,15 +12152,15 @@
       <c r="B21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="233"/>
-      <c r="F21" s="232" t="s">
+      <c r="F21" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="240"/>
+      <c r="G21" s="239"/>
       <c r="H21" s="69" t="s">
         <v>14</v>
       </c>
@@ -12179,19 +12170,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" s="247" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="247" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="240" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="249"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="240" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="242"/>
       <c r="H22" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -12199,19 +12190,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="161" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="250" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="250" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="236" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="237"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="236" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="238"/>
+      <c r="H23" s="152" t="s">
         <v>217</v>
-      </c>
-      <c r="G23" s="252"/>
-      <c r="H23" s="152" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
@@ -12243,15 +12234,15 @@
       <c r="B26" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="233"/>
-      <c r="F26" s="226" t="s">
+      <c r="F26" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="246"/>
+      <c r="G26" s="235"/>
       <c r="H26" s="60" t="s">
         <v>17</v>
       </c>
@@ -12263,27 +12254,32 @@
       <c r="B27" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244" t="s">
+      <c r="D27" s="227"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="245"/>
+      <c r="G27" s="230"/>
       <c r="H27" s="137" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C22:E22"/>
@@ -12291,17 +12287,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12350,10 +12341,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -12372,15 +12363,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -12394,17 +12385,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -12422,42 +12413,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -12478,10 +12469,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -12502,12 +12493,12 @@
       <c r="B11" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="252" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="253"/>
       <c r="E11" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>59</v>
@@ -12516,7 +12507,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -12524,14 +12515,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="174" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="257" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="224" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="258"/>
       <c r="E12" s="85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="85" t="s">
         <v>62</v>
@@ -12540,7 +12531,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -12548,14 +12539,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="224" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="225"/>
+        <v>190</v>
+      </c>
+      <c r="C13" s="257" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="258"/>
       <c r="E13" s="77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="77" t="s">
         <v>56</v>
@@ -12572,12 +12563,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="224" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="225"/>
+        <v>272</v>
+      </c>
+      <c r="C14" s="257" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="258"/>
       <c r="E14" s="77" t="s">
         <v>168</v>
       </c>
@@ -12596,14 +12587,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="230" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="231"/>
+        <v>192</v>
+      </c>
+      <c r="C15" s="259" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="260"/>
       <c r="E15" s="147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="147" t="s">
         <v>56</v>
@@ -12612,7 +12603,7 @@
         <v>74</v>
       </c>
       <c r="H15" s="149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
@@ -12641,7 +12632,7 @@
       <c r="A18" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="232" t="s">
+      <c r="B18" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="233"/>
@@ -12661,20 +12652,20 @@
       <c r="A19" s="163">
         <v>1</v>
       </c>
-      <c r="B19" s="234" t="s">
+      <c r="B19" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="236" t="s">
+      <c r="C19" s="244"/>
+      <c r="D19" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="238"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="247"/>
       <c r="G19" s="164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H19" s="165" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
@@ -12706,15 +12697,15 @@
       <c r="B22" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="232" t="s">
+      <c r="C22" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="239"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="233"/>
-      <c r="F22" s="232" t="s">
+      <c r="F22" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="240"/>
+      <c r="G22" s="239"/>
       <c r="H22" s="69" t="s">
         <v>14</v>
       </c>
@@ -12724,19 +12715,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="247" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="240" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="241"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="240" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="242"/>
+      <c r="H23" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="D23" s="248"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="247" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="249"/>
-      <c r="H23" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
@@ -12744,19 +12735,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="268" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="254" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="255"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="254" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="270"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="268" t="s">
+      <c r="G24" s="256"/>
+      <c r="H24" s="79" t="s">
         <v>210</v>
-      </c>
-      <c r="G24" s="269"/>
-      <c r="H24" s="79" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
@@ -12764,19 +12755,19 @@
         <v>3</v>
       </c>
       <c r="B25" s="161" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" s="250" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="236" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="237"/>
+      <c r="E25" s="238"/>
+      <c r="F25" s="236" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="251"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="250" t="s">
+      <c r="G25" s="238"/>
+      <c r="H25" s="152" t="s">
         <v>213</v>
-      </c>
-      <c r="G25" s="252"/>
-      <c r="H25" s="152" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
@@ -12808,15 +12799,15 @@
       <c r="B28" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="232" t="s">
+      <c r="C28" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="239"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="233"/>
-      <c r="F28" s="226" t="s">
+      <c r="F28" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="246"/>
+      <c r="G28" s="235"/>
       <c r="H28" s="60" t="s">
         <v>17</v>
       </c>
@@ -12826,38 +12817,23 @@
         <v>1</v>
       </c>
       <c r="B29" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C29" s="236" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="245" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="246"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="245" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="237"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="236" t="s">
+      <c r="G29" s="247"/>
+      <c r="H29" s="167" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="238"/>
-      <c r="H29" s="167" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -12870,6 +12846,21 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12918,10 +12909,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -12940,15 +12931,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -12962,17 +12953,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -12990,42 +12981,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="222" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -13046,10 +13037,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -13070,12 +13061,12 @@
       <c r="B11" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="287" t="s">
+      <c r="C11" s="271" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="288"/>
+      <c r="D11" s="272"/>
       <c r="E11" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>56</v>
@@ -13084,7 +13075,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -13094,10 +13085,10 @@
       <c r="B12" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="225"/>
+      <c r="C12" s="257" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="258"/>
       <c r="E12" s="28" t="s">
         <v>64</v>
       </c>
@@ -13118,12 +13109,12 @@
       <c r="B13" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="271" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="272"/>
+      <c r="C13" s="261" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="262"/>
       <c r="E13" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>62</v>
@@ -13140,12 +13131,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="257" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="224" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="225"/>
+      <c r="D14" s="258"/>
       <c r="E14" s="34" t="s">
         <v>64</v>
       </c>
@@ -13166,10 +13157,10 @@
       <c r="B15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="224" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="225"/>
+      <c r="C15" s="257" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="258"/>
       <c r="E15" s="43" t="s">
         <v>64</v>
       </c>
@@ -13190,12 +13181,12 @@
       <c r="B16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="224" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="225"/>
+      <c r="C16" s="257" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="258"/>
       <c r="E16" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>56</v>
@@ -13204,7 +13195,7 @@
         <v>74</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -13214,10 +13205,10 @@
       <c r="B17" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="289" t="s">
+      <c r="C17" s="267" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="290"/>
+      <c r="D17" s="268"/>
       <c r="E17" s="43" t="s">
         <v>168</v>
       </c>
@@ -13238,10 +13229,10 @@
       <c r="B18" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="291" t="s">
+      <c r="C18" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="292"/>
+      <c r="D18" s="270"/>
       <c r="E18" s="157" t="s">
         <v>168</v>
       </c>
@@ -13281,7 +13272,7 @@
       <c r="A21" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="233"/>
@@ -13301,37 +13292,37 @@
       <c r="A22" s="80">
         <v>1</v>
       </c>
-      <c r="B22" s="253" t="s">
+      <c r="B22" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="254"/>
-      <c r="D22" s="247" t="s">
+      <c r="C22" s="264"/>
+      <c r="D22" s="240" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="248"/>
-      <c r="F22" s="249"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="242"/>
       <c r="G22" s="83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H22" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="145">
         <v>2</v>
       </c>
-      <c r="B23" s="255" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="250" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="251"/>
-      <c r="F23" s="252"/>
+      <c r="B23" s="265" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="266"/>
+      <c r="D23" s="236" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="237"/>
+      <c r="F23" s="238"/>
       <c r="G23" s="148" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H23" s="149" t="s">
         <v>74</v>
@@ -13366,15 +13357,15 @@
       <c r="B26" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="233"/>
-      <c r="F26" s="232" t="s">
+      <c r="F26" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="240"/>
+      <c r="G26" s="239"/>
       <c r="H26" s="69" t="s">
         <v>14</v>
       </c>
@@ -13384,37 +13375,37 @@
         <v>1</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="247" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="248"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="247" t="s">
+      <c r="D27" s="241"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="249"/>
+      <c r="G27" s="242"/>
       <c r="H27" s="40" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="293">
+      <c r="A28" s="177">
         <v>2</v>
       </c>
-      <c r="B28" s="294" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="250" t="s">
+      <c r="B28" s="178" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="236" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="250" t="s">
+      <c r="D28" s="237"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="236" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="252"/>
+      <c r="G28" s="238"/>
       <c r="H28" s="152" t="s">
         <v>171</v>
       </c>
@@ -13448,15 +13439,15 @@
       <c r="B31" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="232" t="s">
+      <c r="C31" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="239"/>
+      <c r="D31" s="232"/>
       <c r="E31" s="233"/>
-      <c r="F31" s="226" t="s">
+      <c r="F31" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="246"/>
+      <c r="G31" s="235"/>
       <c r="H31" s="60" t="s">
         <v>17</v>
       </c>
@@ -13466,23 +13457,37 @@
         <v>1</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32" s="236" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="245" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="237"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="236" t="s">
+      <c r="D32" s="246"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="245" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" s="247"/>
+      <c r="H32" s="167" t="s">
         <v>301</v>
-      </c>
-      <c r="G32" s="238"/>
-      <c r="H32" s="167" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="C31:E31"/>
@@ -13499,20 +13504,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13561,10 +13552,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -13583,15 +13574,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -13605,17 +13596,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -13633,42 +13624,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="222" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -13689,10 +13680,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -13713,12 +13704,12 @@
       <c r="B11" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="252" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="253"/>
       <c r="E11" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>60</v>
@@ -13727,7 +13718,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -13737,10 +13728,10 @@
       <c r="B12" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="257" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="258"/>
       <c r="E12" s="82" t="s">
         <v>64</v>
       </c>
@@ -13761,10 +13752,10 @@
       <c r="B13" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="257" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="258"/>
       <c r="E13" s="82" t="s">
         <v>64</v>
       </c>
@@ -13785,10 +13776,10 @@
       <c r="B14" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="257" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="225"/>
+      <c r="D14" s="258"/>
       <c r="E14" s="82" t="s">
         <v>140</v>
       </c>
@@ -13809,12 +13800,12 @@
       <c r="B15" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="257" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="225"/>
+      <c r="D15" s="258"/>
       <c r="E15" s="82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15" s="85" t="s">
         <v>56</v>
@@ -13833,10 +13824,10 @@
       <c r="B16" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="230" t="s">
+      <c r="C16" s="259" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="231"/>
+      <c r="D16" s="260"/>
       <c r="E16" s="147" t="s">
         <v>64</v>
       </c>
@@ -13876,7 +13867,7 @@
       <c r="A19" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="233"/>
@@ -13896,20 +13887,20 @@
       <c r="A20" s="163">
         <v>1</v>
       </c>
-      <c r="B20" s="234" t="s">
+      <c r="B20" s="243" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="235"/>
-      <c r="D20" s="236" t="s">
+      <c r="C20" s="244"/>
+      <c r="D20" s="245" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="237"/>
-      <c r="F20" s="238"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="247"/>
       <c r="G20" s="164" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H20" s="165" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
@@ -13941,15 +13932,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="233"/>
-      <c r="F23" s="232" t="s">
+      <c r="F23" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="240"/>
+      <c r="G23" s="239"/>
       <c r="H23" s="69" t="s">
         <v>14</v>
       </c>
@@ -13961,15 +13952,15 @@
       <c r="B24" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="241" t="s">
+      <c r="C24" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="242"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="244" t="s">
+      <c r="D24" s="227"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="245"/>
+      <c r="G24" s="230"/>
       <c r="H24" s="137" t="s">
         <v>74</v>
       </c>
@@ -14003,15 +13994,15 @@
       <c r="B27" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="232" t="s">
+      <c r="C27" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="239"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="233"/>
-      <c r="F27" s="226" t="s">
+      <c r="F27" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="246"/>
+      <c r="G27" s="235"/>
       <c r="H27" s="60" t="s">
         <v>17</v>
       </c>
@@ -14021,23 +14012,37 @@
         <v>1</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C28" s="236" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="245" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="237"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="236" t="s">
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="238"/>
+      <c r="G28" s="247"/>
       <c r="H28" s="167" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="C28:E28"/>
@@ -14048,20 +14053,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14108,10 +14099,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -14130,15 +14121,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -14152,12 +14143,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -14180,42 +14171,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="C6" s="222" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="222" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="222" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14236,10 +14227,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -14258,14 +14249,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="252" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="228" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="253"/>
       <c r="E11" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>56</v>
@@ -14274,7 +14265,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -14282,14 +14273,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="224" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="258"/>
       <c r="E12" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="82" t="s">
         <v>56</v>
@@ -14298,7 +14289,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -14306,14 +14297,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="231"/>
+        <v>270</v>
+      </c>
+      <c r="C13" s="259" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="260"/>
       <c r="E13" s="147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="147" t="s">
         <v>56</v>
@@ -14351,7 +14342,7 @@
       <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="233"/>
@@ -14371,40 +14362,40 @@
       <c r="A17" s="80">
         <v>1</v>
       </c>
-      <c r="B17" s="253" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="247" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="249"/>
+      <c r="B17" s="263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="264"/>
+      <c r="D17" s="240" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="241"/>
+      <c r="F17" s="242"/>
       <c r="G17" s="83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="145">
         <v>2</v>
       </c>
-      <c r="B18" s="255" t="s">
+      <c r="B18" s="265" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="250" t="s">
+      <c r="C18" s="266"/>
+      <c r="D18" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="238"/>
       <c r="G18" s="148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H18" s="149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
@@ -14436,15 +14427,15 @@
       <c r="B21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="233"/>
-      <c r="F21" s="232" t="s">
+      <c r="F21" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="240"/>
+      <c r="G21" s="239"/>
       <c r="H21" s="69" t="s">
         <v>14</v>
       </c>
@@ -14454,19 +14445,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="161" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" s="247" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="240" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="247" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="249"/>
+      <c r="G22" s="242"/>
       <c r="H22" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -14474,19 +14465,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="160" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="250" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="236" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="237"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="236" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="250" t="s">
+      <c r="G23" s="238"/>
+      <c r="H23" s="152" t="s">
         <v>277</v>
-      </c>
-      <c r="G23" s="252"/>
-      <c r="H23" s="152" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
@@ -14518,15 +14509,15 @@
       <c r="B26" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="233"/>
-      <c r="F26" s="226" t="s">
+      <c r="F26" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="246"/>
+      <c r="G26" s="235"/>
       <c r="H26" s="60" t="s">
         <v>17</v>
       </c>
@@ -14536,38 +14527,23 @@
         <v>1</v>
       </c>
       <c r="B27" s="142" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="241" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" s="245"/>
+        <v>284</v>
+      </c>
+      <c r="C27" s="226" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="227"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="229" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="230"/>
       <c r="H27" s="137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="C27:E27"/>
@@ -14578,6 +14554,21 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14624,10 +14615,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -14646,15 +14637,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -14668,17 +14659,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -14696,42 +14687,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14752,10 +14743,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -14774,23 +14765,23 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="229"/>
+        <v>232</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="253"/>
       <c r="E11" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="83" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -14798,23 +14789,23 @@
         <v>2</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="224" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="225"/>
+        <v>233</v>
+      </c>
+      <c r="C12" s="257" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="258"/>
       <c r="E12" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G12" s="83" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -14822,17 +14813,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="162" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="230" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="259" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="260"/>
+      <c r="E13" s="147" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="147" t="s">
+      <c r="F13" s="147" t="s">
         <v>239</v>
-      </c>
-      <c r="F13" s="147" t="s">
-        <v>240</v>
       </c>
       <c r="G13" s="148" t="s">
         <v>74</v>
@@ -14867,7 +14858,7 @@
       <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="233"/>
@@ -14887,40 +14878,40 @@
       <c r="A17" s="80">
         <v>1</v>
       </c>
-      <c r="B17" s="253" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="247" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="249"/>
+      <c r="B17" s="263" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="264"/>
+      <c r="D17" s="240" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="241"/>
+      <c r="F17" s="242"/>
       <c r="G17" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="145">
         <v>2</v>
       </c>
-      <c r="B18" s="255" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="250" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
+      <c r="B18" s="265" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="266"/>
+      <c r="D18" s="236" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="237"/>
+      <c r="F18" s="238"/>
       <c r="G18" s="148" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H18" s="149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
@@ -14952,15 +14943,15 @@
       <c r="B21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="233"/>
-      <c r="F21" s="232" t="s">
+      <c r="F21" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="240"/>
+      <c r="G21" s="239"/>
       <c r="H21" s="69" t="s">
         <v>14</v>
       </c>
@@ -14970,19 +14961,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" s="236" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="245" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="245" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="237"/>
-      <c r="E22" s="238"/>
-      <c r="F22" s="236" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="238"/>
+      <c r="G22" s="247"/>
       <c r="H22" s="167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -15014,15 +15005,15 @@
       <c r="B25" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="232" t="s">
+      <c r="C25" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="239"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="233"/>
-      <c r="F25" s="226" t="s">
+      <c r="F25" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="246"/>
+      <c r="G25" s="235"/>
       <c r="H25" s="60" t="s">
         <v>17</v>
       </c>
@@ -15032,38 +15023,23 @@
         <v>1</v>
       </c>
       <c r="B26" s="151" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="245" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="246"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="245" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="236" t="s">
+      <c r="G26" s="247"/>
+      <c r="H26" s="167" t="s">
         <v>251</v>
-      </c>
-      <c r="D26" s="237"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="236" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="238"/>
-      <c r="H26" s="167" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C26:E26"/>
@@ -15072,6 +15048,21 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15120,10 +15111,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -15142,15 +15133,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -15164,17 +15155,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -15192,42 +15183,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="222" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="223"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="222" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -15248,10 +15239,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -15270,14 +15261,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="224" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="225"/>
+        <v>189</v>
+      </c>
+      <c r="C11" s="257" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="258"/>
       <c r="E11" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>56</v>
@@ -15286,7 +15277,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -15294,12 +15285,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="231"/>
+        <v>231</v>
+      </c>
+      <c r="C12" s="259" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="260"/>
       <c r="E12" s="170" t="s">
         <v>64</v>
       </c>
@@ -15339,7 +15330,7 @@
       <c r="A15" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="233"/>
@@ -15359,20 +15350,20 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="B16" s="243" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="244"/>
+      <c r="D16" s="245" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="246"/>
+      <c r="F16" s="247"/>
       <c r="G16" s="164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H16" s="165" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -15404,15 +15395,15 @@
       <c r="B19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="233"/>
-      <c r="F19" s="232" t="s">
+      <c r="F19" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="239"/>
       <c r="H19" s="69" t="s">
         <v>14</v>
       </c>
@@ -15424,15 +15415,15 @@
       <c r="B20" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="241" t="s">
+      <c r="C20" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="242"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="244" t="s">
+      <c r="D20" s="227"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="245"/>
+      <c r="G20" s="230"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -15466,15 +15457,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="F23" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="235"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -15484,23 +15475,34 @@
         <v>1</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="236" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="245" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="245" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
+      <c r="G24" s="247"/>
+      <c r="H24" s="167" t="s">
         <v>248</v>
-      </c>
-      <c r="G24" s="238"/>
-      <c r="H24" s="167" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -15510,17 +15512,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/設計書/DB設計書/映画予約システム　DB設計書.xlsx
+++ b/設計書/DB設計書/映画予約システム　DB設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/practice/設計書/DB設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{B2CE8741-7180-5845-9DDB-EACE84230DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE754F-6FF9-1F4F-B41A-6626E1565F7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">スクリーン!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">ユーザー!$A$1:$H$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">映画!$A$1:$H$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">映画一覧!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">映画一覧!$A$1:$H$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">映画館!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">管理者!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">上映時間!$A$1:$H$25</definedName>
@@ -46,7 +46,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="310">
   <si>
     <t>No</t>
   </si>
@@ -1937,6 +1936,17 @@
   </si>
   <si>
     <t>PK1 , AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <rPh sb="0" eb="2">
+      <t>トウz</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>today</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3028,7 +3038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3508,6 +3518,48 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3556,18 +3608,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3595,25 +3638,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3628,112 +3668,115 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3748,10 +3791,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3781,20 +3836,20 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3822,48 +3877,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4235,10 +4248,10 @@
       <xdr:rowOff>155829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2262643</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>160575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248161</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4254,7 +4267,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4448284" y="12009162"/>
-          <a:ext cx="1843325" cy="1639689"/>
+          <a:ext cx="2164475" cy="2223597"/>
           <a:chOff x="3418192" y="10011385"/>
           <a:chExt cx="1661809" cy="2318156"/>
         </a:xfrm>
@@ -4389,6 +4402,33 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊スクリーン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＊当日</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>    </a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4402,14 +4442,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527481</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>117461</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2262643</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>160575</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4424,7 +4464,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4556447" y="14423208"/>
+          <a:off x="4556447" y="14758955"/>
           <a:ext cx="1735162" cy="2495528"/>
           <a:chOff x="3418190" y="10011382"/>
           <a:chExt cx="1661811" cy="2379718"/>
@@ -4541,17 +4581,6 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>    ＊スクリーン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>ID</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>    ＊予約日付</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4575,15 +4604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1340981</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>160575</xdr:rowOff>
+      <xdr:colOff>1395061</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1395061</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>117461</xdr:rowOff>
+      <xdr:colOff>1501556</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4600,9 +4629,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5369947" y="13648851"/>
-          <a:ext cx="54080" cy="774357"/>
+        <a:xfrm flipH="1">
+          <a:off x="5424027" y="14232759"/>
+          <a:ext cx="106495" cy="526196"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4688,8 +4717,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2262643</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>154257</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>81269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -4713,8 +4742,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6291609" y="15890579"/>
-          <a:ext cx="1614275" cy="429351"/>
+          <a:off x="6291609" y="16226326"/>
+          <a:ext cx="1614275" cy="93604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4883,14 +4912,6 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＃＊座席番号</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>　＊料金</a:t>
             </a:r>
             <a:r>
@@ -4915,8 +4936,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1248053</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>160575</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -4940,8 +4961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5277019" y="16918736"/>
-          <a:ext cx="147010" cy="1725015"/>
+          <a:off x="5277019" y="17254483"/>
+          <a:ext cx="147010" cy="1389268"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5524,16 +5545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2262643</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248161</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>101958</xdr:rowOff>
+      <xdr:rowOff>133048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>668017</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>133048</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5550,9 +5571,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6291609" y="12977130"/>
-          <a:ext cx="1675259" cy="31090"/>
+        <a:xfrm flipH="1">
+          <a:off x="6612759" y="13008220"/>
+          <a:ext cx="1354109" cy="313613"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5581,15 +5602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>256548</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>111115</xdr:rowOff>
+      <xdr:colOff>285743</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>96517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1671736</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95253</xdr:rowOff>
+      <xdr:colOff>1700931</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80655</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5604,7 +5625,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="256548" y="12986287"/>
+          <a:off x="285743" y="10928011"/>
           <a:ext cx="1794728" cy="1414713"/>
           <a:chOff x="3418190" y="10011382"/>
           <a:chExt cx="1661811" cy="1266137"/>
@@ -5722,15 +5743,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>239402</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
+      <xdr:colOff>312390</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>137766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1654590</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>141598</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19647</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>185392</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5745,7 +5766,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="239402" y="15217191"/>
+          <a:off x="312390" y="12808571"/>
           <a:ext cx="1794728" cy="1682568"/>
           <a:chOff x="3418190" y="10011382"/>
           <a:chExt cx="1661811" cy="1470492"/>
@@ -5874,15 +5895,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>757225</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95253</xdr:rowOff>
+      <xdr:colOff>803568</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>774373</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
+      <xdr:colOff>830213</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>137766</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5899,9 +5920,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1136765" y="14401000"/>
-          <a:ext cx="17148" cy="816191"/>
+        <a:xfrm>
+          <a:off x="1183108" y="12342724"/>
+          <a:ext cx="26645" cy="465847"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5929,16 +5950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1654590</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>154257</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19647</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>527483</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>153036</xdr:rowOff>
+      <xdr:colOff>419318</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>196829</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5951,13 +5972,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="67" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2034130" y="15890579"/>
-          <a:ext cx="2522319" cy="407514"/>
+          <a:off x="2107118" y="13321833"/>
+          <a:ext cx="2341166" cy="567640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6197,13 +6218,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1340980</xdr:colOff>
+      <xdr:colOff>1350287</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>160577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1350287</xdr:colOff>
+      <xdr:colOff>1501555</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>155829</xdr:rowOff>
     </xdr:to>
@@ -6222,9 +6243,206 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5369946" y="10992071"/>
-          <a:ext cx="9307" cy="1017091"/>
+        <a:xfrm>
+          <a:off x="5379253" y="10992071"/>
+          <a:ext cx="151268" cy="1017091"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364942</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72199</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>164407</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0769E256-6098-F341-9171-AF95672D5016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="364942" y="15444368"/>
+          <a:ext cx="1794728" cy="1682568"/>
+          <a:chOff x="3418190" y="10011382"/>
+          <a:chExt cx="1661811" cy="1470492"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81A0CD3-4420-7E4F-BA31-797CCBCFA0B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418190" y="10011382"/>
+            <a:ext cx="1661808" cy="405319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>座席</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACD853E-A282-B84E-A39D-583218AB0308}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418192" y="10430213"/>
+            <a:ext cx="1661809" cy="1051661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊座席</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊座席</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>830215</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>185392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>882765</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1E36C4-CBEF-044E-B6D3-D1D3707A5608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="0"/>
+          <a:endCxn id="67" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1209755" y="14491139"/>
+          <a:ext cx="52550" cy="953229"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6981,21 +7199,21 @@
       <c r="R3" s="122"/>
       <c r="S3" s="122"/>
       <c r="T3" s="122"/>
-      <c r="U3" s="193" t="s">
+      <c r="U3" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="194"/>
-      <c r="W3" s="195">
+      <c r="V3" s="183"/>
+      <c r="W3" s="207">
         <v>43596</v>
       </c>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="194"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="183"/>
       <c r="AF3" s="122"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -7108,20 +7326,20 @@
       <c r="C7" s="126"/>
       <c r="D7" s="126"/>
       <c r="E7" s="127"/>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="180"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="194"/>
       <c r="R7" s="122"/>
       <c r="S7" s="122"/>
       <c r="T7" s="122"/>
@@ -7139,86 +7357,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="122"/>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="187" t="s">
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="201" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="189"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="203"/>
       <c r="R8" s="122"/>
       <c r="S8" s="122"/>
       <c r="T8" s="122"/>
       <c r="U8" s="122"/>
       <c r="V8" s="122"/>
-      <c r="W8" s="177" t="s">
+      <c r="W8" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177" t="s">
+      <c r="X8" s="191"/>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177" t="s">
+      <c r="AA8" s="191"/>
+      <c r="AB8" s="191"/>
+      <c r="AC8" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="177"/>
+      <c r="AD8" s="191"/>
+      <c r="AE8" s="191"/>
       <c r="AF8" s="122"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="122"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="192"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="206"/>
       <c r="R9" s="122"/>
       <c r="S9" s="122"/>
       <c r="T9" s="122"/>
       <c r="U9" s="122"/>
       <c r="V9" s="122"/>
-      <c r="W9" s="197" t="s">
+      <c r="W9" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="199"/>
-      <c r="Z9" s="197" t="s">
+      <c r="X9" s="209"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="199"/>
-      <c r="AC9" s="197" t="s">
+      <c r="AA9" s="209"/>
+      <c r="AB9" s="210"/>
+      <c r="AC9" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="199"/>
+      <c r="AD9" s="209"/>
+      <c r="AE9" s="210"/>
       <c r="AF9" s="122"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -7244,15 +7462,15 @@
       <c r="T10" s="122"/>
       <c r="U10" s="122"/>
       <c r="V10" s="122"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="200"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="202"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="213"/>
+      <c r="Z10" s="211"/>
+      <c r="AA10" s="212"/>
+      <c r="AB10" s="213"/>
+      <c r="AC10" s="211"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="213"/>
       <c r="AF10" s="122"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -7278,15 +7496,15 @@
       <c r="T11" s="122"/>
       <c r="U11" s="122"/>
       <c r="V11" s="122"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="202"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="202"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="202"/>
+      <c r="W11" s="211"/>
+      <c r="X11" s="212"/>
+      <c r="Y11" s="213"/>
+      <c r="Z11" s="211"/>
+      <c r="AA11" s="212"/>
+      <c r="AB11" s="213"/>
+      <c r="AC11" s="211"/>
+      <c r="AD11" s="212"/>
+      <c r="AE11" s="213"/>
       <c r="AF11" s="122"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -7312,15 +7530,15 @@
       <c r="T12" s="129"/>
       <c r="U12" s="129"/>
       <c r="V12" s="129"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="205"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="205"/>
+      <c r="W12" s="214"/>
+      <c r="X12" s="215"/>
+      <c r="Y12" s="216"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="215"/>
+      <c r="AB12" s="216"/>
+      <c r="AC12" s="214"/>
+      <c r="AD12" s="215"/>
+      <c r="AE12" s="216"/>
       <c r="AF12" s="122"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -7419,106 +7637,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="122"/>
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="206"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="206"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
-      <c r="T16" s="206"/>
-      <c r="U16" s="206"/>
-      <c r="V16" s="206"/>
-      <c r="W16" s="206"/>
-      <c r="X16" s="206"/>
-      <c r="Y16" s="206"/>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="206"/>
-      <c r="AB16" s="206"/>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="206"/>
-      <c r="AE16" s="206"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="190"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="190"/>
+      <c r="S16" s="190"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="190"/>
+      <c r="V16" s="190"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="190"/>
+      <c r="Z16" s="190"/>
+      <c r="AA16" s="190"/>
+      <c r="AB16" s="190"/>
+      <c r="AC16" s="190"/>
+      <c r="AD16" s="190"/>
+      <c r="AE16" s="190"/>
       <c r="AF16" s="122"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="122"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206"/>
-      <c r="R17" s="206"/>
-      <c r="S17" s="206"/>
-      <c r="T17" s="206"/>
-      <c r="U17" s="206"/>
-      <c r="V17" s="206"/>
-      <c r="W17" s="206"/>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="206"/>
-      <c r="Z17" s="206"/>
-      <c r="AA17" s="206"/>
-      <c r="AB17" s="206"/>
-      <c r="AC17" s="206"/>
-      <c r="AD17" s="206"/>
-      <c r="AE17" s="206"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="190"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="190"/>
+      <c r="S17" s="190"/>
+      <c r="T17" s="190"/>
+      <c r="U17" s="190"/>
+      <c r="V17" s="190"/>
+      <c r="W17" s="190"/>
+      <c r="X17" s="190"/>
+      <c r="Y17" s="190"/>
+      <c r="Z17" s="190"/>
+      <c r="AA17" s="190"/>
+      <c r="AB17" s="190"/>
+      <c r="AC17" s="190"/>
+      <c r="AD17" s="190"/>
+      <c r="AE17" s="190"/>
       <c r="AF17" s="122"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="122"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="206"/>
-      <c r="O18" s="206"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="206"/>
-      <c r="R18" s="206"/>
-      <c r="S18" s="206"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="206"/>
-      <c r="V18" s="206"/>
-      <c r="W18" s="206"/>
-      <c r="X18" s="206"/>
-      <c r="Y18" s="206"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="206"/>
-      <c r="AC18" s="206"/>
-      <c r="AD18" s="206"/>
-      <c r="AE18" s="206"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="190"/>
+      <c r="T18" s="190"/>
+      <c r="U18" s="190"/>
+      <c r="V18" s="190"/>
+      <c r="W18" s="190"/>
+      <c r="X18" s="190"/>
+      <c r="Y18" s="190"/>
+      <c r="Z18" s="190"/>
+      <c r="AA18" s="190"/>
+      <c r="AB18" s="190"/>
+      <c r="AC18" s="190"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="190"/>
       <c r="AF18" s="122"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7661,408 +7879,408 @@
     </row>
     <row r="23" spans="1:32" s="133" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="130"/>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="193" t="s">
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="193" t="s">
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
-      <c r="M23" s="196"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="196"/>
-      <c r="P23" s="196"/>
-      <c r="Q23" s="196"/>
-      <c r="R23" s="196"/>
-      <c r="S23" s="196"/>
-      <c r="T23" s="196"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="196"/>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="194"/>
-      <c r="AC23" s="193" t="s">
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="182"/>
+      <c r="T23" s="182"/>
+      <c r="U23" s="182"/>
+      <c r="V23" s="182"/>
+      <c r="W23" s="182"/>
+      <c r="X23" s="182"/>
+      <c r="Y23" s="182"/>
+      <c r="Z23" s="182"/>
+      <c r="AA23" s="182"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="194"/>
+      <c r="AD23" s="182"/>
+      <c r="AE23" s="183"/>
       <c r="AF23" s="130"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="122"/>
-      <c r="B24" s="193" t="s">
+      <c r="B24" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="207">
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="184">
         <v>43596</v>
       </c>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="193" t="s">
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="196"/>
-      <c r="L24" s="196"/>
-      <c r="M24" s="196"/>
-      <c r="N24" s="196"/>
-      <c r="O24" s="196"/>
-      <c r="P24" s="196"/>
-      <c r="Q24" s="196"/>
-      <c r="R24" s="196"/>
-      <c r="S24" s="196"/>
-      <c r="T24" s="196"/>
-      <c r="U24" s="196"/>
-      <c r="V24" s="196"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="196"/>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="194"/>
-      <c r="AC24" s="193" t="s">
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="182"/>
+      <c r="T24" s="182"/>
+      <c r="U24" s="182"/>
+      <c r="V24" s="182"/>
+      <c r="W24" s="182"/>
+      <c r="X24" s="182"/>
+      <c r="Y24" s="182"/>
+      <c r="Z24" s="182"/>
+      <c r="AA24" s="182"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="AD24" s="196"/>
-      <c r="AE24" s="194"/>
+      <c r="AD24" s="182"/>
+      <c r="AE24" s="183"/>
       <c r="AF24" s="122"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="122"/>
-      <c r="B25" s="193" t="s">
+      <c r="B25" s="181" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="207">
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184">
         <v>43621</v>
       </c>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="193" t="s">
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
-      <c r="S25" s="196"/>
-      <c r="T25" s="196"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="196"/>
-      <c r="X25" s="196"/>
-      <c r="Y25" s="196"/>
-      <c r="Z25" s="196"/>
-      <c r="AA25" s="196"/>
-      <c r="AB25" s="194"/>
-      <c r="AC25" s="193" t="s">
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="182"/>
+      <c r="T25" s="182"/>
+      <c r="U25" s="182"/>
+      <c r="V25" s="182"/>
+      <c r="W25" s="182"/>
+      <c r="X25" s="182"/>
+      <c r="Y25" s="182"/>
+      <c r="Z25" s="182"/>
+      <c r="AA25" s="182"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="AD25" s="196"/>
-      <c r="AE25" s="194"/>
+      <c r="AD25" s="182"/>
+      <c r="AE25" s="183"/>
       <c r="AF25" s="122"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="122"/>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="181" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="207">
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="184">
         <v>43647</v>
       </c>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="193" t="s">
+      <c r="G26" s="185"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="181" t="s">
         <v>264</v>
       </c>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="196"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="196"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="196"/>
-      <c r="AA26" s="196"/>
-      <c r="AB26" s="194"/>
-      <c r="AC26" s="193" t="s">
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="182"/>
+      <c r="T26" s="182"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="182"/>
+      <c r="W26" s="182"/>
+      <c r="X26" s="182"/>
+      <c r="Y26" s="182"/>
+      <c r="Z26" s="182"/>
+      <c r="AA26" s="182"/>
+      <c r="AB26" s="183"/>
+      <c r="AC26" s="181" t="s">
         <v>265</v>
       </c>
-      <c r="AD26" s="196"/>
-      <c r="AE26" s="194"/>
+      <c r="AD26" s="182"/>
+      <c r="AE26" s="183"/>
       <c r="AF26" s="122"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="122"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="211"/>
-      <c r="W27" s="211"/>
-      <c r="X27" s="211"/>
-      <c r="Y27" s="211"/>
-      <c r="Z27" s="211"/>
-      <c r="AA27" s="211"/>
-      <c r="AB27" s="212"/>
-      <c r="AC27" s="193"/>
-      <c r="AD27" s="196"/>
-      <c r="AE27" s="194"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="188"/>
+      <c r="U27" s="188"/>
+      <c r="V27" s="188"/>
+      <c r="W27" s="188"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="188"/>
+      <c r="Z27" s="188"/>
+      <c r="AA27" s="188"/>
+      <c r="AB27" s="189"/>
+      <c r="AC27" s="181"/>
+      <c r="AD27" s="182"/>
+      <c r="AE27" s="183"/>
       <c r="AF27" s="122"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="122"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="211"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="212"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="196"/>
-      <c r="AE28" s="194"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="188"/>
+      <c r="U28" s="188"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="188"/>
+      <c r="Z28" s="188"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="189"/>
+      <c r="AC28" s="181"/>
+      <c r="AD28" s="182"/>
+      <c r="AE28" s="183"/>
       <c r="AF28" s="122"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="122"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="211"/>
-      <c r="Q29" s="211"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="211"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="211"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="211"/>
-      <c r="AB29" s="212"/>
-      <c r="AC29" s="193"/>
-      <c r="AD29" s="196"/>
-      <c r="AE29" s="194"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="188"/>
+      <c r="T29" s="188"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="189"/>
+      <c r="AC29" s="181"/>
+      <c r="AD29" s="182"/>
+      <c r="AE29" s="183"/>
       <c r="AF29" s="122"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="122"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="211"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="211"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="211"/>
-      <c r="AB30" s="212"/>
-      <c r="AC30" s="193"/>
-      <c r="AD30" s="196"/>
-      <c r="AE30" s="194"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="188"/>
+      <c r="O30" s="188"/>
+      <c r="P30" s="188"/>
+      <c r="Q30" s="188"/>
+      <c r="R30" s="188"/>
+      <c r="S30" s="188"/>
+      <c r="T30" s="188"/>
+      <c r="U30" s="188"/>
+      <c r="V30" s="188"/>
+      <c r="W30" s="188"/>
+      <c r="X30" s="188"/>
+      <c r="Y30" s="188"/>
+      <c r="Z30" s="188"/>
+      <c r="AA30" s="188"/>
+      <c r="AB30" s="189"/>
+      <c r="AC30" s="181"/>
+      <c r="AD30" s="182"/>
+      <c r="AE30" s="183"/>
       <c r="AF30" s="122"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="122"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="211"/>
-      <c r="AB31" s="212"/>
-      <c r="AC31" s="193"/>
-      <c r="AD31" s="196"/>
-      <c r="AE31" s="194"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="188"/>
+      <c r="O31" s="188"/>
+      <c r="P31" s="188"/>
+      <c r="Q31" s="188"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="188"/>
+      <c r="T31" s="188"/>
+      <c r="U31" s="188"/>
+      <c r="V31" s="188"/>
+      <c r="W31" s="188"/>
+      <c r="X31" s="188"/>
+      <c r="Y31" s="188"/>
+      <c r="Z31" s="188"/>
+      <c r="AA31" s="188"/>
+      <c r="AB31" s="189"/>
+      <c r="AC31" s="181"/>
+      <c r="AD31" s="182"/>
+      <c r="AE31" s="183"/>
       <c r="AF31" s="122"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="122"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="211"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
-      <c r="W32" s="211"/>
-      <c r="X32" s="211"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="211"/>
-      <c r="AA32" s="211"/>
-      <c r="AB32" s="212"/>
-      <c r="AC32" s="193"/>
-      <c r="AD32" s="196"/>
-      <c r="AE32" s="194"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="188"/>
+      <c r="O32" s="188"/>
+      <c r="P32" s="188"/>
+      <c r="Q32" s="188"/>
+      <c r="R32" s="188"/>
+      <c r="S32" s="188"/>
+      <c r="T32" s="188"/>
+      <c r="U32" s="188"/>
+      <c r="V32" s="188"/>
+      <c r="W32" s="188"/>
+      <c r="X32" s="188"/>
+      <c r="Y32" s="188"/>
+      <c r="Z32" s="188"/>
+      <c r="AA32" s="188"/>
+      <c r="AB32" s="189"/>
+      <c r="AC32" s="181"/>
+      <c r="AD32" s="182"/>
+      <c r="AE32" s="183"/>
       <c r="AF32" s="122"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="122"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="211"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="211"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="211"/>
-      <c r="Y33" s="211"/>
-      <c r="Z33" s="211"/>
-      <c r="AA33" s="211"/>
-      <c r="AB33" s="212"/>
-      <c r="AC33" s="193"/>
-      <c r="AD33" s="196"/>
-      <c r="AE33" s="194"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="188"/>
+      <c r="O33" s="188"/>
+      <c r="P33" s="188"/>
+      <c r="Q33" s="188"/>
+      <c r="R33" s="188"/>
+      <c r="S33" s="188"/>
+      <c r="T33" s="188"/>
+      <c r="U33" s="188"/>
+      <c r="V33" s="188"/>
+      <c r="W33" s="188"/>
+      <c r="X33" s="188"/>
+      <c r="Y33" s="188"/>
+      <c r="Z33" s="188"/>
+      <c r="AA33" s="188"/>
+      <c r="AB33" s="189"/>
+      <c r="AC33" s="181"/>
+      <c r="AD33" s="182"/>
+      <c r="AE33" s="183"/>
       <c r="AF33" s="122"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -8101,51 +8319,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -8157,6 +8330,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8207,10 +8425,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -8229,10 +8447,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -8251,12 +8469,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -8279,42 +8497,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8335,10 +8553,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8359,10 +8577,10 @@
       <c r="B11" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="253" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -8383,10 +8601,10 @@
       <c r="B12" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="257" t="s">
+      <c r="C12" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="258"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="175" t="s">
         <v>182</v>
       </c>
@@ -8429,7 +8647,7 @@
       <c r="B15" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="233"/>
+      <c r="C15" s="234"/>
       <c r="D15" s="65" t="s">
         <v>9</v>
       </c>
@@ -8446,15 +8664,15 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="244" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
+      <c r="C16" s="245"/>
+      <c r="D16" s="246" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="248"/>
       <c r="G16" s="164" t="s">
         <v>286</v>
       </c>
@@ -8494,8 +8712,8 @@
       <c r="C19" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
       <c r="F19" s="232" t="s">
         <v>13</v>
       </c>
@@ -8511,15 +8729,15 @@
       <c r="B20" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="259" t="s">
+      <c r="D20" s="275"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="261"/>
+      <c r="G20" s="276"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -8556,12 +8774,12 @@
       <c r="C23" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -8573,21 +8791,31 @@
       <c r="B24" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="236" t="s">
+      <c r="C24" s="246" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
+      <c r="D24" s="247"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="G24" s="238"/>
+      <c r="G24" s="248"/>
       <c r="H24" s="167" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="C24:E24"/>
@@ -8598,16 +8826,6 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8656,10 +8874,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -8678,10 +8896,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -8700,12 +8918,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -8728,42 +8946,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8784,10 +9002,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8808,10 +9026,10 @@
       <c r="B11" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="258" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="225"/>
+      <c r="D11" s="259"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -8832,10 +9050,10 @@
       <c r="B12" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="258" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="168" t="s">
         <v>230</v>
       </c>
@@ -8856,10 +9074,10 @@
       <c r="B13" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="260" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="231"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="147" t="s">
         <v>231</v>
       </c>
@@ -8902,7 +9120,7 @@
       <c r="B16" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="233"/>
+      <c r="C16" s="234"/>
       <c r="D16" s="65" t="s">
         <v>9</v>
       </c>
@@ -8919,15 +9137,15 @@
       <c r="A17" s="163">
         <v>1</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236" t="s">
+      <c r="C17" s="245"/>
+      <c r="D17" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="248"/>
       <c r="G17" s="164" t="s">
         <v>286</v>
       </c>
@@ -8967,8 +9185,8 @@
       <c r="C20" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="239"/>
-      <c r="E20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
       <c r="F20" s="232" t="s">
         <v>13</v>
       </c>
@@ -8984,15 +9202,15 @@
       <c r="B21" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="259" t="s">
+      <c r="C21" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="260"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="259" t="s">
+      <c r="D21" s="275"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="261"/>
+      <c r="G21" s="276"/>
       <c r="H21" s="137" t="s">
         <v>74</v>
       </c>
@@ -9029,12 +9247,12 @@
       <c r="C24" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="239"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="226" t="s">
+      <c r="D24" s="233"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="246"/>
+      <c r="G24" s="236"/>
       <c r="H24" s="60" t="s">
         <v>17</v>
       </c>
@@ -9046,27 +9264,27 @@
       <c r="B25" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="236" t="s">
+      <c r="C25" s="246" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="236" t="s">
+      <c r="D25" s="247"/>
+      <c r="E25" s="248"/>
+      <c r="F25" s="246" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="238"/>
+      <c r="G25" s="248"/>
       <c r="H25" s="167" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="C10:D10"/>
@@ -9076,12 +9294,12 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9130,10 +9348,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -9152,10 +9370,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -9174,12 +9392,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -9202,42 +9420,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -9258,10 +9476,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9282,10 +9500,10 @@
       <c r="B11" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="258" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="225"/>
+      <c r="D11" s="259"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -9306,10 +9524,10 @@
       <c r="B12" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="260" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="231"/>
+      <c r="D12" s="261"/>
       <c r="E12" s="170" t="s">
         <v>64</v>
       </c>
@@ -9352,7 +9570,7 @@
       <c r="B15" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="233"/>
+      <c r="C15" s="234"/>
       <c r="D15" s="65" t="s">
         <v>9</v>
       </c>
@@ -9369,15 +9587,15 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="244" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
+      <c r="C16" s="245"/>
+      <c r="D16" s="246" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="248"/>
       <c r="G16" s="164" t="s">
         <v>286</v>
       </c>
@@ -9417,8 +9635,8 @@
       <c r="C19" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
       <c r="F19" s="232" t="s">
         <v>13</v>
       </c>
@@ -9434,15 +9652,15 @@
       <c r="B20" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="259" t="s">
+      <c r="D20" s="275"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="261"/>
+      <c r="G20" s="276"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -9479,12 +9697,12 @@
       <c r="C23" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -9496,32 +9714,21 @@
       <c r="B24" s="151" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="236" t="s">
+      <c r="C24" s="246" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
+      <c r="D24" s="247"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="246" t="s">
         <v>180</v>
       </c>
-      <c r="G24" s="238"/>
+      <c r="G24" s="248"/>
       <c r="H24" s="167" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -9531,6 +9738,17 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9579,10 +9797,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -9601,10 +9819,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -9623,12 +9841,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -9651,42 +9869,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -9707,10 +9925,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9731,10 +9949,10 @@
       <c r="B11" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="277" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="263"/>
+      <c r="D11" s="278"/>
       <c r="E11" s="27" t="s">
         <v>182</v>
       </c>
@@ -9755,10 +9973,10 @@
       <c r="B12" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="264" t="s">
+      <c r="C12" s="279" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="265"/>
+      <c r="D12" s="280"/>
       <c r="E12" s="35" t="s">
         <v>64</v>
       </c>
@@ -9779,10 +9997,10 @@
       <c r="B13" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="266" t="s">
+      <c r="C13" s="281" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="267"/>
+      <c r="D13" s="282"/>
       <c r="E13" s="156" t="s">
         <v>181</v>
       </c>
@@ -9825,7 +10043,7 @@
       <c r="B16" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="233"/>
+      <c r="C16" s="234"/>
       <c r="D16" s="65" t="s">
         <v>9</v>
       </c>
@@ -9842,15 +10060,15 @@
       <c r="A17" s="163">
         <v>1</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236" t="s">
+      <c r="C17" s="245"/>
+      <c r="D17" s="246" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="248"/>
       <c r="G17" s="164" t="s">
         <v>280</v>
       </c>
@@ -9890,8 +10108,8 @@
       <c r="C20" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="239"/>
-      <c r="E20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
       <c r="F20" s="232" t="s">
         <v>13</v>
       </c>
@@ -9907,15 +10125,15 @@
       <c r="B21" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="241" t="s">
+      <c r="C21" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="242"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="244" t="s">
+      <c r="D21" s="228"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="245"/>
+      <c r="G21" s="231"/>
       <c r="H21" s="137" t="s">
         <v>74</v>
       </c>
@@ -9952,12 +10170,12 @@
       <c r="C24" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="239"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="226" t="s">
+      <c r="D24" s="233"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="246"/>
+      <c r="G24" s="236"/>
       <c r="H24" s="60" t="s">
         <v>17</v>
       </c>
@@ -9969,21 +10187,29 @@
       <c r="B25" s="151" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="236" t="s">
+      <c r="C25" s="246" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="236" t="s">
+      <c r="D25" s="247"/>
+      <c r="E25" s="248"/>
+      <c r="F25" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="238"/>
+      <c r="G25" s="248"/>
       <c r="H25" s="167" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C10:D10"/>
@@ -9997,14 +10223,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10056,109 +10274,109 @@
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="291" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="278"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="293"/>
       <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="276" t="s">
+      <c r="H2" s="291" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="277"/>
-      <c r="J2" s="278"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="293"/>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="285">
+      <c r="L2" s="286">
         <v>43596</v>
       </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="276" t="s">
+      <c r="B3" s="291" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="278"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="293"/>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="276" t="s">
+      <c r="H3" s="291" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="277"/>
-      <c r="J3" s="278"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="293"/>
       <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="286" t="s">
+      <c r="L3" s="287" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="287"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="291" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="278"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="293"/>
       <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="286" t="s">
+      <c r="L4" s="287" t="s">
         <v>219</v>
       </c>
-      <c r="M4" s="286"/>
-      <c r="N4" s="286"/>
-      <c r="O4" s="286"/>
-      <c r="P4" s="286"/>
+      <c r="M4" s="287"/>
+      <c r="N4" s="287"/>
+      <c r="O4" s="287"/>
+      <c r="P4" s="287"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="279" t="s">
+      <c r="B5" s="294" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="281"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="295"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="295"/>
+      <c r="P5" s="296"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
@@ -10206,18 +10424,18 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="284" t="s">
+      <c r="F8" s="285" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="284"/>
-      <c r="N8" s="284"/>
-      <c r="O8" s="284"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
+      <c r="M8" s="285"/>
+      <c r="N8" s="285"/>
+      <c r="O8" s="285"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="21.75" customHeight="1">
@@ -10260,14 +10478,14 @@
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="273" t="s">
+      <c r="B10" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="283" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="283"/>
-      <c r="E10" s="283"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
       <c r="F10" s="13" t="s">
         <v>82</v>
       </c>
@@ -10292,12 +10510,12 @@
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="274"/>
-      <c r="C11" s="282" t="s">
+      <c r="B11" s="289"/>
+      <c r="C11" s="283" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
       <c r="F11" s="13" t="s">
         <v>74</v>
       </c>
@@ -10322,12 +10540,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="274"/>
-      <c r="C12" s="282" t="s">
+      <c r="B12" s="289"/>
+      <c r="C12" s="283" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
       <c r="F12" s="13" t="s">
         <v>74</v>
       </c>
@@ -10352,12 +10570,12 @@
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="274"/>
-      <c r="C13" s="282" t="s">
+      <c r="B13" s="289"/>
+      <c r="C13" s="283" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="284"/>
       <c r="F13" s="13" t="s">
         <v>74</v>
       </c>
@@ -10382,12 +10600,12 @@
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="274"/>
-      <c r="C14" s="282" t="s">
+      <c r="B14" s="289"/>
+      <c r="C14" s="283" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="283"/>
-      <c r="E14" s="283"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
       <c r="F14" s="13" t="s">
         <v>74</v>
       </c>
@@ -10412,12 +10630,12 @@
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="274"/>
-      <c r="C15" s="282" t="s">
+      <c r="B15" s="289"/>
+      <c r="C15" s="283" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="283"/>
-      <c r="E15" s="283"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="284"/>
       <c r="F15" s="13" t="s">
         <v>74</v>
       </c>
@@ -10442,10 +10660,10 @@
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="274"/>
-      <c r="C16" s="282"/>
-      <c r="D16" s="283"/>
-      <c r="E16" s="283"/>
+      <c r="B16" s="289"/>
+      <c r="C16" s="283"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -10460,10 +10678,10 @@
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="274"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="283"/>
+      <c r="B17" s="289"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="284"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -10478,10 +10696,10 @@
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="274"/>
-      <c r="C18" s="282"/>
-      <c r="D18" s="283"/>
-      <c r="E18" s="283"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="284"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -10496,10 +10714,10 @@
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="282"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="283"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="283"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -10514,10 +10732,10 @@
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="274"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="283"/>
-      <c r="E20" s="283"/>
+      <c r="B20" s="289"/>
+      <c r="C20" s="283"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -10532,7 +10750,7 @@
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="274"/>
+      <c r="B21" s="289"/>
       <c r="C21" s="14"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -10550,7 +10768,7 @@
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="274"/>
+      <c r="B22" s="289"/>
       <c r="C22" s="14"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -10568,7 +10786,7 @@
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="274"/>
+      <c r="B23" s="289"/>
       <c r="C23" s="14"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -10586,7 +10804,7 @@
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="274"/>
+      <c r="B24" s="289"/>
       <c r="C24" s="14"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -10604,7 +10822,7 @@
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="274"/>
+      <c r="B25" s="289"/>
       <c r="C25" s="14"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -10622,7 +10840,7 @@
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="274"/>
+      <c r="B26" s="289"/>
       <c r="C26" s="14"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -10640,7 +10858,7 @@
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="274"/>
+      <c r="B27" s="289"/>
       <c r="C27" s="14"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -10658,7 +10876,7 @@
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="274"/>
+      <c r="B28" s="289"/>
       <c r="C28" s="14"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -10676,7 +10894,7 @@
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="274"/>
+      <c r="B29" s="289"/>
       <c r="C29" s="14"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -10694,7 +10912,7 @@
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="274"/>
+      <c r="B30" s="289"/>
       <c r="C30" s="14"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -10712,10 +10930,10 @@
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="274"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="283"/>
-      <c r="E31" s="283"/>
+      <c r="B31" s="289"/>
+      <c r="C31" s="283"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="284"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -10730,10 +10948,10 @@
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="274"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="283"/>
+      <c r="B32" s="289"/>
+      <c r="C32" s="283"/>
+      <c r="D32" s="284"/>
+      <c r="E32" s="284"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -10748,10 +10966,10 @@
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="274"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="283"/>
-      <c r="E33" s="283"/>
+      <c r="B33" s="289"/>
+      <c r="C33" s="283"/>
+      <c r="D33" s="284"/>
+      <c r="E33" s="284"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -10766,10 +10984,10 @@
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="274"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="283"/>
-      <c r="E34" s="283"/>
+      <c r="B34" s="289"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -10784,10 +11002,10 @@
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="275"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="283"/>
-      <c r="E35" s="283"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="283"/>
+      <c r="D35" s="284"/>
+      <c r="E35" s="284"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -10838,19 +11056,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B10:B35"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
@@ -10867,6 +11072,19 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10881,8 +11099,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -10907,14 +11125,14 @@
       <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="213" t="s">
+      <c r="B2" s="222"/>
+      <c r="C2" s="223" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="98" t="s">
         <v>25</v>
       </c>
@@ -10923,14 +11141,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="213" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="98" t="s">
         <v>26</v>
       </c>
@@ -10939,14 +11157,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="213" t="s">
+      <c r="B4" s="222"/>
+      <c r="C4" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="214"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="98" t="s">
         <v>27</v>
       </c>
@@ -10955,14 +11173,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="222"/>
+      <c r="C5" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="98" t="s">
         <v>28</v>
       </c>
@@ -10971,14 +11189,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="213" t="s">
+      <c r="B6" s="222"/>
+      <c r="C6" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="214"/>
+      <c r="D6" s="224"/>
       <c r="E6" s="98" t="s">
         <v>29</v>
       </c>
@@ -11017,10 +11235,10 @@
       <c r="D9" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="222"/>
+      <c r="F9" s="220"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="23">
@@ -11035,10 +11253,10 @@
       <c r="D10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="219" t="s">
+      <c r="E10" s="217" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="218"/>
     </row>
     <row r="11" spans="1:6" ht="33.5" customHeight="1">
       <c r="A11" s="23">
@@ -11053,10 +11271,10 @@
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="219" t="s">
+      <c r="E11" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="220"/>
+      <c r="F11" s="218"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="23">
@@ -11071,10 +11289,10 @@
       <c r="D12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="219" t="s">
+      <c r="E12" s="217" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="220"/>
+      <c r="F12" s="218"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="23">
@@ -11089,10 +11307,10 @@
       <c r="D13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="219" t="s">
+      <c r="E13" s="217" t="s">
         <v>259</v>
       </c>
-      <c r="F13" s="220"/>
+      <c r="F13" s="218"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="23">
@@ -11107,10 +11325,10 @@
       <c r="D14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="220"/>
+      <c r="F14" s="218"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="23">
@@ -11125,10 +11343,10 @@
       <c r="D15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="219" t="s">
+      <c r="E15" s="217" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="220"/>
+      <c r="F15" s="218"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="23">
@@ -11143,10 +11361,10 @@
       <c r="D16" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="219" t="s">
+      <c r="E16" s="217" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="220"/>
+      <c r="F16" s="218"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="23">
@@ -11161,10 +11379,10 @@
       <c r="D17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="219" t="s">
+      <c r="E17" s="217" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="220"/>
+      <c r="F17" s="218"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="23">
@@ -11179,10 +11397,10 @@
       <c r="D18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="219" t="s">
+      <c r="E18" s="217" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="220"/>
+      <c r="F18" s="218"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
       <c r="A19" s="23">
@@ -11197,10 +11415,10 @@
       <c r="D19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="219" t="s">
+      <c r="E19" s="217" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="220"/>
+      <c r="F19" s="218"/>
     </row>
     <row r="20" spans="1:6" ht="33.75" customHeight="1">
       <c r="A20" s="23">
@@ -11215,10 +11433,10 @@
       <c r="D20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="219" t="s">
+      <c r="E20" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="220"/>
+      <c r="F20" s="218"/>
     </row>
     <row r="21" spans="1:6" ht="29.25" customHeight="1">
       <c r="A21" s="91" t="s">
@@ -11760,6 +11978,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
@@ -11772,16 +12000,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11829,10 +12047,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -11851,10 +12069,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -11873,12 +12091,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -11901,42 +12119,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -11957,10 +12175,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -11981,10 +12199,10 @@
       <c r="B11" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="251" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="258"/>
+      <c r="D11" s="252"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -12005,10 +12223,10 @@
       <c r="B12" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="257" t="s">
+      <c r="C12" s="251" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="258"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="82" t="s">
         <v>182</v>
       </c>
@@ -12029,10 +12247,10 @@
       <c r="B13" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="228" t="s">
+      <c r="C13" s="253" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="229"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="82" t="s">
         <v>75</v>
       </c>
@@ -12053,17 +12271,17 @@
       <c r="B14" s="173" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="257" t="s">
+      <c r="C14" s="251" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="258"/>
+      <c r="D14" s="252"/>
       <c r="E14" s="175" t="s">
         <v>182</v>
       </c>
       <c r="F14" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="295" t="s">
+      <c r="G14" s="179" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="149" t="s">
@@ -12099,7 +12317,7 @@
       <c r="B17" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="233"/>
+      <c r="C17" s="234"/>
       <c r="D17" s="65" t="s">
         <v>9</v>
       </c>
@@ -12116,15 +12334,15 @@
       <c r="A18" s="163">
         <v>1</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="244" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236" t="s">
+      <c r="C18" s="245"/>
+      <c r="D18" s="246" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="238"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="248"/>
       <c r="G18" s="164" t="s">
         <v>280</v>
       </c>
@@ -12164,8 +12382,8 @@
       <c r="C21" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
       <c r="F21" s="232" t="s">
         <v>13</v>
       </c>
@@ -12181,15 +12399,15 @@
       <c r="B22" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="247" t="s">
+      <c r="C22" s="241" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="247" t="s">
+      <c r="D22" s="242"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="241" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="249"/>
+      <c r="G22" s="243"/>
       <c r="H22" s="40" t="s">
         <v>203</v>
       </c>
@@ -12201,15 +12419,15 @@
       <c r="B23" s="161" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="250" t="s">
+      <c r="C23" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="250" t="s">
+      <c r="D23" s="238"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="237" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="252"/>
+      <c r="G23" s="239"/>
       <c r="H23" s="152" t="s">
         <v>218</v>
       </c>
@@ -12246,12 +12464,12 @@
       <c r="C26" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="226" t="s">
+      <c r="D26" s="233"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="246"/>
+      <c r="G26" s="236"/>
       <c r="H26" s="60" t="s">
         <v>17</v>
       </c>
@@ -12263,27 +12481,32 @@
       <c r="B27" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244" t="s">
+      <c r="D27" s="228"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="245"/>
+      <c r="G27" s="231"/>
       <c r="H27" s="137" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C22:E22"/>
@@ -12291,17 +12514,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12350,10 +12568,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -12372,10 +12590,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -12394,12 +12612,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -12422,42 +12640,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -12478,10 +12696,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -12502,10 +12720,10 @@
       <c r="B11" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -12526,10 +12744,10 @@
       <c r="B12" s="174" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="258" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="85" t="s">
         <v>182</v>
       </c>
@@ -12550,10 +12768,10 @@
       <c r="B13" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="258" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="259"/>
       <c r="E13" s="77" t="s">
         <v>182</v>
       </c>
@@ -12574,10 +12792,10 @@
       <c r="B14" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="258" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="225"/>
+      <c r="D14" s="259"/>
       <c r="E14" s="77" t="s">
         <v>168</v>
       </c>
@@ -12598,10 +12816,10 @@
       <c r="B15" s="173" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="260" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="231"/>
+      <c r="D15" s="261"/>
       <c r="E15" s="147" t="s">
         <v>196</v>
       </c>
@@ -12644,7 +12862,7 @@
       <c r="B18" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="233"/>
+      <c r="C18" s="234"/>
       <c r="D18" s="65" t="s">
         <v>9</v>
       </c>
@@ -12661,15 +12879,15 @@
       <c r="A19" s="163">
         <v>1</v>
       </c>
-      <c r="B19" s="234" t="s">
+      <c r="B19" s="244" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="236" t="s">
+      <c r="C19" s="245"/>
+      <c r="D19" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="238"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="248"/>
       <c r="G19" s="164" t="s">
         <v>286</v>
       </c>
@@ -12709,8 +12927,8 @@
       <c r="C22" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="239"/>
-      <c r="E22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
       <c r="F22" s="232" t="s">
         <v>13</v>
       </c>
@@ -12726,15 +12944,15 @@
       <c r="B23" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="247" t="s">
+      <c r="C23" s="241" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="248"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="247" t="s">
+      <c r="D23" s="242"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="241" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="249"/>
+      <c r="G23" s="243"/>
       <c r="H23" s="40" t="s">
         <v>208</v>
       </c>
@@ -12746,15 +12964,15 @@
       <c r="B24" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="268" t="s">
+      <c r="C24" s="255" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="270"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="268" t="s">
+      <c r="D24" s="256"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="255" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="269"/>
+      <c r="G24" s="257"/>
       <c r="H24" s="79" t="s">
         <v>211</v>
       </c>
@@ -12766,15 +12984,15 @@
       <c r="B25" s="161" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="250" t="s">
+      <c r="C25" s="237" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="251"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="250" t="s">
+      <c r="D25" s="238"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="237" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="252"/>
+      <c r="G25" s="239"/>
       <c r="H25" s="152" t="s">
         <v>214</v>
       </c>
@@ -12811,12 +13029,12 @@
       <c r="C28" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="239"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="226" t="s">
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="246"/>
+      <c r="G28" s="236"/>
       <c r="H28" s="60" t="s">
         <v>17</v>
       </c>
@@ -12828,36 +13046,21 @@
       <c r="B29" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="C29" s="236" t="s">
+      <c r="C29" s="246" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="237"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="236" t="s">
+      <c r="D29" s="247"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="G29" s="238"/>
+      <c r="G29" s="248"/>
       <c r="H29" s="167" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -12870,6 +13073,21 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12918,10 +13136,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -12940,10 +13158,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -12962,12 +13180,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -12990,42 +13208,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -13046,10 +13264,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -13070,10 +13288,10 @@
       <c r="B11" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="287" t="s">
+      <c r="C11" s="272" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="288"/>
+      <c r="D11" s="273"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -13094,10 +13312,10 @@
       <c r="B12" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="258" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="28" t="s">
         <v>64</v>
       </c>
@@ -13118,10 +13336,10 @@
       <c r="B13" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="272"/>
+      <c r="D13" s="263"/>
       <c r="E13" s="28" t="s">
         <v>182</v>
       </c>
@@ -13142,10 +13360,10 @@
       <c r="B14" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="258" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="225"/>
+      <c r="D14" s="259"/>
       <c r="E14" s="34" t="s">
         <v>64</v>
       </c>
@@ -13166,10 +13384,10 @@
       <c r="B15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="258" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="225"/>
+      <c r="D15" s="259"/>
       <c r="E15" s="43" t="s">
         <v>64</v>
       </c>
@@ -13190,10 +13408,10 @@
       <c r="B16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="224" t="s">
+      <c r="C16" s="258" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="225"/>
+      <c r="D16" s="259"/>
       <c r="E16" s="28" t="s">
         <v>182</v>
       </c>
@@ -13214,10 +13432,10 @@
       <c r="B17" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="289" t="s">
+      <c r="C17" s="268" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="290"/>
+      <c r="D17" s="269"/>
       <c r="E17" s="43" t="s">
         <v>168</v>
       </c>
@@ -13238,10 +13456,10 @@
       <c r="B18" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="291" t="s">
+      <c r="C18" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="292"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="157" t="s">
         <v>168</v>
       </c>
@@ -13284,7 +13502,7 @@
       <c r="B21" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="233"/>
+      <c r="C21" s="234"/>
       <c r="D21" s="65" t="s">
         <v>9</v>
       </c>
@@ -13301,15 +13519,15 @@
       <c r="A22" s="80">
         <v>1</v>
       </c>
-      <c r="B22" s="253" t="s">
+      <c r="B22" s="264" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="254"/>
-      <c r="D22" s="247" t="s">
+      <c r="C22" s="265"/>
+      <c r="D22" s="241" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="248"/>
-      <c r="F22" s="249"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="243"/>
       <c r="G22" s="83" t="s">
         <v>280</v>
       </c>
@@ -13321,15 +13539,15 @@
       <c r="A23" s="145">
         <v>2</v>
       </c>
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="266" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="250" t="s">
+      <c r="C23" s="267"/>
+      <c r="D23" s="237" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="251"/>
-      <c r="F23" s="252"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="239"/>
       <c r="G23" s="148" t="s">
         <v>286</v>
       </c>
@@ -13369,8 +13587,8 @@
       <c r="C26" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
-      <c r="E26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="234"/>
       <c r="F26" s="232" t="s">
         <v>13</v>
       </c>
@@ -13386,35 +13604,35 @@
       <c r="B27" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C27" s="247" t="s">
+      <c r="C27" s="241" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="248"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="247" t="s">
+      <c r="D27" s="242"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="241" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="249"/>
+      <c r="G27" s="243"/>
       <c r="H27" s="40" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="293">
+      <c r="A28" s="177">
         <v>2</v>
       </c>
-      <c r="B28" s="294" t="s">
+      <c r="B28" s="178" t="s">
         <v>300</v>
       </c>
-      <c r="C28" s="250" t="s">
+      <c r="C28" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="250" t="s">
+      <c r="D28" s="238"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="252"/>
+      <c r="G28" s="239"/>
       <c r="H28" s="152" t="s">
         <v>171</v>
       </c>
@@ -13451,12 +13669,12 @@
       <c r="C31" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="239"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="226" t="s">
+      <c r="D31" s="233"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="246"/>
+      <c r="G31" s="236"/>
       <c r="H31" s="60" t="s">
         <v>17</v>
       </c>
@@ -13468,21 +13686,35 @@
       <c r="B32" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="236" t="s">
+      <c r="C32" s="246" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="237"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="236" t="s">
+      <c r="D32" s="247"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="246" t="s">
         <v>301</v>
       </c>
-      <c r="G32" s="238"/>
+      <c r="G32" s="248"/>
       <c r="H32" s="167" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="C31:E31"/>
@@ -13499,20 +13731,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13561,10 +13779,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -13583,10 +13801,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -13605,12 +13823,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -13633,42 +13851,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -13689,10 +13907,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -13713,10 +13931,10 @@
       <c r="B11" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="253" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -13737,10 +13955,10 @@
       <c r="B12" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="258" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="82" t="s">
         <v>64</v>
       </c>
@@ -13761,10 +13979,10 @@
       <c r="B13" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="258" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="259"/>
       <c r="E13" s="82" t="s">
         <v>64</v>
       </c>
@@ -13785,10 +14003,10 @@
       <c r="B14" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="258" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="225"/>
+      <c r="D14" s="259"/>
       <c r="E14" s="82" t="s">
         <v>140</v>
       </c>
@@ -13809,10 +14027,10 @@
       <c r="B15" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="258" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="225"/>
+      <c r="D15" s="259"/>
       <c r="E15" s="82" t="s">
         <v>220</v>
       </c>
@@ -13833,10 +14051,10 @@
       <c r="B16" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="230" t="s">
+      <c r="C16" s="260" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="231"/>
+      <c r="D16" s="261"/>
       <c r="E16" s="147" t="s">
         <v>64</v>
       </c>
@@ -13879,7 +14097,7 @@
       <c r="B19" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="233"/>
+      <c r="C19" s="234"/>
       <c r="D19" s="65" t="s">
         <v>9</v>
       </c>
@@ -13896,15 +14114,15 @@
       <c r="A20" s="163">
         <v>1</v>
       </c>
-      <c r="B20" s="234" t="s">
+      <c r="B20" s="244" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="235"/>
-      <c r="D20" s="236" t="s">
+      <c r="C20" s="245"/>
+      <c r="D20" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="237"/>
-      <c r="F20" s="238"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="248"/>
       <c r="G20" s="164" t="s">
         <v>280</v>
       </c>
@@ -13944,8 +14162,8 @@
       <c r="C23" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
       <c r="F23" s="232" t="s">
         <v>13</v>
       </c>
@@ -13961,15 +14179,15 @@
       <c r="B24" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="241" t="s">
+      <c r="C24" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="242"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="244" t="s">
+      <c r="D24" s="228"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="245"/>
+      <c r="G24" s="231"/>
       <c r="H24" s="137" t="s">
         <v>74</v>
       </c>
@@ -14006,12 +14224,12 @@
       <c r="C27" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="239"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="226" t="s">
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="246"/>
+      <c r="G27" s="236"/>
       <c r="H27" s="60" t="s">
         <v>17</v>
       </c>
@@ -14023,21 +14241,35 @@
       <c r="B28" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="236" t="s">
+      <c r="C28" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="237"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="236" t="s">
+      <c r="D28" s="247"/>
+      <c r="E28" s="248"/>
+      <c r="F28" s="246" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="238"/>
+      <c r="G28" s="248"/>
       <c r="H28" s="167" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="C28:E28"/>
@@ -14048,20 +14280,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14074,10 +14292,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -14108,10 +14326,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -14130,10 +14348,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -14152,12 +14370,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -14180,42 +14398,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14236,10 +14454,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -14260,10 +14478,10 @@
       <c r="B11" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="253" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -14284,10 +14502,10 @@
       <c r="B12" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="82" t="s">
         <v>182</v>
       </c>
@@ -14305,13 +14523,13 @@
       <c r="A13" s="145">
         <v>3</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="180" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="260" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="231"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="147" t="s">
         <v>182</v>
       </c>
@@ -14326,258 +14544,283 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="53" t="s">
+      <c r="A14" s="145">
+        <v>4</v>
+      </c>
+      <c r="B14" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="260" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="261"/>
+      <c r="E14" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="149" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A16" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="64" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A17" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B17" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="65" t="s">
+      <c r="C17" s="234"/>
+      <c r="D17" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H17" s="69" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="80">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="80">
         <v>1</v>
       </c>
-      <c r="B17" s="253" t="s">
+      <c r="B18" s="264" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="247" t="s">
+      <c r="C18" s="265"/>
+      <c r="D18" s="241" t="s">
         <v>268</v>
       </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="83" t="s">
+      <c r="E18" s="242"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H18" s="84" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="145">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="145">
         <v>2</v>
       </c>
-      <c r="B18" s="255" t="s">
+      <c r="B19" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="250" t="s">
+      <c r="C19" s="267"/>
+      <c r="D19" s="237" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="148" t="s">
+      <c r="E19" s="238"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="H18" s="149" t="s">
+      <c r="H19" s="149" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A21" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="64" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A22" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B22" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C22" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="232" t="s">
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="240"/>
-      <c r="H21" s="69" t="s">
+      <c r="G22" s="240"/>
+      <c r="H22" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="38">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="38">
         <v>1</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B23" s="161" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="247" t="s">
+      <c r="C23" s="241" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="247" t="s">
+      <c r="D23" s="242"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="241" t="s">
         <v>275</v>
       </c>
-      <c r="G22" s="249"/>
-      <c r="H22" s="40" t="s">
+      <c r="G23" s="243"/>
+      <c r="H23" s="40" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="150">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="150">
         <v>2</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B24" s="160" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="250" t="s">
+      <c r="C24" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="250" t="s">
+      <c r="D24" s="238"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="237" t="s">
         <v>277</v>
       </c>
-      <c r="G23" s="252"/>
-      <c r="H23" s="152" t="s">
+      <c r="G24" s="239"/>
+      <c r="H24" s="152" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A26" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="58" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A27" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B27" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C27" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="226" t="s">
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="246"/>
-      <c r="H26" s="60" t="s">
+      <c r="G27" s="236"/>
+      <c r="H27" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="153">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A28" s="153">
         <v>1</v>
       </c>
-      <c r="B27" s="142" t="s">
+      <c r="B28" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="241" t="s">
+      <c r="C28" s="227" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244" t="s">
+      <c r="D28" s="228"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="230" t="s">
         <v>294</v>
       </c>
-      <c r="G27" s="245"/>
-      <c r="H27" s="137" t="s">
+      <c r="G28" s="231"/>
+      <c r="H28" s="137" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14624,10 +14867,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -14646,10 +14889,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -14668,12 +14911,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -14696,42 +14939,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14752,10 +14995,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -14776,10 +15019,10 @@
       <c r="B11" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="253" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -14800,10 +15043,10 @@
       <c r="B12" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="258" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="82" t="s">
         <v>182</v>
       </c>
@@ -14824,10 +15067,10 @@
       <c r="B13" s="162" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="260" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="231"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="147" t="s">
         <v>239</v>
       </c>
@@ -14870,7 +15113,7 @@
       <c r="B16" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="233"/>
+      <c r="C16" s="234"/>
       <c r="D16" s="65" t="s">
         <v>9</v>
       </c>
@@ -14887,15 +15130,15 @@
       <c r="A17" s="80">
         <v>1</v>
       </c>
-      <c r="B17" s="253" t="s">
+      <c r="B17" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="247" t="s">
+      <c r="C17" s="265"/>
+      <c r="D17" s="241" t="s">
         <v>236</v>
       </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="249"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="243"/>
       <c r="G17" s="83" t="s">
         <v>286</v>
       </c>
@@ -14907,15 +15150,15 @@
       <c r="A18" s="145">
         <v>2</v>
       </c>
-      <c r="B18" s="255" t="s">
+      <c r="B18" s="266" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="250" t="s">
+      <c r="C18" s="267"/>
+      <c r="D18" s="237" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="239"/>
       <c r="G18" s="148" t="s">
         <v>286</v>
       </c>
@@ -14955,8 +15198,8 @@
       <c r="C21" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
       <c r="F21" s="232" t="s">
         <v>13</v>
       </c>
@@ -14972,15 +15215,15 @@
       <c r="B22" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="236" t="s">
+      <c r="C22" s="246" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="237"/>
-      <c r="E22" s="238"/>
-      <c r="F22" s="236" t="s">
+      <c r="D22" s="247"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="246" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="238"/>
+      <c r="G22" s="248"/>
       <c r="H22" s="167" t="s">
         <v>247</v>
       </c>
@@ -15017,12 +15260,12 @@
       <c r="C25" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="239"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="226" t="s">
+      <c r="D25" s="233"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="246"/>
+      <c r="G25" s="236"/>
       <c r="H25" s="60" t="s">
         <v>17</v>
       </c>
@@ -15034,36 +15277,21 @@
       <c r="B26" s="151" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="236" t="s">
+      <c r="C26" s="246" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="237"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="236" t="s">
+      <c r="D26" s="247"/>
+      <c r="E26" s="248"/>
+      <c r="F26" s="246" t="s">
         <v>293</v>
       </c>
-      <c r="G26" s="238"/>
+      <c r="G26" s="248"/>
       <c r="H26" s="167" t="s">
         <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C26:E26"/>
@@ -15072,6 +15300,21 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15120,10 +15363,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -15142,10 +15385,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
@@ -15164,12 +15407,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -15192,42 +15435,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="223" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="223" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="223" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -15248,10 +15491,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -15272,10 +15515,10 @@
       <c r="B11" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="258" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="225"/>
+      <c r="D11" s="259"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -15296,10 +15539,10 @@
       <c r="B12" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="231"/>
+      <c r="D12" s="261"/>
       <c r="E12" s="170" t="s">
         <v>64</v>
       </c>
@@ -15342,7 +15585,7 @@
       <c r="B15" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="233"/>
+      <c r="C15" s="234"/>
       <c r="D15" s="65" t="s">
         <v>9</v>
       </c>
@@ -15359,15 +15602,15 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="244" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
+      <c r="C16" s="245"/>
+      <c r="D16" s="246" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="248"/>
       <c r="G16" s="164" t="s">
         <v>286</v>
       </c>
@@ -15407,8 +15650,8 @@
       <c r="C19" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
       <c r="F19" s="232" t="s">
         <v>13</v>
       </c>
@@ -15424,15 +15667,15 @@
       <c r="B20" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="241" t="s">
+      <c r="C20" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="242"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="244" t="s">
+      <c r="D20" s="228"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="245"/>
+      <c r="G20" s="231"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -15469,12 +15712,12 @@
       <c r="C23" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -15486,21 +15729,32 @@
       <c r="B24" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="236" t="s">
+      <c r="C24" s="246" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
+      <c r="D24" s="247"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="246" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="238"/>
+      <c r="G24" s="248"/>
       <c r="H24" s="167" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -15510,17 +15764,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/設計書/DB設計書/映画予約システム　DB設計書.xlsx
+++ b/設計書/DB設計書/映画予約システム　DB設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/practice/設計書/DB設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\ntmc\設計書\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{B2CE8741-7180-5845-9DDB-EACE84230DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885D369-02E1-47D1-9F70-4CC748372323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -35,18 +35,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">スクリーン!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">ユーザー!$A$1:$H$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">映画!$A$1:$H$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">映画一覧!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">映画一覧!$A$1:$H$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">映画館!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">管理者!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">上映時間!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">予約!$A$1:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">予約!$A$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">予約明細!$A$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">料金!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="313">
   <si>
     <t>No</t>
   </si>
@@ -1255,10 +1254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリーンID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上映時間ID</t>
     <rPh sb="0" eb="2">
       <t>ジョウエイ</t>
@@ -1280,10 +1275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>appoint_screen_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1380,18 +1371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリーンID (appoint_screen_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーン (screen)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンID (screen_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上映時間ID (appoint_movie_time_id)</t>
     <rPh sb="0" eb="2">
       <t>ジョウエイ</t>
@@ -1648,10 +1627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリーンID (appoint_screen_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1865,10 +1840,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約（appoint）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予約(appoint)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1937,6 +1908,55 @@
   </si>
   <si>
     <t>PK1 , AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンID（movie_screen_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_screen_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK2</t>
+  </si>
+  <si>
+    <t>FK3</t>
+  </si>
+  <si>
+    <t>FK1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーン(screeen)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンID(screen_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画(movie）</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンID (movie_screen_id)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2145,7 +2165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2963,6 +2983,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3028,7 +3059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3508,6 +3539,15 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3649,91 +3689,124 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3748,10 +3821,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3781,21 +3854,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3838,31 +3896,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3933,8 +3976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7895134" y="14700772"/>
-          <a:ext cx="1916256" cy="2730018"/>
+          <a:off x="7888861" y="14180501"/>
+          <a:ext cx="1916256" cy="2508088"/>
           <a:chOff x="6538821" y="8360361"/>
           <a:chExt cx="1924196" cy="2204726"/>
         </a:xfrm>
@@ -4105,8 +4148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="189666" y="8435411"/>
-          <a:ext cx="1942771" cy="1906108"/>
+          <a:off x="189666" y="8390706"/>
+          <a:ext cx="1938894" cy="1763438"/>
           <a:chOff x="3418192" y="10011386"/>
           <a:chExt cx="1661809" cy="2134678"/>
         </a:xfrm>
@@ -4237,8 +4280,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2262643</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>160575</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4253,8 +4296,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4448284" y="12009162"/>
-          <a:ext cx="1843325" cy="1639689"/>
+          <a:off x="4447599" y="11694970"/>
+          <a:ext cx="1843325" cy="1640030"/>
           <a:chOff x="3418192" y="10011385"/>
           <a:chExt cx="1661809" cy="2318156"/>
         </a:xfrm>
@@ -4388,6 +4431,22 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+              <a:t>＊スクリーン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>    </a:t>
             </a:r>
@@ -4424,8 +4483,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4556447" y="14423208"/>
-          <a:ext cx="1735162" cy="2495528"/>
+          <a:off x="4555762" y="13918789"/>
+          <a:ext cx="1735162" cy="2305302"/>
           <a:chOff x="3418190" y="10011382"/>
           <a:chExt cx="1661811" cy="2379718"/>
         </a:xfrm>
@@ -4541,17 +4600,6 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>    ＊スクリーン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>ID</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>    ＊予約日付</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4576,8 +4624,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1340981</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>160575</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -4601,8 +4649,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5369947" y="13648851"/>
-          <a:ext cx="54080" cy="774357"/>
+          <a:off x="5369262" y="13335000"/>
+          <a:ext cx="54080" cy="583789"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4766,8 +4814,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4371792" y="18643751"/>
-          <a:ext cx="1810457" cy="2080409"/>
+          <a:off x="4371107" y="17806436"/>
+          <a:ext cx="1810457" cy="1921888"/>
           <a:chOff x="3418190" y="10011383"/>
           <a:chExt cx="1661811" cy="2134681"/>
         </a:xfrm>
@@ -4993,8 +5041,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8823513" y="8712066"/>
-          <a:ext cx="1965828" cy="1323411"/>
+          <a:off x="8817240" y="8651509"/>
+          <a:ext cx="1965828" cy="1212445"/>
           <a:chOff x="3418191" y="10011386"/>
           <a:chExt cx="1661810" cy="1136009"/>
         </a:xfrm>
@@ -5138,8 +5186,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7966867" y="11751011"/>
-          <a:ext cx="1971984" cy="1837108"/>
+          <a:off x="7960594" y="11452670"/>
+          <a:ext cx="1971984" cy="1694439"/>
           <a:chOff x="3418191" y="10011386"/>
           <a:chExt cx="1661810" cy="1136009"/>
         </a:xfrm>
@@ -5347,8 +5395,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="180111" y="18950086"/>
-          <a:ext cx="1973394" cy="1337276"/>
+          <a:off x="180111" y="18096919"/>
+          <a:ext cx="1969517" cy="1226310"/>
           <a:chOff x="3418191" y="10011388"/>
           <a:chExt cx="1661810" cy="1136007"/>
         </a:xfrm>
@@ -5527,13 +5575,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2262643</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>101958</xdr:rowOff>
+      <xdr:rowOff>130526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>668017</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>133048</xdr:rowOff>
+      <xdr:rowOff>181421</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5550,9 +5598,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6291609" y="12977130"/>
-          <a:ext cx="1675259" cy="31090"/>
+        <a:xfrm flipH="1">
+          <a:off x="6290924" y="12612245"/>
+          <a:ext cx="1669671" cy="50895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5604,8 +5652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="256548" y="12986287"/>
-          <a:ext cx="1794728" cy="1414713"/>
+          <a:off x="256548" y="12592834"/>
+          <a:ext cx="1792219" cy="1303747"/>
           <a:chOff x="3418190" y="10011382"/>
           <a:chExt cx="1661811" cy="1266137"/>
         </a:xfrm>
@@ -5745,8 +5793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="239402" y="15217191"/>
-          <a:ext cx="1794728" cy="1682568"/>
+          <a:off x="239402" y="14649364"/>
+          <a:ext cx="1792219" cy="1555750"/>
           <a:chOff x="3418190" y="10011382"/>
           <a:chExt cx="1661811" cy="1470492"/>
         </a:xfrm>
@@ -5931,14 +5979,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1654590</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>154257</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>181421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>527483</xdr:colOff>
+      <xdr:colOff>419318</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>153036</xdr:rowOff>
+      <xdr:rowOff>150828</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5951,13 +5999,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="67" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2034130" y="15890579"/>
-          <a:ext cx="2522319" cy="407514"/>
+          <a:off x="2031621" y="12663140"/>
+          <a:ext cx="2415978" cy="2985657"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6009,8 +6057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4364713" y="7561611"/>
-          <a:ext cx="2029080" cy="3430460"/>
+          <a:off x="4364028" y="7580315"/>
+          <a:ext cx="2035011" cy="3176825"/>
           <a:chOff x="3418192" y="10011385"/>
           <a:chExt cx="1661809" cy="2318156"/>
         </a:xfrm>
@@ -6203,7 +6251,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1350287</xdr:colOff>
+      <xdr:colOff>1353253</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>155829</xdr:rowOff>
     </xdr:to>
@@ -6223,8 +6271,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5369946" y="10992071"/>
-          <a:ext cx="9307" cy="1017091"/>
+          <a:off x="5369261" y="10757140"/>
+          <a:ext cx="12273" cy="937830"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6549,7 +6597,7 @@
       <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1640625" style="113" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" style="134" customWidth="1"/>
@@ -6981,21 +7029,21 @@
       <c r="R3" s="122"/>
       <c r="S3" s="122"/>
       <c r="T3" s="122"/>
-      <c r="U3" s="193" t="s">
+      <c r="U3" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="194"/>
-      <c r="W3" s="195">
+      <c r="V3" s="197"/>
+      <c r="W3" s="198">
         <v>43596</v>
       </c>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="194"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="197"/>
       <c r="AF3" s="122"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -7108,20 +7156,20 @@
       <c r="C7" s="126"/>
       <c r="D7" s="126"/>
       <c r="E7" s="127"/>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="180"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="183"/>
       <c r="R7" s="122"/>
       <c r="S7" s="122"/>
       <c r="T7" s="122"/>
@@ -7139,86 +7187,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="122"/>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="187" t="s">
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="189"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="192"/>
       <c r="R8" s="122"/>
       <c r="S8" s="122"/>
       <c r="T8" s="122"/>
       <c r="U8" s="122"/>
       <c r="V8" s="122"/>
-      <c r="W8" s="177" t="s">
+      <c r="W8" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177" t="s">
+      <c r="X8" s="180"/>
+      <c r="Y8" s="180"/>
+      <c r="Z8" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177" t="s">
+      <c r="AA8" s="180"/>
+      <c r="AB8" s="180"/>
+      <c r="AC8" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="177"/>
+      <c r="AD8" s="180"/>
+      <c r="AE8" s="180"/>
       <c r="AF8" s="122"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="122"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="192"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="195"/>
       <c r="R9" s="122"/>
       <c r="S9" s="122"/>
       <c r="T9" s="122"/>
       <c r="U9" s="122"/>
       <c r="V9" s="122"/>
-      <c r="W9" s="197" t="s">
+      <c r="W9" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="199"/>
-      <c r="Z9" s="197" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="199"/>
-      <c r="AC9" s="197" t="s">
+      <c r="X9" s="201"/>
+      <c r="Y9" s="202"/>
+      <c r="Z9" s="200" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA9" s="201"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="199"/>
+      <c r="AD9" s="201"/>
+      <c r="AE9" s="202"/>
       <c r="AF9" s="122"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -7244,15 +7292,15 @@
       <c r="T10" s="122"/>
       <c r="U10" s="122"/>
       <c r="V10" s="122"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="200"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="202"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="203"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="205"/>
       <c r="AF10" s="122"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -7278,15 +7326,15 @@
       <c r="T11" s="122"/>
       <c r="U11" s="122"/>
       <c r="V11" s="122"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="202"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="202"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="202"/>
+      <c r="W11" s="203"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="205"/>
+      <c r="Z11" s="203"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="205"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="205"/>
       <c r="AF11" s="122"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -7312,15 +7360,15 @@
       <c r="T12" s="129"/>
       <c r="U12" s="129"/>
       <c r="V12" s="129"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="205"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="205"/>
+      <c r="W12" s="206"/>
+      <c r="X12" s="207"/>
+      <c r="Y12" s="208"/>
+      <c r="Z12" s="206"/>
+      <c r="AA12" s="207"/>
+      <c r="AB12" s="208"/>
+      <c r="AC12" s="206"/>
+      <c r="AD12" s="207"/>
+      <c r="AE12" s="208"/>
       <c r="AF12" s="122"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -7419,106 +7467,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="122"/>
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="209" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="206"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="206"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
-      <c r="T16" s="206"/>
-      <c r="U16" s="206"/>
-      <c r="V16" s="206"/>
-      <c r="W16" s="206"/>
-      <c r="X16" s="206"/>
-      <c r="Y16" s="206"/>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="206"/>
-      <c r="AB16" s="206"/>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="206"/>
-      <c r="AE16" s="206"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="209"/>
+      <c r="P16" s="209"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="209"/>
+      <c r="S16" s="209"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="209"/>
+      <c r="V16" s="209"/>
+      <c r="W16" s="209"/>
+      <c r="X16" s="209"/>
+      <c r="Y16" s="209"/>
+      <c r="Z16" s="209"/>
+      <c r="AA16" s="209"/>
+      <c r="AB16" s="209"/>
+      <c r="AC16" s="209"/>
+      <c r="AD16" s="209"/>
+      <c r="AE16" s="209"/>
       <c r="AF16" s="122"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="122"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206"/>
-      <c r="R17" s="206"/>
-      <c r="S17" s="206"/>
-      <c r="T17" s="206"/>
-      <c r="U17" s="206"/>
-      <c r="V17" s="206"/>
-      <c r="W17" s="206"/>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="206"/>
-      <c r="Z17" s="206"/>
-      <c r="AA17" s="206"/>
-      <c r="AB17" s="206"/>
-      <c r="AC17" s="206"/>
-      <c r="AD17" s="206"/>
-      <c r="AE17" s="206"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="209"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="209"/>
+      <c r="P17" s="209"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="209"/>
+      <c r="S17" s="209"/>
+      <c r="T17" s="209"/>
+      <c r="U17" s="209"/>
+      <c r="V17" s="209"/>
+      <c r="W17" s="209"/>
+      <c r="X17" s="209"/>
+      <c r="Y17" s="209"/>
+      <c r="Z17" s="209"/>
+      <c r="AA17" s="209"/>
+      <c r="AB17" s="209"/>
+      <c r="AC17" s="209"/>
+      <c r="AD17" s="209"/>
+      <c r="AE17" s="209"/>
       <c r="AF17" s="122"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="122"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="206"/>
-      <c r="O18" s="206"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="206"/>
-      <c r="R18" s="206"/>
-      <c r="S18" s="206"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="206"/>
-      <c r="V18" s="206"/>
-      <c r="W18" s="206"/>
-      <c r="X18" s="206"/>
-      <c r="Y18" s="206"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="206"/>
-      <c r="AC18" s="206"/>
-      <c r="AD18" s="206"/>
-      <c r="AE18" s="206"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
+      <c r="P18" s="209"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="209"/>
+      <c r="S18" s="209"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="209"/>
+      <c r="V18" s="209"/>
+      <c r="W18" s="209"/>
+      <c r="X18" s="209"/>
+      <c r="Y18" s="209"/>
+      <c r="Z18" s="209"/>
+      <c r="AA18" s="209"/>
+      <c r="AB18" s="209"/>
+      <c r="AC18" s="209"/>
+      <c r="AD18" s="209"/>
+      <c r="AE18" s="209"/>
       <c r="AF18" s="122"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7661,408 +7709,408 @@
     </row>
     <row r="23" spans="1:32" s="133" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="130"/>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="193" t="s">
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="193" t="s">
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
-      <c r="M23" s="196"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="196"/>
-      <c r="P23" s="196"/>
-      <c r="Q23" s="196"/>
-      <c r="R23" s="196"/>
-      <c r="S23" s="196"/>
-      <c r="T23" s="196"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="196"/>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="194"/>
-      <c r="AC23" s="193" t="s">
+      <c r="K23" s="199"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="199"/>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="199"/>
+      <c r="S23" s="199"/>
+      <c r="T23" s="199"/>
+      <c r="U23" s="199"/>
+      <c r="V23" s="199"/>
+      <c r="W23" s="199"/>
+      <c r="X23" s="199"/>
+      <c r="Y23" s="199"/>
+      <c r="Z23" s="199"/>
+      <c r="AA23" s="199"/>
+      <c r="AB23" s="197"/>
+      <c r="AC23" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="194"/>
+      <c r="AD23" s="199"/>
+      <c r="AE23" s="197"/>
       <c r="AF23" s="130"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="122"/>
-      <c r="B24" s="193" t="s">
+      <c r="B24" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="207">
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="210">
         <v>43596</v>
       </c>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="193" t="s">
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="196"/>
-      <c r="L24" s="196"/>
-      <c r="M24" s="196"/>
-      <c r="N24" s="196"/>
-      <c r="O24" s="196"/>
-      <c r="P24" s="196"/>
-      <c r="Q24" s="196"/>
-      <c r="R24" s="196"/>
-      <c r="S24" s="196"/>
-      <c r="T24" s="196"/>
-      <c r="U24" s="196"/>
-      <c r="V24" s="196"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="196"/>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="194"/>
-      <c r="AC24" s="193" t="s">
+      <c r="K24" s="199"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="199"/>
+      <c r="W24" s="199"/>
+      <c r="X24" s="199"/>
+      <c r="Y24" s="199"/>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="197"/>
+      <c r="AC24" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="AD24" s="196"/>
-      <c r="AE24" s="194"/>
+      <c r="AD24" s="199"/>
+      <c r="AE24" s="197"/>
       <c r="AF24" s="122"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="122"/>
-      <c r="B25" s="193" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="207">
+      <c r="B25" s="196" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="210">
         <v>43621</v>
       </c>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="193" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
-      <c r="S25" s="196"/>
-      <c r="T25" s="196"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="196"/>
-      <c r="X25" s="196"/>
-      <c r="Y25" s="196"/>
-      <c r="Z25" s="196"/>
-      <c r="AA25" s="196"/>
-      <c r="AB25" s="194"/>
-      <c r="AC25" s="193" t="s">
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="196" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="199"/>
+      <c r="O25" s="199"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="199"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="199"/>
+      <c r="U25" s="199"/>
+      <c r="V25" s="199"/>
+      <c r="W25" s="199"/>
+      <c r="X25" s="199"/>
+      <c r="Y25" s="199"/>
+      <c r="Z25" s="199"/>
+      <c r="AA25" s="199"/>
+      <c r="AB25" s="197"/>
+      <c r="AC25" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="AD25" s="196"/>
-      <c r="AE25" s="194"/>
+      <c r="AD25" s="199"/>
+      <c r="AE25" s="197"/>
       <c r="AF25" s="122"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="122"/>
-      <c r="B26" s="193" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="207">
+      <c r="B26" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="210">
         <v>43647</v>
       </c>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="193" t="s">
-        <v>264</v>
-      </c>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="196"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="196"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="196"/>
-      <c r="AA26" s="196"/>
-      <c r="AB26" s="194"/>
-      <c r="AC26" s="193" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD26" s="196"/>
-      <c r="AE26" s="194"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="196" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="199"/>
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
+      <c r="T26" s="199"/>
+      <c r="U26" s="199"/>
+      <c r="V26" s="199"/>
+      <c r="W26" s="199"/>
+      <c r="X26" s="199"/>
+      <c r="Y26" s="199"/>
+      <c r="Z26" s="199"/>
+      <c r="AA26" s="199"/>
+      <c r="AB26" s="197"/>
+      <c r="AC26" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD26" s="199"/>
+      <c r="AE26" s="197"/>
       <c r="AF26" s="122"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="122"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="211"/>
-      <c r="W27" s="211"/>
-      <c r="X27" s="211"/>
-      <c r="Y27" s="211"/>
-      <c r="Z27" s="211"/>
-      <c r="AA27" s="211"/>
-      <c r="AB27" s="212"/>
-      <c r="AC27" s="193"/>
-      <c r="AD27" s="196"/>
-      <c r="AE27" s="194"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="214"/>
+      <c r="R27" s="214"/>
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="214"/>
+      <c r="Z27" s="214"/>
+      <c r="AA27" s="214"/>
+      <c r="AB27" s="215"/>
+      <c r="AC27" s="196"/>
+      <c r="AD27" s="199"/>
+      <c r="AE27" s="197"/>
       <c r="AF27" s="122"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="122"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="211"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="212"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="196"/>
-      <c r="AE28" s="194"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="214"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
+      <c r="AB28" s="215"/>
+      <c r="AC28" s="196"/>
+      <c r="AD28" s="199"/>
+      <c r="AE28" s="197"/>
       <c r="AF28" s="122"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="122"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="211"/>
-      <c r="Q29" s="211"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="211"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="211"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="211"/>
-      <c r="AB29" s="212"/>
-      <c r="AC29" s="193"/>
-      <c r="AD29" s="196"/>
-      <c r="AE29" s="194"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="214"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="214"/>
+      <c r="AB29" s="215"/>
+      <c r="AC29" s="196"/>
+      <c r="AD29" s="199"/>
+      <c r="AE29" s="197"/>
       <c r="AF29" s="122"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="122"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="211"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="211"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="211"/>
-      <c r="AB30" s="212"/>
-      <c r="AC30" s="193"/>
-      <c r="AD30" s="196"/>
-      <c r="AE30" s="194"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="214"/>
+      <c r="P30" s="214"/>
+      <c r="Q30" s="214"/>
+      <c r="R30" s="214"/>
+      <c r="S30" s="214"/>
+      <c r="T30" s="214"/>
+      <c r="U30" s="214"/>
+      <c r="V30" s="214"/>
+      <c r="W30" s="214"/>
+      <c r="X30" s="214"/>
+      <c r="Y30" s="214"/>
+      <c r="Z30" s="214"/>
+      <c r="AA30" s="214"/>
+      <c r="AB30" s="215"/>
+      <c r="AC30" s="196"/>
+      <c r="AD30" s="199"/>
+      <c r="AE30" s="197"/>
       <c r="AF30" s="122"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="122"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="211"/>
-      <c r="AB31" s="212"/>
-      <c r="AC31" s="193"/>
-      <c r="AD31" s="196"/>
-      <c r="AE31" s="194"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="214"/>
+      <c r="P31" s="214"/>
+      <c r="Q31" s="214"/>
+      <c r="R31" s="214"/>
+      <c r="S31" s="214"/>
+      <c r="T31" s="214"/>
+      <c r="U31" s="214"/>
+      <c r="V31" s="214"/>
+      <c r="W31" s="214"/>
+      <c r="X31" s="214"/>
+      <c r="Y31" s="214"/>
+      <c r="Z31" s="214"/>
+      <c r="AA31" s="214"/>
+      <c r="AB31" s="215"/>
+      <c r="AC31" s="196"/>
+      <c r="AD31" s="199"/>
+      <c r="AE31" s="197"/>
       <c r="AF31" s="122"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="122"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="211"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
-      <c r="W32" s="211"/>
-      <c r="X32" s="211"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="211"/>
-      <c r="AA32" s="211"/>
-      <c r="AB32" s="212"/>
-      <c r="AC32" s="193"/>
-      <c r="AD32" s="196"/>
-      <c r="AE32" s="194"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="214"/>
+      <c r="T32" s="214"/>
+      <c r="U32" s="214"/>
+      <c r="V32" s="214"/>
+      <c r="W32" s="214"/>
+      <c r="X32" s="214"/>
+      <c r="Y32" s="214"/>
+      <c r="Z32" s="214"/>
+      <c r="AA32" s="214"/>
+      <c r="AB32" s="215"/>
+      <c r="AC32" s="196"/>
+      <c r="AD32" s="199"/>
+      <c r="AE32" s="197"/>
       <c r="AF32" s="122"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="122"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="211"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="211"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="211"/>
-      <c r="Y33" s="211"/>
-      <c r="Z33" s="211"/>
-      <c r="AA33" s="211"/>
-      <c r="AB33" s="212"/>
-      <c r="AC33" s="193"/>
-      <c r="AD33" s="196"/>
-      <c r="AE33" s="194"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="214"/>
+      <c r="P33" s="214"/>
+      <c r="Q33" s="214"/>
+      <c r="R33" s="214"/>
+      <c r="S33" s="214"/>
+      <c r="T33" s="214"/>
+      <c r="U33" s="214"/>
+      <c r="V33" s="214"/>
+      <c r="W33" s="214"/>
+      <c r="X33" s="214"/>
+      <c r="Y33" s="214"/>
+      <c r="Z33" s="214"/>
+      <c r="AA33" s="214"/>
+      <c r="AB33" s="215"/>
+      <c r="AC33" s="196"/>
+      <c r="AD33" s="199"/>
+      <c r="AE33" s="197"/>
       <c r="AF33" s="122"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -8179,7 +8227,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="56" customWidth="1"/>
@@ -8207,10 +8255,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -8229,15 +8277,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -8251,12 +8299,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -8279,42 +8327,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="216" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="216" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8335,10 +8383,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8357,12 +8405,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="229"/>
+        <v>193</v>
+      </c>
+      <c r="C11" s="231" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="232"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -8373,7 +8421,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -8383,10 +8431,10 @@
       <c r="B12" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="257" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="258"/>
+      <c r="C12" s="229" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="230"/>
       <c r="E12" s="175" t="s">
         <v>182</v>
       </c>
@@ -8426,10 +8474,10 @@
       <c r="A15" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="233"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="65" t="s">
         <v>9</v>
       </c>
@@ -8446,20 +8494,20 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="B16" s="240" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="241"/>
+      <c r="D16" s="242" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="243"/>
+      <c r="F16" s="244"/>
       <c r="G16" s="164" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H16" s="165" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -8491,15 +8539,15 @@
       <c r="B19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="232" t="s">
+      <c r="D19" s="234"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="236"/>
       <c r="H19" s="69" t="s">
         <v>14</v>
       </c>
@@ -8511,15 +8559,15 @@
       <c r="B20" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="259" t="s">
+      <c r="D20" s="274"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="261"/>
+      <c r="G20" s="275"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -8553,15 +8601,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="250"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -8571,19 +8619,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="236" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="238"/>
+        <v>279</v>
+      </c>
+      <c r="C24" s="242" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="242" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="244"/>
       <c r="H24" s="167" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8626,7 +8674,7 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="56" customWidth="1"/>
@@ -8656,10 +8704,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -8678,15 +8726,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -8700,17 +8748,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -8728,42 +8776,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="216" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8784,10 +8832,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8806,12 +8854,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="224" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="225"/>
+        <v>191</v>
+      </c>
+      <c r="C11" s="254" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="255"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -8822,7 +8870,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -8830,14 +8878,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="254" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="255"/>
+      <c r="E12" s="168" t="s">
         <v>225</v>
-      </c>
-      <c r="C12" s="224" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="168" t="s">
-        <v>230</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>56</v>
@@ -8854,14 +8902,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="256" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="257"/>
+      <c r="E13" s="147" t="s">
         <v>226</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="147" t="s">
-        <v>231</v>
       </c>
       <c r="F13" s="157" t="s">
         <v>56</v>
@@ -8899,10 +8947,10 @@
       <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="233"/>
+      <c r="C16" s="235"/>
       <c r="D16" s="65" t="s">
         <v>9</v>
       </c>
@@ -8919,20 +8967,20 @@
       <c r="A17" s="163">
         <v>1</v>
       </c>
-      <c r="B17" s="234" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
+      <c r="B17" s="240" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="241"/>
+      <c r="D17" s="242" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="243"/>
+      <c r="F17" s="244"/>
       <c r="G17" s="164" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H17" s="165" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
@@ -8964,15 +9012,15 @@
       <c r="B20" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="239"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="232" t="s">
+      <c r="D20" s="234"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="240"/>
+      <c r="G20" s="236"/>
       <c r="H20" s="69" t="s">
         <v>14</v>
       </c>
@@ -8984,15 +9032,15 @@
       <c r="B21" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="259" t="s">
+      <c r="C21" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="260"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="259" t="s">
+      <c r="D21" s="274"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="261"/>
+      <c r="G21" s="275"/>
       <c r="H21" s="137" t="s">
         <v>74</v>
       </c>
@@ -9026,15 +9074,15 @@
       <c r="B24" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="239"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="226" t="s">
+      <c r="D24" s="234"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="246"/>
+      <c r="G24" s="250"/>
       <c r="H24" s="60" t="s">
         <v>17</v>
       </c>
@@ -9044,19 +9092,19 @@
         <v>1</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="236" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="236" t="s">
-        <v>242</v>
-      </c>
-      <c r="G25" s="238"/>
+        <v>279</v>
+      </c>
+      <c r="C25" s="242" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="242" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" s="244"/>
       <c r="H25" s="167" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -9100,7 +9148,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="27" style="56" customWidth="1"/>
@@ -9130,10 +9178,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -9152,15 +9200,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -9174,17 +9222,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -9202,42 +9250,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="216" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -9258,10 +9306,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9282,10 +9330,10 @@
       <c r="B11" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="254" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="225"/>
+      <c r="D11" s="255"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -9296,7 +9344,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -9306,10 +9354,10 @@
       <c r="B12" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="256" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="231"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="170" t="s">
         <v>64</v>
       </c>
@@ -9349,10 +9397,10 @@
       <c r="A15" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="233"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="65" t="s">
         <v>9</v>
       </c>
@@ -9369,20 +9417,20 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="240" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
+      <c r="C16" s="241"/>
+      <c r="D16" s="242" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="244"/>
       <c r="G16" s="164" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H16" s="171" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -9414,15 +9462,15 @@
       <c r="B19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="232" t="s">
+      <c r="D19" s="234"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="236"/>
       <c r="H19" s="69" t="s">
         <v>14</v>
       </c>
@@ -9434,15 +9482,15 @@
       <c r="B20" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="259" t="s">
+      <c r="D20" s="274"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="261"/>
+      <c r="G20" s="275"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -9476,15 +9524,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="250"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -9494,17 +9542,17 @@
         <v>1</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" s="236" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="242" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="G24" s="238"/>
+      <c r="G24" s="244"/>
       <c r="H24" s="167" t="s">
         <v>174</v>
       </c>
@@ -9549,7 +9597,7 @@
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="56" customWidth="1"/>
@@ -9579,10 +9627,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -9601,15 +9649,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -9623,17 +9671,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -9651,42 +9699,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="216" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -9707,10 +9755,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9731,10 +9779,10 @@
       <c r="B11" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="276" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="263"/>
+      <c r="D11" s="277"/>
       <c r="E11" s="27" t="s">
         <v>182</v>
       </c>
@@ -9745,7 +9793,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -9755,10 +9803,10 @@
       <c r="B12" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="264" t="s">
+      <c r="C12" s="278" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="265"/>
+      <c r="D12" s="279"/>
       <c r="E12" s="35" t="s">
         <v>64</v>
       </c>
@@ -9779,10 +9827,10 @@
       <c r="B13" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="266" t="s">
+      <c r="C13" s="280" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="267"/>
+      <c r="D13" s="281"/>
       <c r="E13" s="156" t="s">
         <v>181</v>
       </c>
@@ -9822,10 +9870,10 @@
       <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="233"/>
+      <c r="C16" s="235"/>
       <c r="D16" s="65" t="s">
         <v>9</v>
       </c>
@@ -9842,17 +9890,17 @@
       <c r="A17" s="163">
         <v>1</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="240" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236" t="s">
+      <c r="C17" s="241"/>
+      <c r="D17" s="242" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="244"/>
       <c r="G17" s="164" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H17" s="165" t="s">
         <v>58</v>
@@ -9887,15 +9935,15 @@
       <c r="B20" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="239"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="232" t="s">
+      <c r="D20" s="234"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="240"/>
+      <c r="G20" s="236"/>
       <c r="H20" s="69" t="s">
         <v>14</v>
       </c>
@@ -9907,15 +9955,15 @@
       <c r="B21" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="241" t="s">
+      <c r="C21" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="242"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="244" t="s">
+      <c r="D21" s="246"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="245"/>
+      <c r="G21" s="249"/>
       <c r="H21" s="137" t="s">
         <v>74</v>
       </c>
@@ -9949,15 +9997,15 @@
       <c r="B24" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="239"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="226" t="s">
+      <c r="D24" s="234"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="246"/>
+      <c r="G24" s="250"/>
       <c r="H24" s="60" t="s">
         <v>17</v>
       </c>
@@ -9967,17 +10015,17 @@
         <v>1</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="236" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="242" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="236" t="s">
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="238"/>
+      <c r="G25" s="244"/>
       <c r="H25" s="167" t="s">
         <v>177</v>
       </c>
@@ -10023,7 +10071,7 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -10056,109 +10104,109 @@
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="285" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="278"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="287"/>
       <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="276" t="s">
+      <c r="H2" s="285" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="277"/>
-      <c r="J2" s="278"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="287"/>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="285">
+      <c r="L2" s="294">
         <v>43596</v>
       </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
+      <c r="M2" s="294"/>
+      <c r="N2" s="294"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="276" t="s">
+      <c r="B3" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="278"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="287"/>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="276" t="s">
+      <c r="H3" s="285" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="277"/>
-      <c r="J3" s="278"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="287"/>
       <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="286" t="s">
+      <c r="L3" s="295" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="295"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="295"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="278"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="286"/>
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286"/>
+      <c r="H4" s="286"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="287"/>
       <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="286" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="286"/>
-      <c r="N4" s="286"/>
-      <c r="O4" s="286"/>
-      <c r="P4" s="286"/>
+      <c r="L4" s="295" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="295"/>
+      <c r="P4" s="295"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="279" t="s">
+      <c r="B5" s="288" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="281"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="290"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
@@ -10206,18 +10254,18 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="284" t="s">
+      <c r="F8" s="293" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="284"/>
-      <c r="N8" s="284"/>
-      <c r="O8" s="284"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="293"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="293"/>
+      <c r="N8" s="293"/>
+      <c r="O8" s="293"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="21.75" customHeight="1">
@@ -10242,32 +10290,32 @@
         <v>141</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="273" t="s">
+      <c r="B10" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="291" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="283"/>
-      <c r="E10" s="283"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
       <c r="F10" s="13" t="s">
         <v>82</v>
       </c>
@@ -10292,12 +10340,12 @@
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="274"/>
-      <c r="C11" s="282" t="s">
+      <c r="B11" s="283"/>
+      <c r="C11" s="291" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
       <c r="F11" s="13" t="s">
         <v>74</v>
       </c>
@@ -10322,12 +10370,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="274"/>
-      <c r="C12" s="282" t="s">
+      <c r="B12" s="283"/>
+      <c r="C12" s="291" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
+      <c r="D12" s="292"/>
+      <c r="E12" s="292"/>
       <c r="F12" s="13" t="s">
         <v>74</v>
       </c>
@@ -10352,12 +10400,12 @@
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="274"/>
-      <c r="C13" s="282" t="s">
+      <c r="B13" s="283"/>
+      <c r="C13" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292"/>
       <c r="F13" s="13" t="s">
         <v>74</v>
       </c>
@@ -10382,12 +10430,12 @@
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="274"/>
-      <c r="C14" s="282" t="s">
+      <c r="B14" s="283"/>
+      <c r="C14" s="291" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="283"/>
-      <c r="E14" s="283"/>
+      <c r="D14" s="292"/>
+      <c r="E14" s="292"/>
       <c r="F14" s="13" t="s">
         <v>74</v>
       </c>
@@ -10412,12 +10460,12 @@
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="274"/>
-      <c r="C15" s="282" t="s">
+      <c r="B15" s="283"/>
+      <c r="C15" s="291" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="283"/>
-      <c r="E15" s="283"/>
+      <c r="D15" s="292"/>
+      <c r="E15" s="292"/>
       <c r="F15" s="13" t="s">
         <v>74</v>
       </c>
@@ -10442,10 +10490,10 @@
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="274"/>
-      <c r="C16" s="282"/>
-      <c r="D16" s="283"/>
-      <c r="E16" s="283"/>
+      <c r="B16" s="283"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -10460,10 +10508,10 @@
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="274"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="283"/>
+      <c r="B17" s="283"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -10478,10 +10526,10 @@
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="274"/>
-      <c r="C18" s="282"/>
-      <c r="D18" s="283"/>
-      <c r="E18" s="283"/>
+      <c r="B18" s="283"/>
+      <c r="C18" s="291"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -10496,10 +10544,10 @@
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="282"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="283"/>
+      <c r="B19" s="283"/>
+      <c r="C19" s="291"/>
+      <c r="D19" s="292"/>
+      <c r="E19" s="292"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -10514,10 +10562,10 @@
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="274"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="283"/>
-      <c r="E20" s="283"/>
+      <c r="B20" s="283"/>
+      <c r="C20" s="291"/>
+      <c r="D20" s="292"/>
+      <c r="E20" s="292"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -10532,7 +10580,7 @@
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="274"/>
+      <c r="B21" s="283"/>
       <c r="C21" s="14"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -10550,7 +10598,7 @@
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="274"/>
+      <c r="B22" s="283"/>
       <c r="C22" s="14"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -10568,7 +10616,7 @@
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="274"/>
+      <c r="B23" s="283"/>
       <c r="C23" s="14"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -10586,7 +10634,7 @@
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="274"/>
+      <c r="B24" s="283"/>
       <c r="C24" s="14"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -10604,7 +10652,7 @@
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="274"/>
+      <c r="B25" s="283"/>
       <c r="C25" s="14"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -10622,7 +10670,7 @@
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="274"/>
+      <c r="B26" s="283"/>
       <c r="C26" s="14"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -10640,7 +10688,7 @@
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="274"/>
+      <c r="B27" s="283"/>
       <c r="C27" s="14"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -10658,7 +10706,7 @@
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="274"/>
+      <c r="B28" s="283"/>
       <c r="C28" s="14"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -10676,7 +10724,7 @@
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="274"/>
+      <c r="B29" s="283"/>
       <c r="C29" s="14"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -10694,7 +10742,7 @@
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="274"/>
+      <c r="B30" s="283"/>
       <c r="C30" s="14"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -10712,10 +10760,10 @@
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="274"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="283"/>
-      <c r="E31" s="283"/>
+      <c r="B31" s="283"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="292"/>
+      <c r="E31" s="292"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -10730,10 +10778,10 @@
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="274"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="283"/>
+      <c r="B32" s="283"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="292"/>
+      <c r="E32" s="292"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -10748,10 +10796,10 @@
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="274"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="283"/>
-      <c r="E33" s="283"/>
+      <c r="B33" s="283"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -10766,10 +10814,10 @@
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="274"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="283"/>
-      <c r="E34" s="283"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="292"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -10784,10 +10832,10 @@
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="275"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="283"/>
-      <c r="E35" s="283"/>
+      <c r="B35" s="284"/>
+      <c r="C35" s="291"/>
+      <c r="D35" s="292"/>
+      <c r="E35" s="292"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -10881,11 +10929,11 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A38" zoomScale="64" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="96" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="96" customWidth="1"/>
@@ -10907,14 +10955,14 @@
       <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="213" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="98" t="s">
         <v>25</v>
       </c>
@@ -10923,14 +10971,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="213" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="98" t="s">
         <v>26</v>
       </c>
@@ -10939,14 +10987,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="213" t="s">
+      <c r="B4" s="221"/>
+      <c r="C4" s="216" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="214"/>
+      <c r="D4" s="217"/>
       <c r="E4" s="98" t="s">
         <v>27</v>
       </c>
@@ -10955,30 +11003,30 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="219"/>
       <c r="E5" s="98" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="100" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="213" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="214"/>
+      <c r="D6" s="217"/>
       <c r="E6" s="98" t="s">
         <v>29</v>
       </c>
@@ -11017,10 +11065,10 @@
       <c r="D9" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="222"/>
+      <c r="F9" s="225"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="23">
@@ -11035,10 +11083,10 @@
       <c r="D10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="219" t="s">
+      <c r="E10" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="223"/>
     </row>
     <row r="11" spans="1:6" ht="33.5" customHeight="1">
       <c r="A11" s="23">
@@ -11053,10 +11101,10 @@
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="219" t="s">
+      <c r="E11" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="220"/>
+      <c r="F11" s="223"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="23">
@@ -11071,28 +11119,28 @@
       <c r="D12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="219" t="s">
+      <c r="E12" s="222" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="220"/>
+      <c r="F12" s="223"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="23">
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="219" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="220"/>
+      <c r="E13" s="222" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="223"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="23">
@@ -11107,10 +11155,10 @@
       <c r="D14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="220"/>
+      <c r="F14" s="223"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="23">
@@ -11125,10 +11173,10 @@
       <c r="D15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="219" t="s">
+      <c r="E15" s="222" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="220"/>
+      <c r="F15" s="223"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="23">
@@ -11143,10 +11191,10 @@
       <c r="D16" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="219" t="s">
+      <c r="E16" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="220"/>
+      <c r="F16" s="223"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="23">
@@ -11161,10 +11209,10 @@
       <c r="D17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="219" t="s">
+      <c r="E17" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="220"/>
+      <c r="F17" s="223"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="23">
@@ -11179,10 +11227,10 @@
       <c r="D18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="219" t="s">
+      <c r="E18" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="220"/>
+      <c r="F18" s="223"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
       <c r="A19" s="23">
@@ -11192,15 +11240,15 @@
         <v>153</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="219" t="s">
+      <c r="E19" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="220"/>
+      <c r="F19" s="223"/>
     </row>
     <row r="20" spans="1:6" ht="33.75" customHeight="1">
       <c r="A20" s="23">
@@ -11215,10 +11263,10 @@
       <c r="D20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="219" t="s">
+      <c r="E20" s="222" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="220"/>
+      <c r="F20" s="223"/>
     </row>
     <row r="21" spans="1:6" ht="29.25" customHeight="1">
       <c r="A21" s="91" t="s">
@@ -11801,7 +11849,7 @@
       <selection activeCell="C22" sqref="C22:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="56" customWidth="1"/>
@@ -11829,10 +11877,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -11851,15 +11899,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -11873,17 +11921,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -11901,42 +11949,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="216" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -11957,10 +12005,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -11979,12 +12027,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="257" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="258"/>
+        <v>296</v>
+      </c>
+      <c r="C11" s="229" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="230"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -11995,7 +12043,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -12005,10 +12053,10 @@
       <c r="B12" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="257" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="258"/>
+      <c r="C12" s="229" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="230"/>
       <c r="E12" s="82" t="s">
         <v>182</v>
       </c>
@@ -12019,7 +12067,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -12029,10 +12077,10 @@
       <c r="B13" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="228" t="s">
+      <c r="C13" s="231" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="229"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="82" t="s">
         <v>75</v>
       </c>
@@ -12043,7 +12091,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -12051,19 +12099,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="173" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="257" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="258"/>
+        <v>193</v>
+      </c>
+      <c r="C14" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="230"/>
       <c r="E14" s="175" t="s">
         <v>182</v>
       </c>
       <c r="F14" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="295" t="s">
+      <c r="G14" s="179" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="149" t="s">
@@ -12096,10 +12144,10 @@
       <c r="A17" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="233"/>
+      <c r="C17" s="235"/>
       <c r="D17" s="65" t="s">
         <v>9</v>
       </c>
@@ -12116,20 +12164,20 @@
       <c r="A18" s="163">
         <v>1</v>
       </c>
-      <c r="B18" s="234" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="238"/>
+      <c r="B18" s="240" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="243"/>
+      <c r="F18" s="244"/>
       <c r="G18" s="164" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H18" s="165" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
@@ -12161,15 +12209,15 @@
       <c r="B21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="232" t="s">
+      <c r="D21" s="234"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="240"/>
+      <c r="G21" s="236"/>
       <c r="H21" s="69" t="s">
         <v>14</v>
       </c>
@@ -12179,19 +12227,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" s="247" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="247" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="249"/>
+        <v>273</v>
+      </c>
+      <c r="C22" s="237" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="238"/>
+      <c r="E22" s="239"/>
+      <c r="F22" s="237" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="239"/>
       <c r="H22" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -12199,19 +12247,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="161" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="250" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="250" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="252"/>
+        <v>273</v>
+      </c>
+      <c r="C23" s="251" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="252"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="251" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="253"/>
       <c r="H23" s="152" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
@@ -12243,15 +12291,15 @@
       <c r="B26" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="226" t="s">
+      <c r="D26" s="234"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="246"/>
+      <c r="G26" s="250"/>
       <c r="H26" s="60" t="s">
         <v>17</v>
       </c>
@@ -12263,15 +12311,15 @@
       <c r="B27" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244" t="s">
+      <c r="D27" s="246"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="245"/>
+      <c r="G27" s="249"/>
       <c r="H27" s="137" t="s">
         <v>74</v>
       </c>
@@ -12314,13 +12362,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="56" customWidth="1"/>
@@ -12350,10 +12398,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -12372,15 +12420,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -12394,17 +12442,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -12422,42 +12470,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -12478,10 +12526,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -12502,10 +12550,10 @@
       <c r="B11" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -12516,7 +12564,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -12524,12 +12572,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="174" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="224" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="225"/>
+        <v>288</v>
+      </c>
+      <c r="C12" s="254" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="255"/>
       <c r="E12" s="85" t="s">
         <v>182</v>
       </c>
@@ -12540,7 +12588,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -12548,14 +12596,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="224" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="254" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="77" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F13" s="77" t="s">
         <v>56</v>
@@ -12563,304 +12611,257 @@
       <c r="G13" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="86" t="s">
-        <v>120</v>
+      <c r="H13" s="78" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="80">
         <v>4</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="173" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="256" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="257"/>
+      <c r="E14" s="147" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A16" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A17" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="235"/>
+      <c r="D17" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="163">
+        <v>1</v>
+      </c>
+      <c r="B18" s="240" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="243"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="165" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A20" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A21" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="234"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="233" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="236"/>
+      <c r="H21" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A22" s="135">
+        <v>1</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="224" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="225"/>
-      <c r="E14" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="145">
-        <v>5</v>
-      </c>
-      <c r="B15" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="230" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="231"/>
-      <c r="E15" s="147" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="149" t="s">
+      <c r="C22" s="237" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="238"/>
+      <c r="E22" s="239"/>
+      <c r="F22" s="237" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="239"/>
+      <c r="H22" s="40" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="64" t="s">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="136">
+        <v>2</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="258" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="259"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="258" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="260"/>
+      <c r="H23" s="79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A25" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+    </row>
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A26" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="232" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="233"/>
-      <c r="D18" s="65" t="s">
+      <c r="B26" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="163">
+      <c r="D26" s="234"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="250"/>
+      <c r="H26" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="166">
         <v>1</v>
       </c>
-      <c r="B19" s="234" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="236" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="164" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" s="165" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="232" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="239"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="232" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="240"/>
-      <c r="H22" s="69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="135">
-        <v>1</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="B27" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="247" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="248"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="247" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="249"/>
-      <c r="H23" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="136">
-        <v>2</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="268" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="270"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="268" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="269"/>
-      <c r="H24" s="79" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="136">
-        <v>3</v>
-      </c>
-      <c r="B25" s="161" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" s="250" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="251"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="250" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="252"/>
-      <c r="H25" s="152" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="232" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="239"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="226" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="246"/>
-      <c r="H28" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="166">
-        <v>1</v>
-      </c>
-      <c r="B29" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C29" s="236" t="s">
+      <c r="C27" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="242" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="244"/>
+      <c r="H27" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="237"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="236" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="238"/>
-      <c r="H29" s="167" t="s">
-        <v>205</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
+  <mergeCells count="24">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:F4"/>
@@ -12888,7 +12889,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" style="56" customWidth="1"/>
@@ -12918,10 +12919,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -12940,15 +12941,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -12962,17 +12963,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -12990,42 +12991,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -13046,10 +13047,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -13070,10 +13071,10 @@
       <c r="B11" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="287" t="s">
+      <c r="C11" s="261" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="288"/>
+      <c r="D11" s="262"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -13084,7 +13085,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -13094,10 +13095,10 @@
       <c r="B12" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="254" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="28" t="s">
         <v>64</v>
       </c>
@@ -13118,10 +13119,10 @@
       <c r="B13" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="265" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="272"/>
+      <c r="D13" s="266"/>
       <c r="E13" s="28" t="s">
         <v>182</v>
       </c>
@@ -13140,12 +13141,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="224" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="225"/>
+        <v>255</v>
+      </c>
+      <c r="C14" s="254" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="255"/>
       <c r="E14" s="34" t="s">
         <v>64</v>
       </c>
@@ -13166,10 +13167,10 @@
       <c r="B15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="225"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="43" t="s">
         <v>64</v>
       </c>
@@ -13190,10 +13191,10 @@
       <c r="B16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="224" t="s">
+      <c r="C16" s="254" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="225"/>
+      <c r="D16" s="255"/>
       <c r="E16" s="28" t="s">
         <v>182</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>74</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -13214,10 +13215,10 @@
       <c r="B17" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="289" t="s">
+      <c r="C17" s="271" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="290"/>
+      <c r="D17" s="272"/>
       <c r="E17" s="43" t="s">
         <v>168</v>
       </c>
@@ -13238,10 +13239,10 @@
       <c r="B18" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="291" t="s">
+      <c r="C18" s="263" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="292"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="157" t="s">
         <v>168</v>
       </c>
@@ -13281,10 +13282,10 @@
       <c r="A21" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="233"/>
+      <c r="C21" s="235"/>
       <c r="D21" s="65" t="s">
         <v>9</v>
       </c>
@@ -13301,37 +13302,37 @@
       <c r="A22" s="80">
         <v>1</v>
       </c>
-      <c r="B22" s="253" t="s">
+      <c r="B22" s="267" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="254"/>
-      <c r="D22" s="247" t="s">
+      <c r="C22" s="268"/>
+      <c r="D22" s="237" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="248"/>
-      <c r="F22" s="249"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="239"/>
       <c r="G22" s="83" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H22" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="145">
         <v>2</v>
       </c>
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="269" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="250" t="s">
+      <c r="C23" s="270"/>
+      <c r="D23" s="251" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="251"/>
-      <c r="F23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="253"/>
       <c r="G23" s="148" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H23" s="149" t="s">
         <v>74</v>
@@ -13366,15 +13367,15 @@
       <c r="B26" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="239"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="232" t="s">
+      <c r="D26" s="234"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="240"/>
+      <c r="G26" s="236"/>
       <c r="H26" s="69" t="s">
         <v>14</v>
       </c>
@@ -13384,37 +13385,37 @@
         <v>1</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="247" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="248"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="247" t="s">
+      <c r="D27" s="238"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="249"/>
+      <c r="G27" s="239"/>
       <c r="H27" s="40" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="293">
+      <c r="A28" s="177">
         <v>2</v>
       </c>
-      <c r="B28" s="294" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="250" t="s">
+      <c r="B28" s="178" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="251" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="250" t="s">
+      <c r="D28" s="252"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="252"/>
+      <c r="G28" s="253"/>
       <c r="H28" s="152" t="s">
         <v>171</v>
       </c>
@@ -13448,15 +13449,15 @@
       <c r="B31" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="232" t="s">
+      <c r="C31" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="239"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="226" t="s">
+      <c r="D31" s="234"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="246"/>
+      <c r="G31" s="250"/>
       <c r="H31" s="60" t="s">
         <v>17</v>
       </c>
@@ -13466,19 +13467,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32" s="236" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" s="242" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="237"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="236" t="s">
-        <v>301</v>
-      </c>
-      <c r="G32" s="238"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="242" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" s="244"/>
       <c r="H32" s="167" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -13531,7 +13532,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="56" customWidth="1"/>
@@ -13561,10 +13562,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -13583,15 +13584,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -13605,17 +13606,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -13633,42 +13634,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -13689,10 +13690,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -13713,10 +13714,10 @@
       <c r="B11" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -13737,10 +13738,10 @@
       <c r="B12" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="254" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="82" t="s">
         <v>64</v>
       </c>
@@ -13761,10 +13762,10 @@
       <c r="B13" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="254" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="82" t="s">
         <v>64</v>
       </c>
@@ -13785,10 +13786,10 @@
       <c r="B14" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="254" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="225"/>
+      <c r="D14" s="255"/>
       <c r="E14" s="82" t="s">
         <v>140</v>
       </c>
@@ -13809,12 +13810,12 @@
       <c r="B15" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="254" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="225"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F15" s="85" t="s">
         <v>56</v>
@@ -13833,10 +13834,10 @@
       <c r="B16" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="230" t="s">
+      <c r="C16" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="231"/>
+      <c r="D16" s="257"/>
       <c r="E16" s="147" t="s">
         <v>64</v>
       </c>
@@ -13876,10 +13877,10 @@
       <c r="A19" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="233"/>
+      <c r="C19" s="235"/>
       <c r="D19" s="65" t="s">
         <v>9</v>
       </c>
@@ -13896,20 +13897,20 @@
       <c r="A20" s="163">
         <v>1</v>
       </c>
-      <c r="B20" s="234" t="s">
+      <c r="B20" s="240" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="235"/>
-      <c r="D20" s="236" t="s">
+      <c r="C20" s="241"/>
+      <c r="D20" s="242" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="237"/>
-      <c r="F20" s="238"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="244"/>
       <c r="G20" s="164" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H20" s="165" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
@@ -13941,15 +13942,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="232" t="s">
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="240"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="69" t="s">
         <v>14</v>
       </c>
@@ -13961,15 +13962,15 @@
       <c r="B24" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="241" t="s">
+      <c r="C24" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="242"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="244" t="s">
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="245"/>
+      <c r="G24" s="249"/>
       <c r="H24" s="137" t="s">
         <v>74</v>
       </c>
@@ -14003,15 +14004,15 @@
       <c r="B27" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="232" t="s">
+      <c r="C27" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="239"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="226" t="s">
+      <c r="D27" s="234"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="246"/>
+      <c r="G27" s="250"/>
       <c r="H27" s="60" t="s">
         <v>17</v>
       </c>
@@ -14021,19 +14022,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C28" s="236" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="237"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="236" t="s">
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="238"/>
+      <c r="G28" s="244"/>
       <c r="H28" s="167" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -14074,13 +14075,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="56" customWidth="1"/>
@@ -14108,10 +14109,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -14130,15 +14131,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -14152,12 +14153,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
@@ -14180,42 +14181,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="C6" s="216" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="216" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="216" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14236,10 +14237,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -14258,12 +14259,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="229"/>
+        <v>261</v>
+      </c>
+      <c r="C11" s="231" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="232"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
@@ -14274,7 +14275,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -14282,12 +14283,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="224" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="254" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="82" t="s">
         <v>182</v>
       </c>
@@ -14298,261 +14299,325 @@
         <v>74</v>
       </c>
       <c r="H12" s="78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="75">
+        <v>3</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="254" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="255"/>
+      <c r="E13" s="298" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="75">
+        <v>4</v>
+      </c>
+      <c r="B14" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="256" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="257"/>
+      <c r="E14" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="149" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A16" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A17" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="235"/>
+      <c r="D17" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="80">
+        <v>1</v>
+      </c>
+      <c r="B18" s="267" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="268"/>
+      <c r="D18" s="237" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="238"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="80">
+        <v>2</v>
+      </c>
+      <c r="B19" s="265" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="266"/>
+      <c r="D19" s="258" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" s="299" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="80">
+        <v>3</v>
+      </c>
+      <c r="B20" s="269" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="270"/>
+      <c r="D20" s="251" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="252"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="299" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A22" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A23" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="233" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="236"/>
+      <c r="H23" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A24" s="38">
+        <v>1</v>
+      </c>
+      <c r="B24" s="161" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="237" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="238"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="237" t="s">
+        <v>269</v>
+      </c>
+      <c r="G24" s="239"/>
+      <c r="H24" s="40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A25" s="38">
+        <v>2</v>
+      </c>
+      <c r="B25" s="161" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="265" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="297"/>
+      <c r="E25" s="266"/>
+      <c r="F25" s="258" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="260"/>
+      <c r="H25" s="296" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="38">
+        <v>3</v>
+      </c>
+      <c r="B26" s="160" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="251" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="252"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="251" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="253"/>
+      <c r="H26" s="152" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="145">
-        <v>3</v>
-      </c>
-      <c r="B13" s="146" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="149" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="64" t="s">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A28" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+    </row>
+    <row r="29" spans="1:8" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A29" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="65" t="s">
+      <c r="B29" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="80">
+      <c r="D29" s="234"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="250"/>
+      <c r="H29" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="153">
         <v>1</v>
       </c>
-      <c r="B17" s="253" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="247" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="84" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="145">
-        <v>2</v>
-      </c>
-      <c r="B18" s="255" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="250" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="148" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="149" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="232" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="232" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="240"/>
-      <c r="H21" s="69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="38">
-        <v>1</v>
-      </c>
-      <c r="B22" s="161" t="s">
+      <c r="B30" s="142" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="247" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="247" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="249"/>
-      <c r="H22" s="40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="150">
-        <v>2</v>
-      </c>
-      <c r="B23" s="160" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="250" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="250" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="252"/>
-      <c r="H23" s="152" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="232" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="239"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="226" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="246"/>
-      <c r="H26" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="153">
-        <v>1</v>
-      </c>
-      <c r="B27" s="142" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="241" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" s="245"/>
-      <c r="H27" s="137" t="s">
-        <v>297</v>
+      <c r="C30" s="245" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="246"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="248" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" s="249"/>
+      <c r="H30" s="137" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="30">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:F4"/>
@@ -14562,22 +14627,27 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14592,11 +14662,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="56" customWidth="1"/>
@@ -14624,10 +14694,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="97"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -14646,15 +14716,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="97"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -14668,17 +14738,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="97"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -14696,42 +14766,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="216" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="216" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14752,10 +14822,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -14774,23 +14844,23 @@
         <v>1</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="229"/>
+        <v>228</v>
+      </c>
+      <c r="C11" s="231" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="232"/>
       <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G11" s="83" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -14798,23 +14868,23 @@
         <v>2</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="224" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="225"/>
+        <v>229</v>
+      </c>
+      <c r="C12" s="254" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="255"/>
       <c r="E12" s="82" t="s">
         <v>182</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G12" s="83" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -14822,17 +14892,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="162" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="256" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="257"/>
+      <c r="E13" s="147" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="147" t="s">
         <v>235</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="147" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="147" t="s">
-        <v>240</v>
       </c>
       <c r="G13" s="148" t="s">
         <v>74</v>
@@ -14867,10 +14937,10 @@
       <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="233"/>
+      <c r="C16" s="235"/>
       <c r="D16" s="65" t="s">
         <v>9</v>
       </c>
@@ -14887,40 +14957,40 @@
       <c r="A17" s="80">
         <v>1</v>
       </c>
-      <c r="B17" s="253" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="247" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="249"/>
+      <c r="B17" s="267" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="268"/>
+      <c r="D17" s="237" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="238"/>
+      <c r="F17" s="239"/>
       <c r="G17" s="83" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="145">
         <v>2</v>
       </c>
-      <c r="B18" s="255" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="250" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
+      <c r="B18" s="269" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="270"/>
+      <c r="D18" s="251" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="252"/>
+      <c r="F18" s="253"/>
       <c r="G18" s="148" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H18" s="149" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
@@ -14952,15 +15022,15 @@
       <c r="B21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="232" t="s">
+      <c r="D21" s="234"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="240"/>
+      <c r="G21" s="236"/>
       <c r="H21" s="69" t="s">
         <v>14</v>
       </c>
@@ -14970,19 +15040,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" s="236" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="237"/>
-      <c r="E22" s="238"/>
-      <c r="F22" s="236" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="238"/>
+        <v>273</v>
+      </c>
+      <c r="C22" s="242" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="243"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="242" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="244"/>
       <c r="H22" s="167" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -15014,15 +15084,15 @@
       <c r="B25" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="232" t="s">
+      <c r="C25" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="239"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="226" t="s">
+      <c r="D25" s="234"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="246"/>
+      <c r="G25" s="250"/>
       <c r="H25" s="60" t="s">
         <v>17</v>
       </c>
@@ -15032,19 +15102,19 @@
         <v>1</v>
       </c>
       <c r="B26" s="151" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="236" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="237"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="236" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="238"/>
+        <v>286</v>
+      </c>
+      <c r="C26" s="242" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="243"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="242" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" s="244"/>
       <c r="H26" s="167" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -15086,11 +15156,11 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="117" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="56" customWidth="1"/>
@@ -15120,10 +15190,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="45" t="s">
         <v>25</v>
       </c>
@@ -15142,15 +15212,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>29</v>
@@ -15164,17 +15234,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="57" customFormat="1" ht="20.25" customHeight="1">
@@ -15192,42 +15262,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="216" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="213" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="216" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="213" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="216" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -15248,10 +15318,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -15272,10 +15342,10 @@
       <c r="B11" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="224" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="225"/>
+      <c r="C11" s="254" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="255"/>
       <c r="E11" s="28" t="s">
         <v>182</v>
       </c>
@@ -15286,7 +15356,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -15294,12 +15364,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="231"/>
+        <v>227</v>
+      </c>
+      <c r="C12" s="256" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="257"/>
       <c r="E12" s="170" t="s">
         <v>64</v>
       </c>
@@ -15339,10 +15409,10 @@
       <c r="A15" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="233"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="65" t="s">
         <v>9</v>
       </c>
@@ -15359,20 +15429,20 @@
       <c r="A16" s="163">
         <v>1</v>
       </c>
-      <c r="B16" s="234" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="B16" s="240" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="241"/>
+      <c r="D16" s="242" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="243"/>
+      <c r="F16" s="244"/>
       <c r="G16" s="164" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H16" s="165" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -15404,15 +15474,15 @@
       <c r="B19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="232" t="s">
+      <c r="D19" s="234"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="236"/>
       <c r="H19" s="69" t="s">
         <v>14</v>
       </c>
@@ -15424,15 +15494,15 @@
       <c r="B20" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="241" t="s">
+      <c r="C20" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="242"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="244" t="s">
+      <c r="D20" s="246"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="245"/>
+      <c r="G20" s="249"/>
       <c r="H20" s="137" t="s">
         <v>74</v>
       </c>
@@ -15466,15 +15536,15 @@
       <c r="B23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="226" t="s">
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="250"/>
       <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
@@ -15484,19 +15554,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="236" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="236" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" s="238"/>
+        <v>279</v>
+      </c>
+      <c r="C24" s="242" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="242" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="244"/>
       <c r="H24" s="167" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
